--- a/MUSCDentalCT.xlsx
+++ b/MUSCDentalCT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheug\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB99D2E-CDB5-4C63-A0B8-0FD5C4A5995A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +22,13 @@
     <definedName name="LNEXP" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$M$198</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="184">
   <si>
     <t>Print Area</t>
   </si>
@@ -580,12 +586,15 @@
   </si>
   <si>
     <t>DHEC RHB 4.11.2.1</t>
+  </si>
+  <si>
+    <t>Unit installed as shown on shielding plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
@@ -717,7 +726,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,6 +781,12 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="64">
     <border>
@@ -1575,7 +1590,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="223">
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2170,86 +2185,92 @@
     <xf numFmtId="170" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="COMMENT" xfId="7"/>
-    <cellStyle name="Fail" xfId="6"/>
-    <cellStyle name="Heading" xfId="3"/>
-    <cellStyle name="Heading1" xfId="4"/>
+    <cellStyle name="COMMENT" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Fail" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Heading" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Heading1" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pass" xfId="5"/>
-    <cellStyle name="Result" xfId="1"/>
-    <cellStyle name="Result2" xfId="2"/>
-    <cellStyle name="SUBTITLE" xfId="8"/>
+    <cellStyle name="Pass" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Result2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="SUBTITLE" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2540,7 +2561,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2694,7 +2714,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2767,7 +2786,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2849,7 +2867,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3129,23 +3153,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45:M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" style="2" customWidth="1"/>
     <col min="3" max="13" width="10.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="2.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="2.3984375" style="2" customWidth="1"/>
     <col min="15" max="40" width="10.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -3178,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -3196,7 +3220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -3215,7 +3239,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -3230,7 +3254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3246,7 +3270,7 @@
       </c>
       <c r="Y5" s="15"/>
     </row>
-    <row r="6" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -3283,7 +3307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -3317,7 +3341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -3343,18 +3367,18 @@
         <f>IF(P7="","",P7)</f>
         <v/>
       </c>
-      <c r="AG8" s="198" t="s">
+      <c r="AG8" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="AH8" s="198"/>
-      <c r="AJ8" s="199" t="s">
+      <c r="AH8" s="219"/>
+      <c r="AJ8" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="AK8" s="199"/>
-      <c r="AL8" s="199"/>
-      <c r="AM8" s="199"/>
-    </row>
-    <row r="9" spans="1:39" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AK8" s="220"/>
+      <c r="AL8" s="220"/>
+      <c r="AM8" s="220"/>
+    </row>
+    <row r="9" spans="1:39" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -3416,7 +3440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -3424,19 +3448,19 @@
       <c r="E10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="212" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="200"/>
+      <c r="G10" s="212"/>
       <c r="J10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="212" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="200"/>
+      <c r="L10" s="212"/>
       <c r="M10" s="13"/>
       <c r="O10" s="14"/>
       <c r="Q10" s="18" t="s">
@@ -3487,7 +3511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -3495,19 +3519,19 @@
       <c r="E11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="201" t="str">
+      <c r="F11" s="217" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="201"/>
+      <c r="G11" s="217"/>
       <c r="J11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="212" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="200"/>
+      <c r="L11" s="212"/>
       <c r="M11" s="13"/>
       <c r="O11" s="14"/>
       <c r="Q11" s="18" t="s">
@@ -3560,7 +3584,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -3568,19 +3592,19 @@
       <c r="E12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="201" t="str">
+      <c r="F12" s="217" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="201"/>
+      <c r="G12" s="217"/>
       <c r="J12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="202" t="str">
+      <c r="K12" s="218" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="202"/>
+      <c r="L12" s="218"/>
       <c r="M12" s="13"/>
       <c r="O12" s="14"/>
       <c r="Q12" s="18" t="s">
@@ -3633,7 +3657,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -3641,19 +3665,19 @@
       <c r="E13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="203" t="str">
+      <c r="F13" s="215" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="203"/>
+      <c r="G13" s="215"/>
       <c r="J13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="200" t="str">
+      <c r="K13" s="212" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="200"/>
+      <c r="L13" s="212"/>
       <c r="M13" s="13"/>
       <c r="O13" s="14"/>
       <c r="Q13" s="18" t="s">
@@ -3706,7 +3730,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -3759,7 +3783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -3803,7 +3827,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -3811,19 +3835,19 @@
       <c r="E16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="204" t="str">
+      <c r="F16" s="213" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="204"/>
+      <c r="G16" s="213"/>
       <c r="J16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="202" t="str">
+      <c r="K16" s="218" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="202"/>
+      <c r="L16" s="218"/>
       <c r="M16" s="13"/>
       <c r="O16" s="14"/>
       <c r="P16" s="31" t="s">
@@ -3863,7 +3887,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -3871,19 +3895,19 @@
       <c r="E17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="203" t="str">
+      <c r="F17" s="215" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="203"/>
+      <c r="G17" s="215"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="212" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="200"/>
+      <c r="L17" s="212"/>
       <c r="M17" s="13"/>
       <c r="O17" s="14"/>
       <c r="Q17" s="18" t="s">
@@ -3936,7 +3960,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -3993,7 +4017,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -4022,7 +4046,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -4030,19 +4054,19 @@
       <c r="E20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="204" t="str">
+      <c r="F20" s="213" t="str">
         <f>IF(R21="","",R21)</f>
         <v/>
       </c>
-      <c r="G20" s="204"/>
+      <c r="G20" s="213"/>
       <c r="J20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="200" t="str">
+      <c r="K20" s="212" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L20" s="200"/>
+      <c r="L20" s="212"/>
       <c r="M20" s="13"/>
       <c r="O20" s="14"/>
       <c r="P20" s="31" t="s">
@@ -4063,7 +4087,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -4071,19 +4095,19 @@
       <c r="E21" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="205" t="str">
+      <c r="F21" s="216" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="205"/>
+      <c r="G21" s="216"/>
       <c r="J21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="212" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="200"/>
+      <c r="L21" s="212"/>
       <c r="M21" s="13"/>
       <c r="O21" s="14"/>
       <c r="Q21" s="18" t="s">
@@ -4122,7 +4146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -4133,11 +4157,11 @@
       <c r="J22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="200" t="str">
+      <c r="K22" s="212" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="200"/>
+      <c r="L22" s="212"/>
       <c r="M22" s="13"/>
       <c r="O22" s="14"/>
       <c r="Q22" s="18" t="s">
@@ -4176,7 +4200,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -4184,11 +4208,11 @@
       <c r="E23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="204" t="str">
+      <c r="F23" s="213" t="str">
         <f>IF(R24="","",R24)</f>
         <v/>
       </c>
-      <c r="G23" s="204"/>
+      <c r="G23" s="213"/>
       <c r="M23" s="13"/>
       <c r="O23" s="14"/>
       <c r="P23" s="31" t="s">
@@ -4222,7 +4246,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -4230,11 +4254,11 @@
       <c r="E24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="204" t="str">
+      <c r="F24" s="213" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="204"/>
+      <c r="G24" s="213"/>
       <c r="J24" s="31" t="s">
         <v>50</v>
       </c>
@@ -4268,7 +4292,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -4276,19 +4300,19 @@
       <c r="E25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="204" t="str">
+      <c r="F25" s="213" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="204"/>
+      <c r="G25" s="213"/>
       <c r="J25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="200" t="str">
+      <c r="K25" s="212" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="200"/>
+      <c r="L25" s="212"/>
       <c r="M25" s="13"/>
       <c r="O25" s="14"/>
       <c r="Q25" s="18" t="s">
@@ -4311,7 +4335,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -4322,11 +4346,11 @@
       <c r="J26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="200" t="str">
+      <c r="K26" s="212" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="200"/>
+      <c r="L26" s="212"/>
       <c r="M26" s="13"/>
       <c r="O26" s="14"/>
       <c r="Q26" s="18" t="s">
@@ -4351,7 +4375,7 @@
       </c>
       <c r="AB26" s="125"/>
     </row>
-    <row r="27" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -4359,11 +4383,11 @@
       <c r="E27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="204" t="str">
+      <c r="F27" s="213" t="str">
         <f>IF(R28="","",R28)</f>
         <v/>
       </c>
-      <c r="G27" s="204"/>
+      <c r="G27" s="213"/>
       <c r="M27" s="13"/>
       <c r="O27" s="14"/>
       <c r="P27" s="31" t="s">
@@ -4391,7 +4415,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -4399,11 +4423,11 @@
       <c r="E28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="204" t="str">
+      <c r="F28" s="213" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="204"/>
+      <c r="G28" s="213"/>
       <c r="M28" s="13"/>
       <c r="O28" s="14"/>
       <c r="Q28" s="18" t="s">
@@ -4455,7 +4479,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -4463,11 +4487,11 @@
       <c r="E29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="204" t="str">
+      <c r="F29" s="213" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="204"/>
+      <c r="G29" s="213"/>
       <c r="M29" s="13"/>
       <c r="O29" s="14"/>
       <c r="Q29" s="18" t="s">
@@ -4505,7 +4529,7 @@
       <c r="AM29" s="117"/>
       <c r="AN29" s="117"/>
     </row>
-    <row r="30" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -4557,7 +4581,7 @@
       <c r="AM30" s="117"/>
       <c r="AN30" s="117"/>
     </row>
-    <row r="31" spans="1:40" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -4598,7 +4622,7 @@
       <c r="AM31" s="117"/>
       <c r="AN31" s="117"/>
     </row>
-    <row r="32" spans="1:40" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -4616,10 +4640,10 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="206" t="s">
+      <c r="L32" s="214" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="206"/>
+      <c r="M32" s="214"/>
       <c r="AA32" s="18" t="s">
         <v>37</v>
       </c>
@@ -4646,7 +4670,7 @@
       <c r="AM32" s="117"/>
       <c r="AN32" s="117"/>
     </row>
-    <row r="33" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -4695,7 +4719,7 @@
       <c r="AM33" s="117"/>
       <c r="AN33" s="117"/>
     </row>
-    <row r="34" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -4753,7 +4777,7 @@
       <c r="AM34" s="159"/>
       <c r="AN34" s="159"/>
     </row>
-    <row r="35" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -4797,7 +4821,7 @@
       <c r="AM35" s="117"/>
       <c r="AN35" s="117"/>
     </row>
-    <row r="36" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -4847,7 +4871,7 @@
       <c r="AM36" s="117"/>
       <c r="AN36" s="117"/>
     </row>
-    <row r="37" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -4894,7 +4918,7 @@
       <c r="AM37" s="117"/>
       <c r="AN37" s="117"/>
     </row>
-    <row r="38" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -4941,7 +4965,7 @@
       <c r="AM38" s="117"/>
       <c r="AN38" s="117"/>
     </row>
-    <row r="39" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -4978,7 +5002,7 @@
       <c r="AM39" s="117"/>
       <c r="AN39" s="117"/>
     </row>
-    <row r="40" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>40</v>
       </c>
@@ -5003,7 +5027,7 @@
       <c r="AM40" s="151"/>
       <c r="AN40" s="151"/>
     </row>
-    <row r="41" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -5012,11 +5036,11 @@
         <v>78</v>
       </c>
       <c r="L41" s="70" t="str">
-        <f>IF(O45="","TBD",IF(O45=1,"YES",IF(O45=3,"NA","")))</f>
+        <f>IF(O44="","TBD",IF(O44=1,"YES",IF(O44=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M41" s="71" t="str">
-        <f>IF(O45=2,"NO","")</f>
+        <f>IF(O44=2,"NO","")</f>
         <v/>
       </c>
       <c r="O41" s="73"/>
@@ -5038,7 +5062,7 @@
       <c r="AM41" s="74"/>
       <c r="AN41" s="74"/>
     </row>
-    <row r="42" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>42</v>
       </c>
@@ -5047,11 +5071,11 @@
         <v>80</v>
       </c>
       <c r="L42" s="70" t="str">
-        <f>IF(O46="","TBD",IF(O46=1,"YES",IF(O46=3,"NA","")))</f>
+        <f>IF(O45="","TBD",IF(O45=1,"YES",IF(O45=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M42" s="71" t="str">
-        <f>IF(O46=2,"NO","")</f>
+        <f>IF(O45=2,"NO","")</f>
         <v/>
       </c>
       <c r="O42" s="73"/>
@@ -5081,7 +5105,7 @@
       <c r="AM42" s="74"/>
       <c r="AN42" s="74"/>
     </row>
-    <row r="43" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>43</v>
       </c>
@@ -5090,14 +5114,17 @@
         <v>82</v>
       </c>
       <c r="L43" s="70" t="str">
-        <f>IF(O47="","TBD",IF(O47=1,"YES",IF(O47=3,"NA","")))</f>
+        <f>IF(O46="","TBD",IF(O46=1,"YES",IF(O46=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M43" s="71" t="str">
-        <f>IF(O47=2,"NO","")</f>
+        <f>IF(O46=2,"NO","")</f>
         <v/>
       </c>
       <c r="O43" s="14"/>
+      <c r="T43" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="Y43" s="15"/>
       <c r="AA43" s="18" t="s">
         <v>83</v>
@@ -5121,7 +5148,7 @@
       <c r="AM43"/>
       <c r="AN43"/>
     </row>
-    <row r="44" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>44</v>
       </c>
@@ -5130,16 +5157,16 @@
         <v>84</v>
       </c>
       <c r="L44" s="70" t="str">
-        <f>IF(O48="","TBD",IF(O48=1,"YES",IF(O48=3,"NA","")))</f>
+        <f>IF(O47="","TBD",IF(O47=1,"YES",IF(O47=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M44" s="71" t="str">
-        <f>IF(O48=2,"NO","")</f>
-        <v/>
-      </c>
-      <c r="O44" s="14"/>
-      <c r="T44" s="31" t="s">
-        <v>77</v>
+        <f>IF(O47=2,"NO","")</f>
+        <v/>
+      </c>
+      <c r="O44" s="73"/>
+      <c r="P44" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="Y44" s="15"/>
       <c r="AA44" s="18" t="s">
@@ -5164,7 +5191,7 @@
       <c r="AM44" s="74"/>
       <c r="AN44" s="74"/>
     </row>
-    <row r="45" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45</v>
       </c>
@@ -5173,16 +5200,16 @@
         <v>86</v>
       </c>
       <c r="L45" s="70" t="str">
-        <f>IF(O49="","TBD",IF(O49=1,"YES",IF(O49=3,"NA","")))</f>
+        <f>IF(O48="","TBD",IF(O48=1,"YES",IF(O48=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M45" s="71" t="str">
-        <f>IF(O49=2,"NO","")</f>
+        <f>IF(O48=2,"NO","")</f>
         <v/>
       </c>
       <c r="O45" s="73"/>
       <c r="P45" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y45" s="15"/>
       <c r="AA45" s="18" t="s">
@@ -5198,15 +5225,25 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>46</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="M46" s="13"/>
+      <c r="E46" s="222" t="s">
+        <v>183</v>
+      </c>
+      <c r="L46" s="70" t="str">
+        <f>IF(O49="","TBD",IF(O49=1,"YES",IF(O49=3,"NA","")))</f>
+        <v>TBD</v>
+      </c>
+      <c r="M46" s="71" t="str">
+        <f>IF(O49=2,"NO","")</f>
+        <v/>
+      </c>
       <c r="O46" s="73"/>
       <c r="P46" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y46" s="15"/>
       <c r="AA46" s="18" t="s">
@@ -5222,7 +5259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>47</v>
       </c>
@@ -5240,7 +5277,7 @@
       </c>
       <c r="O47" s="73"/>
       <c r="P47" s="19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y47" s="15"/>
       <c r="AA47" s="18" t="s">
@@ -5256,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>48</v>
       </c>
@@ -5277,7 +5314,7 @@
       </c>
       <c r="O48" s="73"/>
       <c r="P48" s="19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y48" s="15"/>
       <c r="AA48" s="18" t="s">
@@ -5293,7 +5330,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>49</v>
       </c>
@@ -5312,9 +5349,9 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O49" s="73"/>
-      <c r="P49" s="19" t="s">
-        <v>86</v>
+      <c r="O49" s="221"/>
+      <c r="P49" s="180" t="s">
+        <v>183</v>
       </c>
       <c r="Y49" s="15"/>
       <c r="AA49" s="68"/>
@@ -5322,7 +5359,7 @@
       <c r="AC49" s="68"/>
       <c r="AD49" s="68"/>
     </row>
-    <row r="50" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>50</v>
       </c>
@@ -5356,7 +5393,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>51</v>
       </c>
@@ -5393,7 +5430,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>52</v>
       </c>
@@ -5430,7 +5467,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>53</v>
       </c>
@@ -5467,7 +5504,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>54</v>
       </c>
@@ -5483,7 +5520,7 @@
       <c r="AC54" s="68"/>
       <c r="AD54" s="68"/>
     </row>
-    <row r="55" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>55</v>
       </c>
@@ -5507,7 +5544,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>56</v>
       </c>
@@ -5522,14 +5559,14 @@
       <c r="AB56" s="19"/>
       <c r="AD56" s="19"/>
     </row>
-    <row r="57" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>57</v>
       </c>
       <c r="B57" s="11"/>
       <c r="M57" s="13"/>
       <c r="O57" s="73"/>
-      <c r="P57" s="220" t="s">
+      <c r="P57" s="205" t="s">
         <v>181</v>
       </c>
       <c r="Q57" s="24"/>
@@ -5552,7 +5589,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>58</v>
       </c>
@@ -5563,7 +5600,7 @@
       <c r="AB58" s="19"/>
       <c r="AD58" s="19"/>
     </row>
-    <row r="59" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>59</v>
       </c>
@@ -5584,7 +5621,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>60</v>
       </c>
@@ -5595,11 +5632,11 @@
         <v>79</v>
       </c>
       <c r="P60" s="79"/>
-      <c r="Q60" s="207"/>
-      <c r="R60" s="207"/>
-      <c r="S60" s="207"/>
-      <c r="T60" s="207"/>
-      <c r="U60" s="207"/>
+      <c r="Q60" s="211"/>
+      <c r="R60" s="211"/>
+      <c r="S60" s="211"/>
+      <c r="T60" s="211"/>
+      <c r="U60" s="211"/>
       <c r="V60" s="79"/>
       <c r="W60" s="79"/>
       <c r="X60" s="79"/>
@@ -5608,7 +5645,7 @@
       <c r="AB60" s="19"/>
       <c r="AD60" s="19"/>
     </row>
-    <row r="61" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>61</v>
       </c>
@@ -5645,7 +5682,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>62</v>
       </c>
@@ -5676,7 +5713,7 @@
       <c r="AB62" s="19"/>
       <c r="AD62" s="19"/>
     </row>
-    <row r="63" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>63</v>
       </c>
@@ -5716,7 +5753,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>64</v>
       </c>
@@ -5759,7 +5796,7 @@
       <c r="AB64" s="19"/>
       <c r="AD64" s="19"/>
     </row>
-    <row r="65" spans="1:30" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>65</v>
       </c>
@@ -5826,7 +5863,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>66</v>
       </c>
@@ -5886,7 +5923,7 @@
       <c r="AB66" s="19"/>
       <c r="AD66" s="19"/>
     </row>
-    <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -5913,7 +5950,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -5930,7 +5967,7 @@
       <c r="AB68" s="19"/>
       <c r="AD68" s="19"/>
     </row>
-    <row r="69" spans="1:30" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>3</v>
       </c>
@@ -5956,11 +5993,11 @@
       <c r="S69" s="150" t="s">
         <v>179</v>
       </c>
-      <c r="T69" s="215"/>
+      <c r="T69" s="200"/>
       <c r="V69" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="W69" s="215"/>
+      <c r="W69" s="200"/>
       <c r="Y69" s="84"/>
       <c r="AA69" s="18"/>
       <c r="AB69" s="77"/>
@@ -5973,7 +6010,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -5997,7 +6034,7 @@
       <c r="AB70" s="19"/>
       <c r="AD70" s="19"/>
     </row>
-    <row r="71" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>5</v>
       </c>
@@ -6044,7 +6081,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>6</v>
       </c>
@@ -6068,7 +6105,7 @@
       <c r="J72" s="150" t="s">
         <v>179</v>
       </c>
-      <c r="K72" s="217" t="str">
+      <c r="K72" s="202" t="str">
         <f>IF(T69="","",T69)</f>
         <v/>
       </c>
@@ -6090,7 +6127,7 @@
       <c r="AB72" s="19"/>
       <c r="AD72" s="19"/>
     </row>
-    <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>7</v>
       </c>
@@ -6114,7 +6151,7 @@
       <c r="J73" s="150" t="s">
         <v>180</v>
       </c>
-      <c r="K73" s="217" t="str">
+      <c r="K73" s="202" t="str">
         <f>IF(W69="","",W69)</f>
         <v/>
       </c>
@@ -6137,7 +6174,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>8</v>
       </c>
@@ -6170,7 +6207,7 @@
       <c r="AB74" s="19"/>
       <c r="AD74" s="19"/>
     </row>
-    <row r="75" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>9</v>
       </c>
@@ -6224,7 +6261,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>10</v>
       </c>
@@ -6267,7 +6304,7 @@
       <c r="AB76" s="19"/>
       <c r="AD76" s="19"/>
     </row>
-    <row r="77" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>11</v>
       </c>
@@ -6298,7 +6335,7 @@
         <v/>
       </c>
       <c r="V77" s="190" t="str">
-        <f>IF(U77="","",ABS(U77-$U$77/2))</f>
+        <f t="shared" ref="V77:V82" si="12">IF(U77="","",ABS(U77-$U$77/2))</f>
         <v/>
       </c>
       <c r="W77" s="136" t="str">
@@ -6321,7 +6358,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>12</v>
       </c>
@@ -6353,7 +6390,7 @@
         <v/>
       </c>
       <c r="V78" s="190" t="str">
-        <f>IF(U78="","",ABS(U78-$U$77/2))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W78" s="136" t="str">
@@ -6366,7 +6403,7 @@
       <c r="AB78" s="19"/>
       <c r="AD78" s="19"/>
     </row>
-    <row r="79" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>13</v>
       </c>
@@ -6394,7 +6431,7 @@
         <v/>
       </c>
       <c r="V79" s="190" t="str">
-        <f>IF(U79="","",ABS(U79-$U$77/2))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W79" s="189"/>
@@ -6411,7 +6448,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>14</v>
       </c>
@@ -6450,7 +6487,7 @@
         <v/>
       </c>
       <c r="V80" s="190" t="str">
-        <f>IF(U80="","",ABS(U80-$U$77/2))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W80" s="189" t="s">
@@ -6464,7 +6501,7 @@
       <c r="AB80" s="19"/>
       <c r="AD80" s="19"/>
     </row>
-    <row r="81" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>15</v>
       </c>
@@ -6509,7 +6546,7 @@
         <v/>
       </c>
       <c r="V81" s="190" t="str">
-        <f>IF(U81="","",ABS(U81-$U$77/2))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W81" s="190" t="str">
@@ -6532,7 +6569,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>16</v>
       </c>
@@ -6569,7 +6606,7 @@
         <v/>
       </c>
       <c r="V82" s="190" t="str">
-        <f>IF(U82="","",ABS(U82-$U$77/2))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W82" s="190" t="str">
@@ -6585,7 +6622,7 @@
       <c r="AB82" s="19"/>
       <c r="AD82" s="19"/>
     </row>
-    <row r="83" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>17</v>
       </c>
@@ -6639,7 +6676,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>18</v>
       </c>
@@ -6689,7 +6726,7 @@
       <c r="AB84" s="19"/>
       <c r="AD84" s="19"/>
     </row>
-    <row r="85" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>19</v>
       </c>
@@ -6747,7 +6784,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>20</v>
       </c>
@@ -6800,7 +6837,7 @@
       <c r="AB86" s="19"/>
       <c r="AD86" s="19"/>
     </row>
-    <row r="87" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>21</v>
       </c>
@@ -6842,7 +6879,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>22</v>
       </c>
@@ -6869,7 +6906,7 @@
       <c r="AB88" s="19"/>
       <c r="AD88" s="19"/>
     </row>
-    <row r="89" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>23</v>
       </c>
@@ -6909,7 +6946,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>24</v>
       </c>
@@ -6931,17 +6968,17 @@
       <c r="U90" s="150" t="s">
         <v>179</v>
       </c>
-      <c r="V90" s="215"/>
+      <c r="V90" s="200"/>
       <c r="W90" s="189"/>
       <c r="X90" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="Y90" s="216"/>
+      <c r="Y90" s="201"/>
       <c r="AA90" s="18"/>
       <c r="AB90" s="19"/>
       <c r="AD90" s="19"/>
     </row>
-    <row r="91" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>25</v>
       </c>
@@ -6974,7 +7011,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>26</v>
       </c>
@@ -7019,7 +7056,7 @@
       <c r="AC92" s="68"/>
       <c r="AD92" s="68"/>
     </row>
-    <row r="93" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>27</v>
       </c>
@@ -7071,7 +7108,7 @@
       <c r="AC93" s="68"/>
       <c r="AD93" s="68"/>
     </row>
-    <row r="94" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>28</v>
       </c>
@@ -7125,7 +7162,7 @@
       <c r="AC94" s="68"/>
       <c r="AD94" s="68"/>
     </row>
-    <row r="95" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>29</v>
       </c>
@@ -7179,7 +7216,7 @@
       <c r="AC95" s="68"/>
       <c r="AD95" s="68"/>
     </row>
-    <row r="96" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>30</v>
       </c>
@@ -7233,7 +7270,7 @@
       </c>
       <c r="AD96" s="68"/>
     </row>
-    <row r="97" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>31</v>
       </c>
@@ -7268,7 +7305,7 @@
       <c r="AC97" s="68"/>
       <c r="AD97" s="68"/>
     </row>
-    <row r="98" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>32</v>
       </c>
@@ -7301,7 +7338,7 @@
       <c r="AC98" s="68"/>
       <c r="AD98" s="68"/>
     </row>
-    <row r="99" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>33</v>
       </c>
@@ -7333,7 +7370,7 @@
       <c r="AC99" s="68"/>
       <c r="AD99" s="68"/>
     </row>
-    <row r="100" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>34</v>
       </c>
@@ -7361,7 +7398,7 @@
       <c r="AC100" s="154"/>
       <c r="AD100" s="52"/>
     </row>
-    <row r="101" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>35</v>
       </c>
@@ -7385,7 +7422,7 @@
       <c r="AC101" s="154"/>
       <c r="AD101" s="52"/>
     </row>
-    <row r="102" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>36</v>
       </c>
@@ -7399,10 +7436,10 @@
       <c r="Q102" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="R102" s="213" t="s">
+      <c r="R102" s="206" t="s">
         <v>155</v>
       </c>
-      <c r="S102" s="214"/>
+      <c r="S102" s="207"/>
       <c r="T102" s="190"/>
       <c r="U102" s="190" t="s">
         <v>156</v>
@@ -7416,7 +7453,7 @@
       <c r="AC102" s="154"/>
       <c r="AD102" s="52"/>
     </row>
-    <row r="103" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>37</v>
       </c>
@@ -7444,7 +7481,7 @@
       <c r="AC103" s="154"/>
       <c r="AD103" s="52"/>
     </row>
-    <row r="104" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>38</v>
       </c>
@@ -7452,27 +7489,27 @@
       <c r="M104" s="13"/>
       <c r="O104" s="144"/>
       <c r="P104" s="159">
-        <f>AF29</f>
+        <f t="shared" ref="P104:Q110" si="13">AF29</f>
         <v>60</v>
       </c>
       <c r="Q104" s="159">
-        <f>AG29</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R104" s="159" t="str">
-        <f>IF(AH29="","",AH29)</f>
+        <f t="shared" ref="R104:R110" si="14">IF(AH29="","",AH29)</f>
         <v/>
       </c>
       <c r="S104" s="159" t="str">
-        <f>IF(AJ29="","",AJ29)</f>
+        <f t="shared" ref="S104:T110" si="15">IF(AJ29="","",AJ29)</f>
         <v/>
       </c>
       <c r="T104" s="159" t="str">
-        <f>IF(AK29="","",AK29)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U104" s="162" t="str">
-        <f t="shared" ref="U104:U111" si="12">IF(OR(P104="",R104=""),"",(R104-P104)/P104)</f>
+        <f t="shared" ref="U104:U111" si="16">IF(OR(P104="",R104=""),"",(R104-P104)/P104)</f>
         <v/>
       </c>
       <c r="V104" s="68"/>
@@ -7484,7 +7521,7 @@
       <c r="AC104" s="154"/>
       <c r="AD104" s="52"/>
     </row>
-    <row r="105" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>39</v>
       </c>
@@ -7497,27 +7534,27 @@
       <c r="M105" s="13"/>
       <c r="O105" s="144"/>
       <c r="P105" s="159">
-        <f>AF30</f>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="Q105" s="159">
-        <f>AG30</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R105" s="159" t="str">
-        <f>IF(AH30="","",AH30)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="S105" s="159" t="str">
-        <f>IF(AJ30="","",AJ30)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="T105" s="159" t="str">
-        <f>IF(AK30="","",AK30)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U105" s="162" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V105" s="68"/>
@@ -7529,7 +7566,7 @@
       <c r="AC105" s="154"/>
       <c r="AD105" s="52"/>
     </row>
-    <row r="106" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>40</v>
       </c>
@@ -7542,27 +7579,27 @@
       <c r="M106" s="13"/>
       <c r="O106" s="144"/>
       <c r="P106" s="159">
-        <f>AF31</f>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="Q106" s="159">
-        <f>AG31</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R106" s="159" t="str">
-        <f>IF(AH31="","",AH31)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="S106" s="159" t="str">
-        <f>IF(AJ31="","",AJ31)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="T106" s="159" t="str">
-        <f>IF(AK31="","",AK31)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U106" s="162" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V106" s="68"/>
@@ -7574,7 +7611,7 @@
       <c r="AC106" s="154"/>
       <c r="AD106" s="52"/>
     </row>
-    <row r="107" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>41</v>
       </c>
@@ -7587,27 +7624,27 @@
       <c r="M107" s="13"/>
       <c r="O107" s="144"/>
       <c r="P107" s="159">
-        <f>AF32</f>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="Q107" s="159">
-        <f>AG32</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R107" s="159" t="str">
-        <f>IF(AH32="","",AH32)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="S107" s="159" t="str">
-        <f>IF(AJ32="","",AJ32)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="T107" s="159" t="str">
-        <f>IF(AK32="","",AK32)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U107" s="162" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V107" s="68"/>
@@ -7619,7 +7656,7 @@
       <c r="AC107" s="154"/>
       <c r="AD107" s="52"/>
     </row>
-    <row r="108" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>42</v>
       </c>
@@ -7632,27 +7669,27 @@
       <c r="M108" s="13"/>
       <c r="O108" s="144"/>
       <c r="P108" s="159">
-        <f>AF33</f>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="Q108" s="159">
-        <f>AG33</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R108" s="159" t="str">
-        <f>IF(AH33="","",AH33)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="S108" s="159" t="str">
-        <f>IF(AJ33="","",AJ33)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="T108" s="159" t="str">
-        <f>IF(AK33="","",AK33)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U108" s="162" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V108" s="68"/>
@@ -7664,7 +7701,7 @@
       <c r="AC108" s="154"/>
       <c r="AD108" s="52"/>
     </row>
-    <row r="109" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>43</v>
       </c>
@@ -7677,27 +7714,27 @@
       <c r="M109" s="13"/>
       <c r="O109" s="144"/>
       <c r="P109" s="159">
-        <f>AF34</f>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="Q109" s="159">
-        <f>AG34</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R109" s="159" t="str">
-        <f>IF(AH34="","",AH34)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="S109" s="159" t="str">
-        <f>IF(AJ34="","",AJ34)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="T109" s="159" t="str">
-        <f>IF(AK34="","",AK34)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U109" s="162" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V109" s="68"/>
@@ -7709,7 +7746,7 @@
       <c r="AC109" s="154"/>
       <c r="AD109" s="52"/>
     </row>
-    <row r="110" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>44</v>
       </c>
@@ -7722,27 +7759,27 @@
       <c r="M110" s="13"/>
       <c r="O110" s="144"/>
       <c r="P110" s="159">
-        <f>AF35</f>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="Q110" s="159">
-        <f>AG35</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R110" s="159" t="str">
-        <f>IF(AH35="","",AH35)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="S110" s="159" t="str">
-        <f>IF(AJ35="","",AJ35)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="T110" s="159" t="str">
-        <f>IF(AK35="","",AK35)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U110" s="162" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V110" s="68"/>
@@ -7754,7 +7791,7 @@
       <c r="AC110" s="154"/>
       <c r="AD110" s="52"/>
     </row>
-    <row r="111" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>45</v>
       </c>
@@ -7787,7 +7824,7 @@
         <v/>
       </c>
       <c r="U111" s="162" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V111" s="68"/>
@@ -7799,7 +7836,7 @@
       <c r="AC111" s="154"/>
       <c r="AD111" s="52"/>
     </row>
-    <row r="112" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>46</v>
       </c>
@@ -7831,7 +7868,7 @@
       <c r="AC112" s="154"/>
       <c r="AD112" s="52"/>
     </row>
-    <row r="113" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>47</v>
       </c>
@@ -7874,7 +7911,7 @@
       <c r="AC113" s="61"/>
       <c r="AD113" s="61"/>
     </row>
-    <row r="114" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>48</v>
       </c>
@@ -7887,18 +7924,18 @@
         <v>80</v>
       </c>
       <c r="F114" s="26"/>
-      <c r="G114" s="208" t="s">
+      <c r="G114" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="H114" s="208" t="s">
+      <c r="H114" s="210" t="s">
         <v>123</v>
       </c>
-      <c r="I114" s="208" t="s">
+      <c r="I114" s="210" t="s">
         <v>155</v>
       </c>
-      <c r="J114" s="208"/>
-      <c r="K114" s="208"/>
-      <c r="L114" s="208" t="s">
+      <c r="J114" s="210"/>
+      <c r="K114" s="210"/>
+      <c r="L114" s="210" t="s">
         <v>156</v>
       </c>
       <c r="M114" s="13"/>
@@ -7926,7 +7963,7 @@
       <c r="AC114" s="154"/>
       <c r="AD114" s="52"/>
     </row>
-    <row r="115" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>49</v>
       </c>
@@ -7943,8 +7980,8 @@
       <c r="F115" s="184" t="s">
         <v>144</v>
       </c>
-      <c r="G115" s="208"/>
-      <c r="H115" s="208"/>
+      <c r="G115" s="210"/>
+      <c r="H115" s="210"/>
       <c r="I115" s="159" t="s">
         <v>57</v>
       </c>
@@ -7954,7 +7991,7 @@
       <c r="K115" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="L115" s="208"/>
+      <c r="L115" s="210"/>
       <c r="M115" s="13"/>
       <c r="O115" s="144"/>
       <c r="P115" s="68"/>
@@ -7980,49 +8017,49 @@
       <c r="AC115" s="154"/>
       <c r="AD115" s="52"/>
     </row>
-    <row r="116" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>50</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="136" t="str">
-        <f>IF(P93="","",P93)</f>
+        <f t="shared" ref="C116:D119" si="17">IF(P93="","",P93)</f>
         <v/>
       </c>
       <c r="D116" s="93">
-        <f>IF(Q93="","",Q93)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="E116" s="93" t="str">
-        <f>IF(T93="","",T93)</f>
+        <f t="shared" ref="E116:F119" si="18">IF(T93="","",T93)</f>
         <v/>
       </c>
       <c r="F116" s="185" t="str">
-        <f>IF(U93="","",U93)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G116" s="159">
-        <f>P104</f>
+        <f t="shared" ref="G116:L117" si="19">P104</f>
         <v>60</v>
       </c>
       <c r="H116" s="159">
-        <f>Q104</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="I116" s="159" t="str">
-        <f>R104</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J116" s="117" t="str">
-        <f>S104</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K116" s="137" t="str">
-        <f>T104</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L116" s="94" t="str">
-        <f>U104</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M116" s="13"/>
@@ -8042,49 +8079,49 @@
       <c r="AC116" s="154"/>
       <c r="AD116" s="52"/>
     </row>
-    <row r="117" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>51</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="136" t="str">
-        <f>IF(P94="","",P94)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="D117" s="140">
-        <f>IF(Q94="","",Q94)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E117" s="93" t="str">
-        <f>IF(T94="","",T94)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F117" s="185" t="str">
-        <f>IF(U94="","",U94)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G117" s="159">
-        <f>P105</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="H117" s="159">
-        <f>Q105</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="I117" s="159" t="str">
-        <f>R105</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J117" s="117" t="str">
-        <f>S105</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K117" s="137" t="str">
-        <f>T105</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L117" s="94" t="str">
-        <f>U105</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M117" s="13"/>
@@ -8104,25 +8141,25 @@
       <c r="AC117" s="154"/>
       <c r="AD117" s="52"/>
     </row>
-    <row r="118" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>52</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="136" t="str">
-        <f>IF(P95="","",P95)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="D118" s="140">
-        <f>IF(Q95="","",Q95)</f>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="E118" s="93" t="str">
-        <f>IF(T95="","",T95)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F118" s="185" t="str">
-        <f>IF(U95="","",U95)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G118" s="159">
@@ -8168,49 +8205,49 @@
       <c r="AC118" s="154"/>
       <c r="AD118" s="52"/>
     </row>
-    <row r="119" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>53</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="136" t="str">
-        <f>IF(P96="","",P96)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="D119" s="140">
-        <f>IF(Q96="","",Q96)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="E119" s="93" t="str">
-        <f>IF(T96="","",T96)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F119" s="185" t="str">
-        <f>IF(U96="","",U96)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G119" s="159">
-        <f>P111</f>
+        <f t="shared" ref="G119:L119" si="20">P111</f>
         <v>90</v>
       </c>
       <c r="H119" s="159">
-        <f>Q111</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I119" s="159" t="str">
-        <f>R111</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J119" s="159" t="str">
-        <f>S111</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K119" s="187" t="str">
-        <f>T111</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L119" s="188" t="str">
-        <f>U111</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M119" s="13"/>
@@ -8236,7 +8273,7 @@
       <c r="AC119" s="154"/>
       <c r="AD119" s="52"/>
     </row>
-    <row r="120" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>54</v>
       </c>
@@ -8255,11 +8292,11 @@
         <v>157</v>
       </c>
       <c r="I120" s="186" t="str">
-        <f>R113</f>
+        <f t="shared" ref="I120:J122" si="21">R113</f>
         <v/>
       </c>
       <c r="J120" s="186" t="str">
-        <f>S113</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K120" s="160" t="s">
@@ -8296,7 +8333,7 @@
       <c r="AC120" s="154"/>
       <c r="AD120" s="52"/>
     </row>
-    <row r="121" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>55</v>
       </c>
@@ -8315,11 +8352,11 @@
         <v>158</v>
       </c>
       <c r="I121" s="159" t="str">
-        <f>R114</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J121" s="159" t="str">
-        <f>S114</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M121" s="13"/>
@@ -8339,7 +8376,7 @@
       <c r="AC121" s="154"/>
       <c r="AD121" s="52"/>
     </row>
-    <row r="122" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>56</v>
       </c>
@@ -8358,11 +8395,11 @@
         <v>159</v>
       </c>
       <c r="I122" s="162" t="str">
-        <f>R115</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J122" s="162" t="str">
-        <f>S115</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M122" s="13"/>
@@ -8382,7 +8419,7 @@
       <c r="AC122" s="154"/>
       <c r="AD122" s="52"/>
     </row>
-    <row r="123" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>57</v>
       </c>
@@ -8412,7 +8449,7 @@
       <c r="AC123" s="154"/>
       <c r="AD123" s="52"/>
     </row>
-    <row r="124" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>58</v>
       </c>
@@ -8425,7 +8462,7 @@
       <c r="H124" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="I124" s="211" t="s">
+      <c r="I124" s="198" t="s">
         <v>149</v>
       </c>
       <c r="J124" s="68"/>
@@ -8448,7 +8485,7 @@
       <c r="AC124" s="154"/>
       <c r="AD124" s="52"/>
     </row>
-    <row r="125" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>59</v>
       </c>
@@ -8459,7 +8496,7 @@
       <c r="F125" s="68"/>
       <c r="G125" s="68"/>
       <c r="H125" s="68"/>
-      <c r="I125" s="212" t="s">
+      <c r="I125" s="199" t="s">
         <v>150</v>
       </c>
       <c r="J125" s="68"/>
@@ -8482,7 +8519,7 @@
       <c r="AC125" s="154"/>
       <c r="AD125" s="52"/>
     </row>
-    <row r="126" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>60</v>
       </c>
@@ -8491,7 +8528,7 @@
         <v>161</v>
       </c>
       <c r="H126" s="68"/>
-      <c r="I126" s="212" t="s">
+      <c r="I126" s="199" t="s">
         <v>152</v>
       </c>
       <c r="M126" s="13"/>
@@ -8516,7 +8553,7 @@
       <c r="AC126" s="154"/>
       <c r="AD126" s="52"/>
     </row>
-    <row r="127" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>61</v>
       </c>
@@ -8555,7 +8592,7 @@
       <c r="AC127" s="154"/>
       <c r="AD127" s="52"/>
     </row>
-    <row r="128" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>62</v>
       </c>
@@ -8577,14 +8614,14 @@
       <c r="I128" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="J128" s="218" t="str">
+      <c r="J128" s="203" t="str">
         <f>IF(V90="","",V90)</f>
         <v/>
       </c>
       <c r="L128" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="M128" s="219" t="str">
+      <c r="M128" s="204" t="str">
         <f>IF(Y90="","",Y90)</f>
         <v/>
       </c>
@@ -8609,7 +8646,7 @@
       <c r="AC128" s="154"/>
       <c r="AD128" s="52"/>
     </row>
-    <row r="129" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>63</v>
       </c>
@@ -8646,7 +8683,7 @@
       <c r="AC129" s="154"/>
       <c r="AD129" s="52"/>
     </row>
-    <row r="130" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>64</v>
       </c>
@@ -8683,7 +8720,7 @@
       <c r="AC130" s="154"/>
       <c r="AD130" s="52"/>
     </row>
-    <row r="131" spans="1:40" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>65</v>
       </c>
@@ -8731,7 +8768,7 @@
       <c r="AC131" s="61"/>
       <c r="AD131" s="61"/>
     </row>
-    <row r="132" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>66</v>
       </c>
@@ -8777,7 +8814,7 @@
       <c r="AC132" s="154"/>
       <c r="AD132" s="52"/>
     </row>
-    <row r="133" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>1</v>
       </c>
@@ -8808,7 +8845,7 @@
       <c r="AC133" s="154"/>
       <c r="AD133" s="52"/>
     </row>
-    <row r="134" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>2</v>
       </c>
@@ -8840,7 +8877,7 @@
       <c r="AC134" s="154"/>
       <c r="AD134" s="52"/>
     </row>
-    <row r="135" spans="1:40" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>3</v>
       </c>
@@ -8879,7 +8916,7 @@
       <c r="AC135" s="154"/>
       <c r="AD135" s="52"/>
     </row>
-    <row r="136" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>4</v>
       </c>
@@ -8918,7 +8955,7 @@
       <c r="AC136" s="154"/>
       <c r="AD136" s="52"/>
     </row>
-    <row r="137" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>5</v>
       </c>
@@ -8953,7 +8990,7 @@
       <c r="X137" s="171"/>
       <c r="Y137" s="84"/>
     </row>
-    <row r="138" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -8988,7 +9025,7 @@
       <c r="X138" s="167"/>
       <c r="Y138" s="84"/>
     </row>
-    <row r="139" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>7</v>
       </c>
@@ -9023,7 +9060,7 @@
       <c r="X139" s="171"/>
       <c r="Y139" s="84"/>
     </row>
-    <row r="140" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>8</v>
       </c>
@@ -9058,7 +9095,7 @@
       <c r="X140" s="167"/>
       <c r="Y140" s="84"/>
     </row>
-    <row r="141" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>9</v>
       </c>
@@ -9092,22 +9129,22 @@
       <c r="W141" s="171"/>
       <c r="X141" s="171"/>
       <c r="Y141" s="84"/>
-      <c r="AA141" s="210"/>
-      <c r="AB141" s="210"/>
-      <c r="AC141" s="210"/>
-      <c r="AD141" s="210"/>
-      <c r="AE141" s="210"/>
-      <c r="AF141" s="210"/>
-      <c r="AG141" s="210"/>
-      <c r="AH141" s="210"/>
-      <c r="AI141" s="210"/>
-      <c r="AJ141" s="210"/>
-      <c r="AK141" s="210"/>
-      <c r="AL141" s="210"/>
-      <c r="AM141" s="210"/>
-      <c r="AN141" s="210"/>
-    </row>
-    <row r="142" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA141" s="208"/>
+      <c r="AB141" s="208"/>
+      <c r="AC141" s="208"/>
+      <c r="AD141" s="208"/>
+      <c r="AE141" s="208"/>
+      <c r="AF141" s="208"/>
+      <c r="AG141" s="208"/>
+      <c r="AH141" s="208"/>
+      <c r="AI141" s="208"/>
+      <c r="AJ141" s="208"/>
+      <c r="AK141" s="208"/>
+      <c r="AL141" s="208"/>
+      <c r="AM141" s="208"/>
+      <c r="AN141" s="208"/>
+    </row>
+    <row r="142" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>10</v>
       </c>
@@ -9141,12 +9178,12 @@
       <c r="W142" s="189"/>
       <c r="X142" s="167"/>
       <c r="Y142" s="84"/>
-      <c r="AA142" s="210"/>
-      <c r="AE142" s="210"/>
-      <c r="AI142" s="210"/>
-      <c r="AL142" s="210"/>
-    </row>
-    <row r="143" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA142" s="208"/>
+      <c r="AE142" s="208"/>
+      <c r="AI142" s="208"/>
+      <c r="AL142" s="208"/>
+    </row>
+    <row r="143" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>11</v>
       </c>
@@ -9189,7 +9226,7 @@
       <c r="AM143" s="178"/>
       <c r="AN143" s="178"/>
     </row>
-    <row r="144" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>12</v>
       </c>
@@ -9232,7 +9269,7 @@
       <c r="AM144" s="178"/>
       <c r="AN144" s="178"/>
     </row>
-    <row r="145" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>13</v>
       </c>
@@ -9275,7 +9312,7 @@
       <c r="AM145" s="178"/>
       <c r="AN145" s="178"/>
     </row>
-    <row r="146" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>14</v>
       </c>
@@ -9318,7 +9355,7 @@
       <c r="AM146" s="178"/>
       <c r="AN146" s="178"/>
     </row>
-    <row r="147" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>15</v>
       </c>
@@ -9361,7 +9398,7 @@
       <c r="AM147" s="178"/>
       <c r="AN147" s="178"/>
     </row>
-    <row r="148" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>16</v>
       </c>
@@ -9404,7 +9441,7 @@
       <c r="AM148" s="178"/>
       <c r="AN148" s="178"/>
     </row>
-    <row r="149" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>17</v>
       </c>
@@ -9447,7 +9484,7 @@
       <c r="AM149" s="178"/>
       <c r="AN149" s="178"/>
     </row>
-    <row r="150" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>18</v>
       </c>
@@ -9486,7 +9523,7 @@
       <c r="AG150" s="178"/>
       <c r="AH150" s="178"/>
     </row>
-    <row r="151" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>19</v>
       </c>
@@ -9525,7 +9562,7 @@
       <c r="AG151" s="178"/>
       <c r="AH151" s="178"/>
     </row>
-    <row r="152" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>20</v>
       </c>
@@ -9564,7 +9601,7 @@
       <c r="AG152" s="178"/>
       <c r="AH152" s="178"/>
     </row>
-    <row r="153" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>21</v>
       </c>
@@ -9603,7 +9640,7 @@
       <c r="AG153" s="178"/>
       <c r="AH153" s="178"/>
     </row>
-    <row r="154" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>22</v>
       </c>
@@ -9640,7 +9677,7 @@
       <c r="AG154" s="178"/>
       <c r="AH154" s="178"/>
     </row>
-    <row r="155" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>23</v>
       </c>
@@ -9677,7 +9714,7 @@
       <c r="AG155" s="178"/>
       <c r="AH155" s="178"/>
     </row>
-    <row r="156" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>24</v>
       </c>
@@ -9714,7 +9751,7 @@
       <c r="AG156" s="178"/>
       <c r="AH156" s="178"/>
     </row>
-    <row r="157" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>25</v>
       </c>
@@ -9751,7 +9788,7 @@
       <c r="AG157" s="178"/>
       <c r="AH157" s="178"/>
     </row>
-    <row r="158" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>26</v>
       </c>
@@ -9788,7 +9825,7 @@
       <c r="AG158" s="178"/>
       <c r="AH158" s="178"/>
     </row>
-    <row r="159" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>27</v>
       </c>
@@ -9823,7 +9860,7 @@
       <c r="X159" s="171"/>
       <c r="Y159" s="84"/>
     </row>
-    <row r="160" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>28</v>
       </c>
@@ -9858,7 +9895,7 @@
       <c r="X160" s="167"/>
       <c r="Y160" s="84"/>
     </row>
-    <row r="161" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>29</v>
       </c>
@@ -9893,7 +9930,7 @@
       <c r="X161" s="171"/>
       <c r="Y161" s="84"/>
     </row>
-    <row r="162" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>30</v>
       </c>
@@ -9928,7 +9965,7 @@
       <c r="X162" s="167"/>
       <c r="Y162" s="84"/>
     </row>
-    <row r="163" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>31</v>
       </c>
@@ -9963,7 +10000,7 @@
       <c r="X163" s="171"/>
       <c r="Y163" s="84"/>
     </row>
-    <row r="164" spans="1:25" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>32</v>
       </c>
@@ -9993,7 +10030,7 @@
       <c r="X164" s="131"/>
       <c r="Y164" s="132"/>
     </row>
-    <row r="165" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>33</v>
       </c>
@@ -10023,7 +10060,7 @@
       <c r="X165" s="61"/>
       <c r="Y165" s="52"/>
     </row>
-    <row r="166" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>34</v>
       </c>
@@ -10053,7 +10090,7 @@
       <c r="X166" s="61"/>
       <c r="Y166" s="52"/>
     </row>
-    <row r="167" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>35</v>
       </c>
@@ -10083,7 +10120,7 @@
       <c r="X167" s="61"/>
       <c r="Y167" s="52"/>
     </row>
-    <row r="168" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>36</v>
       </c>
@@ -10113,7 +10150,7 @@
       <c r="X168" s="61"/>
       <c r="Y168" s="52"/>
     </row>
-    <row r="169" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>37</v>
       </c>
@@ -10143,7 +10180,7 @@
       <c r="X169" s="61"/>
       <c r="Y169" s="52"/>
     </row>
-    <row r="170" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>38</v>
       </c>
@@ -10162,10 +10199,10 @@
       <c r="L170" s="176"/>
       <c r="M170" s="13"/>
       <c r="O170" s="52"/>
-      <c r="P170" s="210"/>
-      <c r="Q170" s="210"/>
-      <c r="R170" s="210"/>
-      <c r="S170" s="210"/>
+      <c r="P170" s="208"/>
+      <c r="Q170" s="208"/>
+      <c r="R170" s="208"/>
+      <c r="S170" s="208"/>
       <c r="T170" s="61"/>
       <c r="U170" s="61"/>
       <c r="V170" s="61"/>
@@ -10173,7 +10210,7 @@
       <c r="X170" s="61"/>
       <c r="Y170" s="52"/>
     </row>
-    <row r="171" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>39</v>
       </c>
@@ -10203,7 +10240,7 @@
       <c r="X171" s="61"/>
       <c r="Y171" s="52"/>
     </row>
-    <row r="172" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>40</v>
       </c>
@@ -10233,7 +10270,7 @@
       <c r="X172" s="52"/>
       <c r="Y172" s="52"/>
     </row>
-    <row r="173" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>41</v>
       </c>
@@ -10263,7 +10300,7 @@
       <c r="X173" s="61"/>
       <c r="Y173" s="52"/>
     </row>
-    <row r="174" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>42</v>
       </c>
@@ -10293,7 +10330,7 @@
       <c r="X174" s="61"/>
       <c r="Y174" s="52"/>
     </row>
-    <row r="175" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>43</v>
       </c>
@@ -10323,7 +10360,7 @@
       <c r="X175" s="61"/>
       <c r="Y175" s="52"/>
     </row>
-    <row r="176" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>44</v>
       </c>
@@ -10353,7 +10390,7 @@
       <c r="X176" s="61"/>
       <c r="Y176" s="52"/>
     </row>
-    <row r="177" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>45</v>
       </c>
@@ -10383,7 +10420,7 @@
       <c r="X177" s="61"/>
       <c r="Y177" s="52"/>
     </row>
-    <row r="178" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>46</v>
       </c>
@@ -10413,7 +10450,7 @@
       <c r="X178" s="61"/>
       <c r="Y178" s="52"/>
     </row>
-    <row r="179" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>47</v>
       </c>
@@ -10443,7 +10480,7 @@
       <c r="X179" s="61"/>
       <c r="Y179" s="52"/>
     </row>
-    <row r="180" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>48</v>
       </c>
@@ -10473,7 +10510,7 @@
       <c r="X180" s="61"/>
       <c r="Y180" s="52"/>
     </row>
-    <row r="181" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>49</v>
       </c>
@@ -10503,7 +10540,7 @@
       <c r="X181" s="61"/>
       <c r="Y181" s="52"/>
     </row>
-    <row r="182" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>50</v>
       </c>
@@ -10533,7 +10570,7 @@
       <c r="X182" s="61"/>
       <c r="Y182" s="52"/>
     </row>
-    <row r="183" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>51</v>
       </c>
@@ -10563,7 +10600,7 @@
       <c r="X183" s="61"/>
       <c r="Y183" s="52"/>
     </row>
-    <row r="184" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>52</v>
       </c>
@@ -10593,7 +10630,7 @@
       <c r="X184" s="61"/>
       <c r="Y184" s="52"/>
     </row>
-    <row r="185" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>53</v>
       </c>
@@ -10623,7 +10660,7 @@
       <c r="X185" s="61"/>
       <c r="Y185" s="52"/>
     </row>
-    <row r="186" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>54</v>
       </c>
@@ -10653,7 +10690,7 @@
       <c r="X186" s="61"/>
       <c r="Y186" s="52"/>
     </row>
-    <row r="187" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>55</v>
       </c>
@@ -10683,7 +10720,7 @@
       <c r="X187" s="61"/>
       <c r="Y187" s="52"/>
     </row>
-    <row r="188" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>56</v>
       </c>
@@ -10713,7 +10750,7 @@
       <c r="X188" s="61"/>
       <c r="Y188" s="52"/>
     </row>
-    <row r="189" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>57</v>
       </c>
@@ -10743,7 +10780,7 @@
       <c r="X189" s="61"/>
       <c r="Y189" s="52"/>
     </row>
-    <row r="190" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>58</v>
       </c>
@@ -10773,7 +10810,7 @@
       <c r="X190" s="61"/>
       <c r="Y190" s="52"/>
     </row>
-    <row r="191" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>59</v>
       </c>
@@ -10803,7 +10840,7 @@
       <c r="X191" s="61"/>
       <c r="Y191" s="52"/>
     </row>
-    <row r="192" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>60</v>
       </c>
@@ -10833,7 +10870,7 @@
       <c r="X192" s="61"/>
       <c r="Y192" s="52"/>
     </row>
-    <row r="193" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>61</v>
       </c>
@@ -10851,7 +10888,7 @@
       <c r="X193" s="61"/>
       <c r="Y193" s="52"/>
     </row>
-    <row r="194" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>62</v>
       </c>
@@ -10869,7 +10906,7 @@
       <c r="X194" s="61"/>
       <c r="Y194" s="52"/>
     </row>
-    <row r="195" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>63</v>
       </c>
@@ -10887,7 +10924,7 @@
       <c r="X195" s="61"/>
       <c r="Y195" s="52"/>
     </row>
-    <row r="196" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>64</v>
       </c>
@@ -10915,7 +10952,7 @@
       <c r="X196" s="52"/>
       <c r="Y196" s="52"/>
     </row>
-    <row r="197" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>65</v>
       </c>
@@ -10941,7 +10978,7 @@
         <v>Eugene Mah</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>66</v>
       </c>
@@ -10969,6 +11006,41 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="L114:L115"/>
     <mergeCell ref="R102:S102"/>
     <mergeCell ref="AJ141:AK141"/>
     <mergeCell ref="AL141:AL142"/>
@@ -10980,43 +11052,8 @@
     <mergeCell ref="AE141:AE142"/>
     <mergeCell ref="AF141:AH141"/>
     <mergeCell ref="AI141:AI142"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="I114:K114"/>
-    <mergeCell ref="L114:L115"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
-  <conditionalFormatting sqref="L33:L38 L41:L45 L47:L53">
+  <conditionalFormatting sqref="L33:L38 L41:L53">
     <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -11026,7 +11063,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33:M38 M41:M45 M47:M53">
+  <conditionalFormatting sqref="M33:M38 M41:M53">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"NO"</formula>
     </cfRule>

--- a/MUSCDentalCT.xlsx
+++ b/MUSCDentalCT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheug\Documents\GitHub\EquipTestingSpreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB99D2E-CDB5-4C63-A0B8-0FD5C4A5995A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +20,12 @@
     <definedName name="HVL" localSheetId="0">#REF!</definedName>
     <definedName name="LNEXP" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$M$198</definedName>
+    <definedName name="Z_B3B53441_1E98_4F76_BE9D_5905F2DE3FE8_.wvu.PrintArea" localSheetId="0" hidden="1">Sheet1!$B$1:$M$198</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Eugene Mah - Personal View" guid="{B3B53441-1E98-4F76-BE9D-5905F2DE3FE8}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" tabRatio="500" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -594,7 +597,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
@@ -2209,13 +2212,40 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2224,53 +2254,26 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="COMMENT" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Fail" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Heading" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Heading1" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="COMMENT" xfId="7"/>
+    <cellStyle name="Fail" xfId="6"/>
+    <cellStyle name="Heading" xfId="3"/>
+    <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pass" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Result2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="SUBTITLE" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Pass" xfId="5"/>
+    <cellStyle name="Result" xfId="1"/>
+    <cellStyle name="Result2" xfId="2"/>
+    <cellStyle name="SUBTITLE" xfId="8"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2891,6 +2894,24 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9756A71E-71F3-4C3B-BE60-A4E7B75B1C07}">
+  <header guid="{9756A71E-71F3-4C3B-BE60-A4E7B75B1C07}" dateTime="2020-06-03T09:44:35" maxSheetId="2" userName="Eugene Mah" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3153,23 +3174,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45:M46"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.375" style="2" customWidth="1"/>
     <col min="3" max="13" width="10.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="2.3984375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="2.375" style="2" customWidth="1"/>
     <col min="15" max="40" width="10.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -3202,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -3220,7 +3239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -3239,7 +3258,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -3254,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3270,7 +3289,7 @@
       </c>
       <c r="Y5" s="15"/>
     </row>
-    <row r="6" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -3307,7 +3326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -3341,7 +3360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -3367,18 +3386,18 @@
         <f>IF(P7="","",P7)</f>
         <v/>
       </c>
-      <c r="AG8" s="219" t="s">
+      <c r="AG8" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="AH8" s="219"/>
-      <c r="AJ8" s="220" t="s">
+      <c r="AH8" s="208"/>
+      <c r="AJ8" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="AK8" s="220"/>
-      <c r="AL8" s="220"/>
-      <c r="AM8" s="220"/>
-    </row>
-    <row r="9" spans="1:39" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AK8" s="209"/>
+      <c r="AL8" s="209"/>
+      <c r="AM8" s="209"/>
+    </row>
+    <row r="9" spans="1:39" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -3440,7 +3459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -3448,19 +3467,19 @@
       <c r="E10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="212" t="str">
+      <c r="F10" s="210" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="212"/>
+      <c r="G10" s="210"/>
       <c r="J10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="212" t="str">
+      <c r="K10" s="210" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="212"/>
+      <c r="L10" s="210"/>
       <c r="M10" s="13"/>
       <c r="O10" s="14"/>
       <c r="Q10" s="18" t="s">
@@ -3511,7 +3530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -3519,19 +3538,19 @@
       <c r="E11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="217" t="str">
+      <c r="F11" s="211" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="217"/>
+      <c r="G11" s="211"/>
       <c r="J11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="212" t="str">
+      <c r="K11" s="210" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="212"/>
+      <c r="L11" s="210"/>
       <c r="M11" s="13"/>
       <c r="O11" s="14"/>
       <c r="Q11" s="18" t="s">
@@ -3584,7 +3603,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -3592,19 +3611,19 @@
       <c r="E12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="217" t="str">
+      <c r="F12" s="211" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="217"/>
+      <c r="G12" s="211"/>
       <c r="J12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="218" t="str">
+      <c r="K12" s="212" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="218"/>
+      <c r="L12" s="212"/>
       <c r="M12" s="13"/>
       <c r="O12" s="14"/>
       <c r="Q12" s="18" t="s">
@@ -3657,7 +3676,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -3665,19 +3684,19 @@
       <c r="E13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="215" t="str">
+      <c r="F13" s="213" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="215"/>
+      <c r="G13" s="213"/>
       <c r="J13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="212" t="str">
+      <c r="K13" s="210" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="212"/>
+      <c r="L13" s="210"/>
       <c r="M13" s="13"/>
       <c r="O13" s="14"/>
       <c r="Q13" s="18" t="s">
@@ -3730,7 +3749,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -3783,7 +3802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -3827,7 +3846,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -3835,19 +3854,19 @@
       <c r="E16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="213" t="str">
+      <c r="F16" s="214" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="213"/>
+      <c r="G16" s="214"/>
       <c r="J16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="218" t="str">
+      <c r="K16" s="212" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="218"/>
+      <c r="L16" s="212"/>
       <c r="M16" s="13"/>
       <c r="O16" s="14"/>
       <c r="P16" s="31" t="s">
@@ -3887,7 +3906,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -3895,19 +3914,19 @@
       <c r="E17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="215" t="str">
+      <c r="F17" s="213" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="215"/>
+      <c r="G17" s="213"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="212" t="str">
+      <c r="K17" s="210" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="212"/>
+      <c r="L17" s="210"/>
       <c r="M17" s="13"/>
       <c r="O17" s="14"/>
       <c r="Q17" s="18" t="s">
@@ -3960,7 +3979,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -4017,7 +4036,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -4046,7 +4065,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -4054,19 +4073,19 @@
       <c r="E20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="213" t="str">
+      <c r="F20" s="214" t="str">
         <f>IF(R21="","",R21)</f>
         <v/>
       </c>
-      <c r="G20" s="213"/>
+      <c r="G20" s="214"/>
       <c r="J20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="212" t="str">
+      <c r="K20" s="210" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L20" s="212"/>
+      <c r="L20" s="210"/>
       <c r="M20" s="13"/>
       <c r="O20" s="14"/>
       <c r="P20" s="31" t="s">
@@ -4087,7 +4106,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -4095,19 +4114,19 @@
       <c r="E21" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="216" t="str">
+      <c r="F21" s="215" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="216"/>
+      <c r="G21" s="215"/>
       <c r="J21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="212" t="str">
+      <c r="K21" s="210" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="212"/>
+      <c r="L21" s="210"/>
       <c r="M21" s="13"/>
       <c r="O21" s="14"/>
       <c r="Q21" s="18" t="s">
@@ -4146,7 +4165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -4157,11 +4176,11 @@
       <c r="J22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="212" t="str">
+      <c r="K22" s="210" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="212"/>
+      <c r="L22" s="210"/>
       <c r="M22" s="13"/>
       <c r="O22" s="14"/>
       <c r="Q22" s="18" t="s">
@@ -4200,7 +4219,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -4208,11 +4227,11 @@
       <c r="E23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="213" t="str">
+      <c r="F23" s="214" t="str">
         <f>IF(R24="","",R24)</f>
         <v/>
       </c>
-      <c r="G23" s="213"/>
+      <c r="G23" s="214"/>
       <c r="M23" s="13"/>
       <c r="O23" s="14"/>
       <c r="P23" s="31" t="s">
@@ -4246,7 +4265,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -4254,11 +4273,11 @@
       <c r="E24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="213" t="str">
+      <c r="F24" s="214" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="213"/>
+      <c r="G24" s="214"/>
       <c r="J24" s="31" t="s">
         <v>50</v>
       </c>
@@ -4292,7 +4311,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -4300,19 +4319,19 @@
       <c r="E25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="213" t="str">
+      <c r="F25" s="214" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="213"/>
+      <c r="G25" s="214"/>
       <c r="J25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="212" t="str">
+      <c r="K25" s="210" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="212"/>
+      <c r="L25" s="210"/>
       <c r="M25" s="13"/>
       <c r="O25" s="14"/>
       <c r="Q25" s="18" t="s">
@@ -4335,7 +4354,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -4346,11 +4365,11 @@
       <c r="J26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="212" t="str">
+      <c r="K26" s="210" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="212"/>
+      <c r="L26" s="210"/>
       <c r="M26" s="13"/>
       <c r="O26" s="14"/>
       <c r="Q26" s="18" t="s">
@@ -4375,7 +4394,7 @@
       </c>
       <c r="AB26" s="125"/>
     </row>
-    <row r="27" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -4383,11 +4402,11 @@
       <c r="E27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="213" t="str">
+      <c r="F27" s="214" t="str">
         <f>IF(R28="","",R28)</f>
         <v/>
       </c>
-      <c r="G27" s="213"/>
+      <c r="G27" s="214"/>
       <c r="M27" s="13"/>
       <c r="O27" s="14"/>
       <c r="P27" s="31" t="s">
@@ -4415,7 +4434,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -4423,11 +4442,11 @@
       <c r="E28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="213" t="str">
+      <c r="F28" s="214" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="213"/>
+      <c r="G28" s="214"/>
       <c r="M28" s="13"/>
       <c r="O28" s="14"/>
       <c r="Q28" s="18" t="s">
@@ -4479,7 +4498,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -4487,11 +4506,11 @@
       <c r="E29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="213" t="str">
+      <c r="F29" s="214" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="213"/>
+      <c r="G29" s="214"/>
       <c r="M29" s="13"/>
       <c r="O29" s="14"/>
       <c r="Q29" s="18" t="s">
@@ -4529,7 +4548,7 @@
       <c r="AM29" s="117"/>
       <c r="AN29" s="117"/>
     </row>
-    <row r="30" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -4581,7 +4600,7 @@
       <c r="AM30" s="117"/>
       <c r="AN30" s="117"/>
     </row>
-    <row r="31" spans="1:40" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -4622,7 +4641,7 @@
       <c r="AM31" s="117"/>
       <c r="AN31" s="117"/>
     </row>
-    <row r="32" spans="1:40" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -4640,10 +4659,10 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="214" t="s">
+      <c r="L32" s="217" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="214"/>
+      <c r="M32" s="217"/>
       <c r="AA32" s="18" t="s">
         <v>37</v>
       </c>
@@ -4670,7 +4689,7 @@
       <c r="AM32" s="117"/>
       <c r="AN32" s="117"/>
     </row>
-    <row r="33" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -4719,7 +4738,7 @@
       <c r="AM33" s="117"/>
       <c r="AN33" s="117"/>
     </row>
-    <row r="34" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -4777,7 +4796,7 @@
       <c r="AM34" s="159"/>
       <c r="AN34" s="159"/>
     </row>
-    <row r="35" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -4821,7 +4840,7 @@
       <c r="AM35" s="117"/>
       <c r="AN35" s="117"/>
     </row>
-    <row r="36" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -4871,7 +4890,7 @@
       <c r="AM36" s="117"/>
       <c r="AN36" s="117"/>
     </row>
-    <row r="37" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -4918,7 +4937,7 @@
       <c r="AM37" s="117"/>
       <c r="AN37" s="117"/>
     </row>
-    <row r="38" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -4965,7 +4984,7 @@
       <c r="AM38" s="117"/>
       <c r="AN38" s="117"/>
     </row>
-    <row r="39" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -5002,7 +5021,7 @@
       <c r="AM39" s="117"/>
       <c r="AN39" s="117"/>
     </row>
-    <row r="40" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>40</v>
       </c>
@@ -5027,7 +5046,7 @@
       <c r="AM40" s="151"/>
       <c r="AN40" s="151"/>
     </row>
-    <row r="41" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -5036,11 +5055,11 @@
         <v>78</v>
       </c>
       <c r="L41" s="70" t="str">
-        <f>IF(O44="","TBD",IF(O44=1,"YES",IF(O44=3,"NA","")))</f>
+        <f t="shared" ref="L41:L46" si="6">IF(O44="","TBD",IF(O44=1,"YES",IF(O44=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M41" s="71" t="str">
-        <f>IF(O44=2,"NO","")</f>
+        <f t="shared" ref="M41:M46" si="7">IF(O44=2,"NO","")</f>
         <v/>
       </c>
       <c r="O41" s="73"/>
@@ -5062,7 +5081,7 @@
       <c r="AM41" s="74"/>
       <c r="AN41" s="74"/>
     </row>
-    <row r="42" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>42</v>
       </c>
@@ -5071,11 +5090,11 @@
         <v>80</v>
       </c>
       <c r="L42" s="70" t="str">
-        <f>IF(O45="","TBD",IF(O45=1,"YES",IF(O45=3,"NA","")))</f>
+        <f t="shared" si="6"/>
         <v>TBD</v>
       </c>
       <c r="M42" s="71" t="str">
-        <f>IF(O45=2,"NO","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O42" s="73"/>
@@ -5088,11 +5107,11 @@
       </c>
       <c r="AB42" s="83"/>
       <c r="AC42" s="29" t="str">
-        <f t="shared" ref="AC42:AC48" si="6">IF(AB42&lt;&gt;AD42,"Change","")</f>
+        <f t="shared" ref="AC42:AC48" si="8">IF(AB42&lt;&gt;AD42,"Change","")</f>
         <v/>
       </c>
       <c r="AD42" s="36" t="str">
-        <f t="shared" ref="AD42:AD47" si="7">IF(Q61="","",Q61)</f>
+        <f t="shared" ref="AD42:AD47" si="9">IF(Q61="","",Q61)</f>
         <v/>
       </c>
       <c r="AF42" s="74"/>
@@ -5105,7 +5124,7 @@
       <c r="AM42" s="74"/>
       <c r="AN42" s="74"/>
     </row>
-    <row r="43" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43</v>
       </c>
@@ -5114,11 +5133,11 @@
         <v>82</v>
       </c>
       <c r="L43" s="70" t="str">
-        <f>IF(O46="","TBD",IF(O46=1,"YES",IF(O46=3,"NA","")))</f>
+        <f t="shared" si="6"/>
         <v>TBD</v>
       </c>
       <c r="M43" s="71" t="str">
-        <f>IF(O46=2,"NO","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O43" s="14"/>
@@ -5131,11 +5150,11 @@
       </c>
       <c r="AB43" s="83"/>
       <c r="AC43" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD43" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AF43"/>
@@ -5148,7 +5167,7 @@
       <c r="AM43"/>
       <c r="AN43"/>
     </row>
-    <row r="44" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44</v>
       </c>
@@ -5157,11 +5176,11 @@
         <v>84</v>
       </c>
       <c r="L44" s="70" t="str">
-        <f>IF(O47="","TBD",IF(O47=1,"YES",IF(O47=3,"NA","")))</f>
+        <f t="shared" si="6"/>
         <v>TBD</v>
       </c>
       <c r="M44" s="71" t="str">
-        <f>IF(O47=2,"NO","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O44" s="73"/>
@@ -5174,11 +5193,11 @@
       </c>
       <c r="AB44" s="83"/>
       <c r="AC44" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD44" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AF44" s="74"/>
@@ -5191,7 +5210,7 @@
       <c r="AM44" s="74"/>
       <c r="AN44" s="74"/>
     </row>
-    <row r="45" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>45</v>
       </c>
@@ -5200,11 +5219,11 @@
         <v>86</v>
       </c>
       <c r="L45" s="70" t="str">
-        <f>IF(O48="","TBD",IF(O48=1,"YES",IF(O48=3,"NA","")))</f>
+        <f t="shared" si="6"/>
         <v>TBD</v>
       </c>
       <c r="M45" s="71" t="str">
-        <f>IF(O48=2,"NO","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O45" s="73"/>
@@ -5217,28 +5236,28 @@
       </c>
       <c r="AB45" s="83"/>
       <c r="AC45" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD45" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>46</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="E46" s="222" t="s">
+      <c r="E46" s="207" t="s">
         <v>183</v>
       </c>
       <c r="L46" s="70" t="str">
-        <f>IF(O49="","TBD",IF(O49=1,"YES",IF(O49=3,"NA","")))</f>
+        <f t="shared" si="6"/>
         <v>TBD</v>
       </c>
       <c r="M46" s="71" t="str">
-        <f>IF(O49=2,"NO","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O46" s="73"/>
@@ -5251,15 +5270,15 @@
       </c>
       <c r="AB46" s="83"/>
       <c r="AC46" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Change</v>
       </c>
       <c r="AD46" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>47</v>
       </c>
@@ -5268,11 +5287,11 @@
         <v>89</v>
       </c>
       <c r="L47" s="70" t="str">
-        <f t="shared" ref="L47:L52" si="8">IF(O51="","TBD",IF(O51=1,"YES",IF(O51=3,"NA","")))</f>
+        <f t="shared" ref="L47:L52" si="10">IF(O51="","TBD",IF(O51=1,"YES",IF(O51=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M47" s="71" t="str">
-        <f t="shared" ref="M47:M52" si="9">IF(O51=2,"NO","")</f>
+        <f t="shared" ref="M47:M52" si="11">IF(O51=2,"NO","")</f>
         <v/>
       </c>
       <c r="O47" s="73"/>
@@ -5285,15 +5304,15 @@
       </c>
       <c r="AB47" s="83"/>
       <c r="AC47" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Change</v>
       </c>
       <c r="AD47" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>48</v>
       </c>
@@ -5305,11 +5324,11 @@
         <v>92</v>
       </c>
       <c r="L48" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M48" s="71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O48" s="73"/>
@@ -5322,7 +5341,7 @@
       </c>
       <c r="AB48" s="83"/>
       <c r="AC48" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD48" s="75" t="str">
@@ -5330,7 +5349,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>49</v>
       </c>
@@ -5342,14 +5361,14 @@
         <v>95</v>
       </c>
       <c r="L49" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M49" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O49" s="221"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O49" s="206"/>
       <c r="P49" s="180" t="s">
         <v>183</v>
       </c>
@@ -5359,7 +5378,7 @@
       <c r="AC49" s="68"/>
       <c r="AD49" s="68"/>
     </row>
-    <row r="50" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>50</v>
       </c>
@@ -5371,11 +5390,11 @@
         <v>97</v>
       </c>
       <c r="L50" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M50" s="71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O50" s="14"/>
@@ -5393,7 +5412,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>51</v>
       </c>
@@ -5405,11 +5424,11 @@
         <v>100</v>
       </c>
       <c r="L51" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M51" s="71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O51" s="73"/>
@@ -5430,7 +5449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>52</v>
       </c>
@@ -5442,11 +5461,11 @@
         <v>102</v>
       </c>
       <c r="L52" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M52" s="71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O52" s="73"/>
@@ -5467,7 +5486,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>53</v>
       </c>
@@ -5504,7 +5523,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>54</v>
       </c>
@@ -5520,7 +5539,7 @@
       <c r="AC54" s="68"/>
       <c r="AD54" s="68"/>
     </row>
-    <row r="55" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>55</v>
       </c>
@@ -5544,7 +5563,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>56</v>
       </c>
@@ -5559,7 +5578,7 @@
       <c r="AB56" s="19"/>
       <c r="AD56" s="19"/>
     </row>
-    <row r="57" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>57</v>
       </c>
@@ -5589,7 +5608,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>58</v>
       </c>
@@ -5600,7 +5619,7 @@
       <c r="AB58" s="19"/>
       <c r="AD58" s="19"/>
     </row>
-    <row r="59" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>59</v>
       </c>
@@ -5621,7 +5640,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>60</v>
       </c>
@@ -5632,11 +5651,11 @@
         <v>79</v>
       </c>
       <c r="P60" s="79"/>
-      <c r="Q60" s="211"/>
-      <c r="R60" s="211"/>
-      <c r="S60" s="211"/>
-      <c r="T60" s="211"/>
-      <c r="U60" s="211"/>
+      <c r="Q60" s="216"/>
+      <c r="R60" s="216"/>
+      <c r="S60" s="216"/>
+      <c r="T60" s="216"/>
+      <c r="U60" s="216"/>
       <c r="V60" s="79"/>
       <c r="W60" s="79"/>
       <c r="X60" s="79"/>
@@ -5645,7 +5664,7 @@
       <c r="AB60" s="19"/>
       <c r="AD60" s="19"/>
     </row>
-    <row r="61" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>61</v>
       </c>
@@ -5658,7 +5677,7 @@
       </c>
       <c r="Q61" s="82"/>
       <c r="R61" s="83" t="str">
-        <f t="shared" ref="R61:R66" si="10">IF(AB42="","",AB42)</f>
+        <f t="shared" ref="R61:R66" si="12">IF(AB42="","",AB42)</f>
         <v/>
       </c>
       <c r="T61" s="2" t="s">
@@ -5682,7 +5701,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>62</v>
       </c>
@@ -5695,7 +5714,7 @@
       </c>
       <c r="Q62" s="82"/>
       <c r="R62" s="83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S62" s="85">
@@ -5713,7 +5732,7 @@
       <c r="AB62" s="19"/>
       <c r="AD62" s="19"/>
     </row>
-    <row r="63" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>63</v>
       </c>
@@ -5725,7 +5744,7 @@
       </c>
       <c r="Q63" s="82"/>
       <c r="R63" s="83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S63" s="85">
@@ -5753,7 +5772,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>64</v>
       </c>
@@ -5775,7 +5794,7 @@
       </c>
       <c r="Q64" s="82"/>
       <c r="R64" s="83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S64" s="85">
@@ -5796,7 +5815,7 @@
       <c r="AB64" s="19"/>
       <c r="AD64" s="19"/>
     </row>
-    <row r="65" spans="1:30" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>65</v>
       </c>
@@ -5829,7 +5848,7 @@
         <v>100</v>
       </c>
       <c r="R65" s="83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S65" s="52" t="s">
@@ -5863,7 +5882,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>66</v>
       </c>
@@ -5896,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="R66" s="83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S66" s="52" t="s">
@@ -5923,7 +5942,7 @@
       <c r="AB66" s="19"/>
       <c r="AD66" s="19"/>
     </row>
-    <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -5950,7 +5969,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -5967,7 +5986,7 @@
       <c r="AB68" s="19"/>
       <c r="AD68" s="19"/>
     </row>
-    <row r="69" spans="1:30" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>3</v>
       </c>
@@ -6010,7 +6029,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -6019,7 +6038,7 @@
         <v>109</v>
       </c>
       <c r="E70" s="102" t="str">
-        <f t="shared" ref="E70:E75" si="11">IF(Q61="","",Q61)</f>
+        <f t="shared" ref="E70:E75" si="13">IF(Q61="","",Q61)</f>
         <v/>
       </c>
       <c r="F70" s="74"/>
@@ -6034,7 +6053,7 @@
       <c r="AB70" s="19"/>
       <c r="AD70" s="19"/>
     </row>
-    <row r="71" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>5</v>
       </c>
@@ -6043,7 +6062,7 @@
         <v>83</v>
       </c>
       <c r="E71" s="102" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G71" s="18" t="s">
@@ -6081,7 +6100,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>6</v>
       </c>
@@ -6090,7 +6109,7 @@
         <v>85</v>
       </c>
       <c r="E72" s="102" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F72" s="52"/>
@@ -6127,7 +6146,7 @@
       <c r="AB72" s="19"/>
       <c r="AD72" s="19"/>
     </row>
-    <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>7</v>
       </c>
@@ -6136,7 +6155,7 @@
         <v>87</v>
       </c>
       <c r="E73" s="102" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F73" s="52"/>
@@ -6174,7 +6193,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>8</v>
       </c>
@@ -6183,7 +6202,7 @@
         <v>88</v>
       </c>
       <c r="E74" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="F74" s="52"/>
@@ -6207,7 +6226,7 @@
       <c r="AB74" s="19"/>
       <c r="AD74" s="19"/>
     </row>
-    <row r="75" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>9</v>
       </c>
@@ -6216,7 +6235,7 @@
         <v>90</v>
       </c>
       <c r="E75" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F75" s="52"/>
@@ -6261,7 +6280,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>10</v>
       </c>
@@ -6304,7 +6323,7 @@
       <c r="AB76" s="19"/>
       <c r="AD76" s="19"/>
     </row>
-    <row r="77" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>11</v>
       </c>
@@ -6335,7 +6354,7 @@
         <v/>
       </c>
       <c r="V77" s="190" t="str">
-        <f t="shared" ref="V77:V82" si="12">IF(U77="","",ABS(U77-$U$77/2))</f>
+        <f t="shared" ref="V77:V82" si="14">IF(U77="","",ABS(U77-$U$77/2))</f>
         <v/>
       </c>
       <c r="W77" s="136" t="str">
@@ -6358,7 +6377,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>12</v>
       </c>
@@ -6390,7 +6409,7 @@
         <v/>
       </c>
       <c r="V78" s="190" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W78" s="136" t="str">
@@ -6403,7 +6422,7 @@
       <c r="AB78" s="19"/>
       <c r="AD78" s="19"/>
     </row>
-    <row r="79" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>13</v>
       </c>
@@ -6431,7 +6450,7 @@
         <v/>
       </c>
       <c r="V79" s="190" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W79" s="189"/>
@@ -6448,7 +6467,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>14</v>
       </c>
@@ -6487,7 +6506,7 @@
         <v/>
       </c>
       <c r="V80" s="190" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W80" s="189" t="s">
@@ -6501,7 +6520,7 @@
       <c r="AB80" s="19"/>
       <c r="AD80" s="19"/>
     </row>
-    <row r="81" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>15</v>
       </c>
@@ -6546,7 +6565,7 @@
         <v/>
       </c>
       <c r="V81" s="190" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W81" s="190" t="str">
@@ -6569,7 +6588,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>16</v>
       </c>
@@ -6606,7 +6625,7 @@
         <v/>
       </c>
       <c r="V82" s="190" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W82" s="190" t="str">
@@ -6622,7 +6641,7 @@
       <c r="AB82" s="19"/>
       <c r="AD82" s="19"/>
     </row>
-    <row r="83" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>17</v>
       </c>
@@ -6676,7 +6695,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>18</v>
       </c>
@@ -6726,7 +6745,7 @@
       <c r="AB84" s="19"/>
       <c r="AD84" s="19"/>
     </row>
-    <row r="85" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>19</v>
       </c>
@@ -6784,7 +6803,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>20</v>
       </c>
@@ -6837,7 +6856,7 @@
       <c r="AB86" s="19"/>
       <c r="AD86" s="19"/>
     </row>
-    <row r="87" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>21</v>
       </c>
@@ -6879,7 +6898,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>22</v>
       </c>
@@ -6906,7 +6925,7 @@
       <c r="AB88" s="19"/>
       <c r="AD88" s="19"/>
     </row>
-    <row r="89" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>23</v>
       </c>
@@ -6946,7 +6965,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>24</v>
       </c>
@@ -6978,7 +6997,7 @@
       <c r="AB90" s="19"/>
       <c r="AD90" s="19"/>
     </row>
-    <row r="91" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>25</v>
       </c>
@@ -7011,7 +7030,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>26</v>
       </c>
@@ -7056,7 +7075,7 @@
       <c r="AC92" s="68"/>
       <c r="AD92" s="68"/>
     </row>
-    <row r="93" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>27</v>
       </c>
@@ -7108,7 +7127,7 @@
       <c r="AC93" s="68"/>
       <c r="AD93" s="68"/>
     </row>
-    <row r="94" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>28</v>
       </c>
@@ -7162,7 +7181,7 @@
       <c r="AC94" s="68"/>
       <c r="AD94" s="68"/>
     </row>
-    <row r="95" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>29</v>
       </c>
@@ -7216,7 +7235,7 @@
       <c r="AC95" s="68"/>
       <c r="AD95" s="68"/>
     </row>
-    <row r="96" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>30</v>
       </c>
@@ -7270,7 +7289,7 @@
       </c>
       <c r="AD96" s="68"/>
     </row>
-    <row r="97" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>31</v>
       </c>
@@ -7305,7 +7324,7 @@
       <c r="AC97" s="68"/>
       <c r="AD97" s="68"/>
     </row>
-    <row r="98" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>32</v>
       </c>
@@ -7338,7 +7357,7 @@
       <c r="AC98" s="68"/>
       <c r="AD98" s="68"/>
     </row>
-    <row r="99" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>33</v>
       </c>
@@ -7370,7 +7389,7 @@
       <c r="AC99" s="68"/>
       <c r="AD99" s="68"/>
     </row>
-    <row r="100" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>34</v>
       </c>
@@ -7398,7 +7417,7 @@
       <c r="AC100" s="154"/>
       <c r="AD100" s="52"/>
     </row>
-    <row r="101" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>35</v>
       </c>
@@ -7422,7 +7441,7 @@
       <c r="AC101" s="154"/>
       <c r="AD101" s="52"/>
     </row>
-    <row r="102" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>36</v>
       </c>
@@ -7436,10 +7455,10 @@
       <c r="Q102" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="R102" s="206" t="s">
+      <c r="R102" s="220" t="s">
         <v>155</v>
       </c>
-      <c r="S102" s="207"/>
+      <c r="S102" s="221"/>
       <c r="T102" s="190"/>
       <c r="U102" s="190" t="s">
         <v>156</v>
@@ -7453,7 +7472,7 @@
       <c r="AC102" s="154"/>
       <c r="AD102" s="52"/>
     </row>
-    <row r="103" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>37</v>
       </c>
@@ -7481,7 +7500,7 @@
       <c r="AC103" s="154"/>
       <c r="AD103" s="52"/>
     </row>
-    <row r="104" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>38</v>
       </c>
@@ -7489,27 +7508,27 @@
       <c r="M104" s="13"/>
       <c r="O104" s="144"/>
       <c r="P104" s="159">
-        <f t="shared" ref="P104:Q110" si="13">AF29</f>
+        <f t="shared" ref="P104:Q110" si="15">AF29</f>
         <v>60</v>
       </c>
       <c r="Q104" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="R104" s="159" t="str">
-        <f t="shared" ref="R104:R110" si="14">IF(AH29="","",AH29)</f>
+        <f t="shared" ref="R104:R110" si="16">IF(AH29="","",AH29)</f>
         <v/>
       </c>
       <c r="S104" s="159" t="str">
-        <f t="shared" ref="S104:T110" si="15">IF(AJ29="","",AJ29)</f>
+        <f t="shared" ref="S104:T110" si="17">IF(AJ29="","",AJ29)</f>
         <v/>
       </c>
       <c r="T104" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U104" s="162" t="str">
-        <f t="shared" ref="U104:U111" si="16">IF(OR(P104="",R104=""),"",(R104-P104)/P104)</f>
+        <f t="shared" ref="U104:U111" si="18">IF(OR(P104="",R104=""),"",(R104-P104)/P104)</f>
         <v/>
       </c>
       <c r="V104" s="68"/>
@@ -7521,7 +7540,7 @@
       <c r="AC104" s="154"/>
       <c r="AD104" s="52"/>
     </row>
-    <row r="105" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>39</v>
       </c>
@@ -7534,27 +7553,27 @@
       <c r="M105" s="13"/>
       <c r="O105" s="144"/>
       <c r="P105" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="Q105" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="R105" s="159" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S105" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T105" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U105" s="162" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V105" s="68"/>
@@ -7566,7 +7585,7 @@
       <c r="AC105" s="154"/>
       <c r="AD105" s="52"/>
     </row>
-    <row r="106" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>40</v>
       </c>
@@ -7579,27 +7598,27 @@
       <c r="M106" s="13"/>
       <c r="O106" s="144"/>
       <c r="P106" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="Q106" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="R106" s="159" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S106" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T106" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U106" s="162" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V106" s="68"/>
@@ -7611,7 +7630,7 @@
       <c r="AC106" s="154"/>
       <c r="AD106" s="52"/>
     </row>
-    <row r="107" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>41</v>
       </c>
@@ -7624,27 +7643,27 @@
       <c r="M107" s="13"/>
       <c r="O107" s="144"/>
       <c r="P107" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="Q107" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="R107" s="159" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S107" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T107" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U107" s="162" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V107" s="68"/>
@@ -7656,7 +7675,7 @@
       <c r="AC107" s="154"/>
       <c r="AD107" s="52"/>
     </row>
-    <row r="108" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>42</v>
       </c>
@@ -7669,27 +7688,27 @@
       <c r="M108" s="13"/>
       <c r="O108" s="144"/>
       <c r="P108" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="Q108" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="R108" s="159" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S108" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T108" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U108" s="162" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V108" s="68"/>
@@ -7701,12 +7720,12 @@
       <c r="AC108" s="154"/>
       <c r="AD108" s="52"/>
     </row>
-    <row r="109" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>43</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="E109" s="209"/>
+      <c r="E109" s="218"/>
       <c r="F109" s="52"/>
       <c r="G109" s="52"/>
       <c r="H109" s="52"/>
@@ -7714,27 +7733,27 @@
       <c r="M109" s="13"/>
       <c r="O109" s="144"/>
       <c r="P109" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="Q109" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="R109" s="159" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S109" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T109" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U109" s="162" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V109" s="68"/>
@@ -7746,12 +7765,12 @@
       <c r="AC109" s="154"/>
       <c r="AD109" s="52"/>
     </row>
-    <row r="110" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44</v>
       </c>
       <c r="B110" s="11"/>
-      <c r="E110" s="209"/>
+      <c r="E110" s="218"/>
       <c r="F110" s="52"/>
       <c r="G110" s="52"/>
       <c r="H110" s="52"/>
@@ -7759,27 +7778,27 @@
       <c r="M110" s="13"/>
       <c r="O110" s="144"/>
       <c r="P110" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="Q110" s="159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="R110" s="159" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S110" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T110" s="159" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U110" s="162" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V110" s="68"/>
@@ -7791,12 +7810,12 @@
       <c r="AC110" s="154"/>
       <c r="AD110" s="52"/>
     </row>
-    <row r="111" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>45</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="E111" s="209"/>
+      <c r="E111" s="218"/>
       <c r="F111" s="52"/>
       <c r="G111" s="52"/>
       <c r="H111" s="52"/>
@@ -7824,7 +7843,7 @@
         <v/>
       </c>
       <c r="U111" s="162" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V111" s="68"/>
@@ -7836,7 +7855,7 @@
       <c r="AC111" s="154"/>
       <c r="AD111" s="52"/>
     </row>
-    <row r="112" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>46</v>
       </c>
@@ -7868,7 +7887,7 @@
       <c r="AC112" s="154"/>
       <c r="AD112" s="52"/>
     </row>
-    <row r="113" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>47</v>
       </c>
@@ -7911,7 +7930,7 @@
       <c r="AC113" s="61"/>
       <c r="AD113" s="61"/>
     </row>
-    <row r="114" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>48</v>
       </c>
@@ -7924,18 +7943,18 @@
         <v>80</v>
       </c>
       <c r="F114" s="26"/>
-      <c r="G114" s="210" t="s">
+      <c r="G114" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="H114" s="210" t="s">
+      <c r="H114" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="I114" s="210" t="s">
+      <c r="I114" s="219" t="s">
         <v>155</v>
       </c>
-      <c r="J114" s="210"/>
-      <c r="K114" s="210"/>
-      <c r="L114" s="210" t="s">
+      <c r="J114" s="219"/>
+      <c r="K114" s="219"/>
+      <c r="L114" s="219" t="s">
         <v>156</v>
       </c>
       <c r="M114" s="13"/>
@@ -7963,7 +7982,7 @@
       <c r="AC114" s="154"/>
       <c r="AD114" s="52"/>
     </row>
-    <row r="115" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>49</v>
       </c>
@@ -7980,8 +7999,8 @@
       <c r="F115" s="184" t="s">
         <v>144</v>
       </c>
-      <c r="G115" s="210"/>
-      <c r="H115" s="210"/>
+      <c r="G115" s="219"/>
+      <c r="H115" s="219"/>
       <c r="I115" s="159" t="s">
         <v>57</v>
       </c>
@@ -7991,7 +8010,7 @@
       <c r="K115" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="L115" s="210"/>
+      <c r="L115" s="219"/>
       <c r="M115" s="13"/>
       <c r="O115" s="144"/>
       <c r="P115" s="68"/>
@@ -8017,49 +8036,49 @@
       <c r="AC115" s="154"/>
       <c r="AD115" s="52"/>
     </row>
-    <row r="116" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>50</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="136" t="str">
-        <f t="shared" ref="C116:D119" si="17">IF(P93="","",P93)</f>
+        <f t="shared" ref="C116:D119" si="19">IF(P93="","",P93)</f>
         <v/>
       </c>
       <c r="D116" s="93">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="E116" s="93" t="str">
-        <f t="shared" ref="E116:F119" si="18">IF(T93="","",T93)</f>
-        <v/>
-      </c>
-      <c r="F116" s="185" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G116" s="159">
-        <f t="shared" ref="G116:L117" si="19">P104</f>
-        <v>60</v>
-      </c>
-      <c r="H116" s="159">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
+      <c r="E116" s="93" t="str">
+        <f t="shared" ref="E116:F119" si="20">IF(T93="","",T93)</f>
+        <v/>
+      </c>
+      <c r="F116" s="185" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="G116" s="159">
+        <f t="shared" ref="G116:L117" si="21">P104</f>
+        <v>60</v>
+      </c>
+      <c r="H116" s="159">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
       <c r="I116" s="159" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J116" s="117" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K116" s="137" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L116" s="94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M116" s="13"/>
@@ -8079,49 +8098,49 @@
       <c r="AC116" s="154"/>
       <c r="AD116" s="52"/>
     </row>
-    <row r="117" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>51</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="136" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="D117" s="140">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="E117" s="93" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F117" s="185" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G117" s="159">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>70</v>
       </c>
       <c r="H117" s="159">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="I117" s="159" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J117" s="117" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K117" s="137" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L117" s="94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M117" s="13"/>
@@ -8141,25 +8160,25 @@
       <c r="AC117" s="154"/>
       <c r="AD117" s="52"/>
     </row>
-    <row r="118" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>52</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="136" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="D118" s="140">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="E118" s="93" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F118" s="185" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G118" s="159">
@@ -8205,49 +8224,49 @@
       <c r="AC118" s="154"/>
       <c r="AD118" s="52"/>
     </row>
-    <row r="119" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>53</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="136" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="D119" s="140">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="E119" s="93" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F119" s="185" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G119" s="159">
-        <f t="shared" ref="G119:L119" si="20">P111</f>
+        <f t="shared" ref="G119:L119" si="22">P111</f>
         <v>90</v>
       </c>
       <c r="H119" s="159">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I119" s="159" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J119" s="159" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="K119" s="187" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L119" s="188" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M119" s="13"/>
@@ -8273,7 +8292,7 @@
       <c r="AC119" s="154"/>
       <c r="AD119" s="52"/>
     </row>
-    <row r="120" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>54</v>
       </c>
@@ -8292,11 +8311,11 @@
         <v>157</v>
       </c>
       <c r="I120" s="186" t="str">
-        <f t="shared" ref="I120:J122" si="21">R113</f>
+        <f t="shared" ref="I120:J122" si="23">R113</f>
         <v/>
       </c>
       <c r="J120" s="186" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K120" s="160" t="s">
@@ -8333,7 +8352,7 @@
       <c r="AC120" s="154"/>
       <c r="AD120" s="52"/>
     </row>
-    <row r="121" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>55</v>
       </c>
@@ -8352,11 +8371,11 @@
         <v>158</v>
       </c>
       <c r="I121" s="159" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J121" s="159" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M121" s="13"/>
@@ -8376,7 +8395,7 @@
       <c r="AC121" s="154"/>
       <c r="AD121" s="52"/>
     </row>
-    <row r="122" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>56</v>
       </c>
@@ -8395,11 +8414,11 @@
         <v>159</v>
       </c>
       <c r="I122" s="162" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J122" s="162" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M122" s="13"/>
@@ -8419,7 +8438,7 @@
       <c r="AC122" s="154"/>
       <c r="AD122" s="52"/>
     </row>
-    <row r="123" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>57</v>
       </c>
@@ -8449,7 +8468,7 @@
       <c r="AC123" s="154"/>
       <c r="AD123" s="52"/>
     </row>
-    <row r="124" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:30" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>58</v>
       </c>
@@ -8485,7 +8504,7 @@
       <c r="AC124" s="154"/>
       <c r="AD124" s="52"/>
     </row>
-    <row r="125" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>59</v>
       </c>
@@ -8519,7 +8538,7 @@
       <c r="AC125" s="154"/>
       <c r="AD125" s="52"/>
     </row>
-    <row r="126" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>60</v>
       </c>
@@ -8553,7 +8572,7 @@
       <c r="AC126" s="154"/>
       <c r="AD126" s="52"/>
     </row>
-    <row r="127" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>61</v>
       </c>
@@ -8592,7 +8611,7 @@
       <c r="AC127" s="154"/>
       <c r="AD127" s="52"/>
     </row>
-    <row r="128" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>62</v>
       </c>
@@ -8646,7 +8665,7 @@
       <c r="AC128" s="154"/>
       <c r="AD128" s="52"/>
     </row>
-    <row r="129" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>63</v>
       </c>
@@ -8683,7 +8702,7 @@
       <c r="AC129" s="154"/>
       <c r="AD129" s="52"/>
     </row>
-    <row r="130" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>64</v>
       </c>
@@ -8720,7 +8739,7 @@
       <c r="AC130" s="154"/>
       <c r="AD130" s="52"/>
     </row>
-    <row r="131" spans="1:40" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:40" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>65</v>
       </c>
@@ -8768,7 +8787,7 @@
       <c r="AC131" s="61"/>
       <c r="AD131" s="61"/>
     </row>
-    <row r="132" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>66</v>
       </c>
@@ -8814,7 +8833,7 @@
       <c r="AC132" s="154"/>
       <c r="AD132" s="52"/>
     </row>
-    <row r="133" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>1</v>
       </c>
@@ -8845,7 +8864,7 @@
       <c r="AC133" s="154"/>
       <c r="AD133" s="52"/>
     </row>
-    <row r="134" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>2</v>
       </c>
@@ -8877,7 +8896,7 @@
       <c r="AC134" s="154"/>
       <c r="AD134" s="52"/>
     </row>
-    <row r="135" spans="1:40" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:40" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>3</v>
       </c>
@@ -8916,7 +8935,7 @@
       <c r="AC135" s="154"/>
       <c r="AD135" s="52"/>
     </row>
-    <row r="136" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>4</v>
       </c>
@@ -8955,7 +8974,7 @@
       <c r="AC136" s="154"/>
       <c r="AD136" s="52"/>
     </row>
-    <row r="137" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>5</v>
       </c>
@@ -8990,7 +9009,7 @@
       <c r="X137" s="171"/>
       <c r="Y137" s="84"/>
     </row>
-    <row r="138" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -9025,7 +9044,7 @@
       <c r="X138" s="167"/>
       <c r="Y138" s="84"/>
     </row>
-    <row r="139" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>7</v>
       </c>
@@ -9060,7 +9079,7 @@
       <c r="X139" s="171"/>
       <c r="Y139" s="84"/>
     </row>
-    <row r="140" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>8</v>
       </c>
@@ -9095,7 +9114,7 @@
       <c r="X140" s="167"/>
       <c r="Y140" s="84"/>
     </row>
-    <row r="141" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>9</v>
       </c>
@@ -9129,22 +9148,22 @@
       <c r="W141" s="171"/>
       <c r="X141" s="171"/>
       <c r="Y141" s="84"/>
-      <c r="AA141" s="208"/>
-      <c r="AB141" s="208"/>
-      <c r="AC141" s="208"/>
-      <c r="AD141" s="208"/>
-      <c r="AE141" s="208"/>
-      <c r="AF141" s="208"/>
-      <c r="AG141" s="208"/>
-      <c r="AH141" s="208"/>
-      <c r="AI141" s="208"/>
-      <c r="AJ141" s="208"/>
-      <c r="AK141" s="208"/>
-      <c r="AL141" s="208"/>
-      <c r="AM141" s="208"/>
-      <c r="AN141" s="208"/>
-    </row>
-    <row r="142" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA141" s="222"/>
+      <c r="AB141" s="222"/>
+      <c r="AC141" s="222"/>
+      <c r="AD141" s="222"/>
+      <c r="AE141" s="222"/>
+      <c r="AF141" s="222"/>
+      <c r="AG141" s="222"/>
+      <c r="AH141" s="222"/>
+      <c r="AI141" s="222"/>
+      <c r="AJ141" s="222"/>
+      <c r="AK141" s="222"/>
+      <c r="AL141" s="222"/>
+      <c r="AM141" s="222"/>
+      <c r="AN141" s="222"/>
+    </row>
+    <row r="142" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>10</v>
       </c>
@@ -9178,12 +9197,12 @@
       <c r="W142" s="189"/>
       <c r="X142" s="167"/>
       <c r="Y142" s="84"/>
-      <c r="AA142" s="208"/>
-      <c r="AE142" s="208"/>
-      <c r="AI142" s="208"/>
-      <c r="AL142" s="208"/>
-    </row>
-    <row r="143" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA142" s="222"/>
+      <c r="AE142" s="222"/>
+      <c r="AI142" s="222"/>
+      <c r="AL142" s="222"/>
+    </row>
+    <row r="143" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>11</v>
       </c>
@@ -9226,7 +9245,7 @@
       <c r="AM143" s="178"/>
       <c r="AN143" s="178"/>
     </row>
-    <row r="144" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>12</v>
       </c>
@@ -9269,7 +9288,7 @@
       <c r="AM144" s="178"/>
       <c r="AN144" s="178"/>
     </row>
-    <row r="145" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>13</v>
       </c>
@@ -9312,7 +9331,7 @@
       <c r="AM145" s="178"/>
       <c r="AN145" s="178"/>
     </row>
-    <row r="146" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>14</v>
       </c>
@@ -9355,7 +9374,7 @@
       <c r="AM146" s="178"/>
       <c r="AN146" s="178"/>
     </row>
-    <row r="147" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>15</v>
       </c>
@@ -9398,7 +9417,7 @@
       <c r="AM147" s="178"/>
       <c r="AN147" s="178"/>
     </row>
-    <row r="148" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>16</v>
       </c>
@@ -9441,7 +9460,7 @@
       <c r="AM148" s="178"/>
       <c r="AN148" s="178"/>
     </row>
-    <row r="149" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>17</v>
       </c>
@@ -9484,7 +9503,7 @@
       <c r="AM149" s="178"/>
       <c r="AN149" s="178"/>
     </row>
-    <row r="150" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>18</v>
       </c>
@@ -9523,7 +9542,7 @@
       <c r="AG150" s="178"/>
       <c r="AH150" s="178"/>
     </row>
-    <row r="151" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>19</v>
       </c>
@@ -9562,7 +9581,7 @@
       <c r="AG151" s="178"/>
       <c r="AH151" s="178"/>
     </row>
-    <row r="152" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>20</v>
       </c>
@@ -9601,7 +9620,7 @@
       <c r="AG152" s="178"/>
       <c r="AH152" s="178"/>
     </row>
-    <row r="153" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>21</v>
       </c>
@@ -9640,7 +9659,7 @@
       <c r="AG153" s="178"/>
       <c r="AH153" s="178"/>
     </row>
-    <row r="154" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>22</v>
       </c>
@@ -9677,7 +9696,7 @@
       <c r="AG154" s="178"/>
       <c r="AH154" s="178"/>
     </row>
-    <row r="155" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>23</v>
       </c>
@@ -9714,7 +9733,7 @@
       <c r="AG155" s="178"/>
       <c r="AH155" s="178"/>
     </row>
-    <row r="156" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>24</v>
       </c>
@@ -9751,7 +9770,7 @@
       <c r="AG156" s="178"/>
       <c r="AH156" s="178"/>
     </row>
-    <row r="157" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>25</v>
       </c>
@@ -9788,7 +9807,7 @@
       <c r="AG157" s="178"/>
       <c r="AH157" s="178"/>
     </row>
-    <row r="158" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>26</v>
       </c>
@@ -9825,7 +9844,7 @@
       <c r="AG158" s="178"/>
       <c r="AH158" s="178"/>
     </row>
-    <row r="159" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>27</v>
       </c>
@@ -9860,7 +9879,7 @@
       <c r="X159" s="171"/>
       <c r="Y159" s="84"/>
     </row>
-    <row r="160" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>28</v>
       </c>
@@ -9895,7 +9914,7 @@
       <c r="X160" s="167"/>
       <c r="Y160" s="84"/>
     </row>
-    <row r="161" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>29</v>
       </c>
@@ -9930,7 +9949,7 @@
       <c r="X161" s="171"/>
       <c r="Y161" s="84"/>
     </row>
-    <row r="162" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>30</v>
       </c>
@@ -9965,7 +9984,7 @@
       <c r="X162" s="167"/>
       <c r="Y162" s="84"/>
     </row>
-    <row r="163" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>31</v>
       </c>
@@ -10000,7 +10019,7 @@
       <c r="X163" s="171"/>
       <c r="Y163" s="84"/>
     </row>
-    <row r="164" spans="1:25" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:25" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>32</v>
       </c>
@@ -10030,7 +10049,7 @@
       <c r="X164" s="131"/>
       <c r="Y164" s="132"/>
     </row>
-    <row r="165" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>33</v>
       </c>
@@ -10060,7 +10079,7 @@
       <c r="X165" s="61"/>
       <c r="Y165" s="52"/>
     </row>
-    <row r="166" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>34</v>
       </c>
@@ -10090,7 +10109,7 @@
       <c r="X166" s="61"/>
       <c r="Y166" s="52"/>
     </row>
-    <row r="167" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>35</v>
       </c>
@@ -10120,7 +10139,7 @@
       <c r="X167" s="61"/>
       <c r="Y167" s="52"/>
     </row>
-    <row r="168" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>36</v>
       </c>
@@ -10150,7 +10169,7 @@
       <c r="X168" s="61"/>
       <c r="Y168" s="52"/>
     </row>
-    <row r="169" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>37</v>
       </c>
@@ -10180,7 +10199,7 @@
       <c r="X169" s="61"/>
       <c r="Y169" s="52"/>
     </row>
-    <row r="170" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>38</v>
       </c>
@@ -10199,10 +10218,10 @@
       <c r="L170" s="176"/>
       <c r="M170" s="13"/>
       <c r="O170" s="52"/>
-      <c r="P170" s="208"/>
-      <c r="Q170" s="208"/>
-      <c r="R170" s="208"/>
-      <c r="S170" s="208"/>
+      <c r="P170" s="222"/>
+      <c r="Q170" s="222"/>
+      <c r="R170" s="222"/>
+      <c r="S170" s="222"/>
       <c r="T170" s="61"/>
       <c r="U170" s="61"/>
       <c r="V170" s="61"/>
@@ -10210,7 +10229,7 @@
       <c r="X170" s="61"/>
       <c r="Y170" s="52"/>
     </row>
-    <row r="171" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>39</v>
       </c>
@@ -10240,7 +10259,7 @@
       <c r="X171" s="61"/>
       <c r="Y171" s="52"/>
     </row>
-    <row r="172" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>40</v>
       </c>
@@ -10270,7 +10289,7 @@
       <c r="X172" s="52"/>
       <c r="Y172" s="52"/>
     </row>
-    <row r="173" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>41</v>
       </c>
@@ -10300,7 +10319,7 @@
       <c r="X173" s="61"/>
       <c r="Y173" s="52"/>
     </row>
-    <row r="174" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>42</v>
       </c>
@@ -10330,7 +10349,7 @@
       <c r="X174" s="61"/>
       <c r="Y174" s="52"/>
     </row>
-    <row r="175" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>43</v>
       </c>
@@ -10360,7 +10379,7 @@
       <c r="X175" s="61"/>
       <c r="Y175" s="52"/>
     </row>
-    <row r="176" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>44</v>
       </c>
@@ -10390,7 +10409,7 @@
       <c r="X176" s="61"/>
       <c r="Y176" s="52"/>
     </row>
-    <row r="177" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>45</v>
       </c>
@@ -10420,7 +10439,7 @@
       <c r="X177" s="61"/>
       <c r="Y177" s="52"/>
     </row>
-    <row r="178" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>46</v>
       </c>
@@ -10450,7 +10469,7 @@
       <c r="X178" s="61"/>
       <c r="Y178" s="52"/>
     </row>
-    <row r="179" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>47</v>
       </c>
@@ -10480,7 +10499,7 @@
       <c r="X179" s="61"/>
       <c r="Y179" s="52"/>
     </row>
-    <row r="180" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>48</v>
       </c>
@@ -10510,7 +10529,7 @@
       <c r="X180" s="61"/>
       <c r="Y180" s="52"/>
     </row>
-    <row r="181" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>49</v>
       </c>
@@ -10540,7 +10559,7 @@
       <c r="X181" s="61"/>
       <c r="Y181" s="52"/>
     </row>
-    <row r="182" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>50</v>
       </c>
@@ -10570,7 +10589,7 @@
       <c r="X182" s="61"/>
       <c r="Y182" s="52"/>
     </row>
-    <row r="183" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>51</v>
       </c>
@@ -10600,7 +10619,7 @@
       <c r="X183" s="61"/>
       <c r="Y183" s="52"/>
     </row>
-    <row r="184" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>52</v>
       </c>
@@ -10630,7 +10649,7 @@
       <c r="X184" s="61"/>
       <c r="Y184" s="52"/>
     </row>
-    <row r="185" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>53</v>
       </c>
@@ -10660,7 +10679,7 @@
       <c r="X185" s="61"/>
       <c r="Y185" s="52"/>
     </row>
-    <row r="186" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>54</v>
       </c>
@@ -10690,7 +10709,7 @@
       <c r="X186" s="61"/>
       <c r="Y186" s="52"/>
     </row>
-    <row r="187" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>55</v>
       </c>
@@ -10720,7 +10739,7 @@
       <c r="X187" s="61"/>
       <c r="Y187" s="52"/>
     </row>
-    <row r="188" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>56</v>
       </c>
@@ -10750,7 +10769,7 @@
       <c r="X188" s="61"/>
       <c r="Y188" s="52"/>
     </row>
-    <row r="189" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>57</v>
       </c>
@@ -10780,7 +10799,7 @@
       <c r="X189" s="61"/>
       <c r="Y189" s="52"/>
     </row>
-    <row r="190" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>58</v>
       </c>
@@ -10810,7 +10829,7 @@
       <c r="X190" s="61"/>
       <c r="Y190" s="52"/>
     </row>
-    <row r="191" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>59</v>
       </c>
@@ -10840,7 +10859,7 @@
       <c r="X191" s="61"/>
       <c r="Y191" s="52"/>
     </row>
-    <row r="192" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>60</v>
       </c>
@@ -10870,7 +10889,7 @@
       <c r="X192" s="61"/>
       <c r="Y192" s="52"/>
     </row>
-    <row r="193" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>61</v>
       </c>
@@ -10888,7 +10907,7 @@
       <c r="X193" s="61"/>
       <c r="Y193" s="52"/>
     </row>
-    <row r="194" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>62</v>
       </c>
@@ -10906,7 +10925,7 @@
       <c r="X194" s="61"/>
       <c r="Y194" s="52"/>
     </row>
-    <row r="195" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>63</v>
       </c>
@@ -10924,7 +10943,7 @@
       <c r="X195" s="61"/>
       <c r="Y195" s="52"/>
     </row>
-    <row r="196" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>64</v>
       </c>
@@ -10952,7 +10971,7 @@
       <c r="X196" s="52"/>
       <c r="Y196" s="52"/>
     </row>
-    <row r="197" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>65</v>
       </c>
@@ -10978,7 +10997,7 @@
         <v>Eugene Mah</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>66</v>
       </c>
@@ -11005,42 +11024,20 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B3B53441-1E98-4F76-BE9D-5905F2DE3FE8}" scale="75">
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="66" min="1" max="12" man="1"/>
+        <brk id="132" min="1" max="12" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+      <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+      <headerFooter>
+        <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+      </headerFooter>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="46">
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="I114:K114"/>
-    <mergeCell ref="L114:L115"/>
     <mergeCell ref="R102:S102"/>
     <mergeCell ref="AJ141:AK141"/>
     <mergeCell ref="AL141:AL142"/>
@@ -11052,6 +11049,41 @@
     <mergeCell ref="AE141:AE142"/>
     <mergeCell ref="AF141:AH141"/>
     <mergeCell ref="AI141:AI142"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <conditionalFormatting sqref="L33:L38 L41:L53">
     <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
@@ -11133,7 +11165,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
@@ -11141,6 +11173,6 @@
     <brk id="66" min="1" max="12" man="1"/>
     <brk id="132" min="1" max="12" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/MUSCDentalCT.xlsx
+++ b/MUSCDentalCT.xlsx
@@ -2218,49 +2218,49 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2894,24 +2894,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9756A71E-71F3-4C3B-BE60-A4E7B75B1C07}">
-  <header guid="{9756A71E-71F3-4C3B-BE60-A4E7B75B1C07}" dateTime="2020-06-03T09:44:35" maxSheetId="2" userName="Eugene Mah" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3386,16 +3368,16 @@
         <f>IF(P7="","",P7)</f>
         <v/>
       </c>
-      <c r="AG8" s="208" t="s">
+      <c r="AG8" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="AH8" s="208"/>
-      <c r="AJ8" s="209" t="s">
+      <c r="AH8" s="221"/>
+      <c r="AJ8" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="AK8" s="209"/>
-      <c r="AL8" s="209"/>
-      <c r="AM8" s="209"/>
+      <c r="AK8" s="222"/>
+      <c r="AL8" s="222"/>
+      <c r="AM8" s="222"/>
     </row>
     <row r="9" spans="1:39" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -3467,19 +3449,19 @@
       <c r="E10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="210" t="str">
+      <c r="F10" s="214" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="210"/>
+      <c r="G10" s="214"/>
       <c r="J10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="210" t="str">
+      <c r="K10" s="214" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="210"/>
+      <c r="L10" s="214"/>
       <c r="M10" s="13"/>
       <c r="O10" s="14"/>
       <c r="Q10" s="18" t="s">
@@ -3538,19 +3520,19 @@
       <c r="E11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="211" t="str">
+      <c r="F11" s="219" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="211"/>
+      <c r="G11" s="219"/>
       <c r="J11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="210" t="str">
+      <c r="K11" s="214" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="210"/>
+      <c r="L11" s="214"/>
       <c r="M11" s="13"/>
       <c r="O11" s="14"/>
       <c r="Q11" s="18" t="s">
@@ -3611,19 +3593,19 @@
       <c r="E12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="211" t="str">
+      <c r="F12" s="219" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="211"/>
+      <c r="G12" s="219"/>
       <c r="J12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="212" t="str">
+      <c r="K12" s="220" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="212"/>
+      <c r="L12" s="220"/>
       <c r="M12" s="13"/>
       <c r="O12" s="14"/>
       <c r="Q12" s="18" t="s">
@@ -3684,19 +3666,19 @@
       <c r="E13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="213" t="str">
+      <c r="F13" s="217" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="213"/>
+      <c r="G13" s="217"/>
       <c r="J13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="210" t="str">
+      <c r="K13" s="214" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="210"/>
+      <c r="L13" s="214"/>
       <c r="M13" s="13"/>
       <c r="O13" s="14"/>
       <c r="Q13" s="18" t="s">
@@ -3854,19 +3836,19 @@
       <c r="E16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="214" t="str">
+      <c r="F16" s="215" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="214"/>
+      <c r="G16" s="215"/>
       <c r="J16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="212" t="str">
+      <c r="K16" s="220" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="212"/>
+      <c r="L16" s="220"/>
       <c r="M16" s="13"/>
       <c r="O16" s="14"/>
       <c r="P16" s="31" t="s">
@@ -3914,19 +3896,19 @@
       <c r="E17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="213" t="str">
+      <c r="F17" s="217" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="213"/>
+      <c r="G17" s="217"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="210" t="str">
+      <c r="K17" s="214" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="210"/>
+      <c r="L17" s="214"/>
       <c r="M17" s="13"/>
       <c r="O17" s="14"/>
       <c r="Q17" s="18" t="s">
@@ -4073,19 +4055,19 @@
       <c r="E20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="214" t="str">
+      <c r="F20" s="215" t="str">
         <f>IF(R21="","",R21)</f>
         <v/>
       </c>
-      <c r="G20" s="214"/>
+      <c r="G20" s="215"/>
       <c r="J20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="210" t="str">
+      <c r="K20" s="214" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L20" s="210"/>
+      <c r="L20" s="214"/>
       <c r="M20" s="13"/>
       <c r="O20" s="14"/>
       <c r="P20" s="31" t="s">
@@ -4114,19 +4096,19 @@
       <c r="E21" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="215" t="str">
+      <c r="F21" s="218" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="215"/>
+      <c r="G21" s="218"/>
       <c r="J21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="210" t="str">
+      <c r="K21" s="214" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="210"/>
+      <c r="L21" s="214"/>
       <c r="M21" s="13"/>
       <c r="O21" s="14"/>
       <c r="Q21" s="18" t="s">
@@ -4176,11 +4158,11 @@
       <c r="J22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="210" t="str">
+      <c r="K22" s="214" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="210"/>
+      <c r="L22" s="214"/>
       <c r="M22" s="13"/>
       <c r="O22" s="14"/>
       <c r="Q22" s="18" t="s">
@@ -4227,11 +4209,11 @@
       <c r="E23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="214" t="str">
+      <c r="F23" s="215" t="str">
         <f>IF(R24="","",R24)</f>
         <v/>
       </c>
-      <c r="G23" s="214"/>
+      <c r="G23" s="215"/>
       <c r="M23" s="13"/>
       <c r="O23" s="14"/>
       <c r="P23" s="31" t="s">
@@ -4273,11 +4255,11 @@
       <c r="E24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="214" t="str">
+      <c r="F24" s="215" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="214"/>
+      <c r="G24" s="215"/>
       <c r="J24" s="31" t="s">
         <v>50</v>
       </c>
@@ -4319,19 +4301,19 @@
       <c r="E25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="214" t="str">
+      <c r="F25" s="215" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="214"/>
+      <c r="G25" s="215"/>
       <c r="J25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="210" t="str">
+      <c r="K25" s="214" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="210"/>
+      <c r="L25" s="214"/>
       <c r="M25" s="13"/>
       <c r="O25" s="14"/>
       <c r="Q25" s="18" t="s">
@@ -4365,11 +4347,11 @@
       <c r="J26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="210" t="str">
+      <c r="K26" s="214" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="210"/>
+      <c r="L26" s="214"/>
       <c r="M26" s="13"/>
       <c r="O26" s="14"/>
       <c r="Q26" s="18" t="s">
@@ -4402,11 +4384,11 @@
       <c r="E27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="214" t="str">
+      <c r="F27" s="215" t="str">
         <f>IF(R28="","",R28)</f>
         <v/>
       </c>
-      <c r="G27" s="214"/>
+      <c r="G27" s="215"/>
       <c r="M27" s="13"/>
       <c r="O27" s="14"/>
       <c r="P27" s="31" t="s">
@@ -4442,11 +4424,11 @@
       <c r="E28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="214" t="str">
+      <c r="F28" s="215" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="214"/>
+      <c r="G28" s="215"/>
       <c r="M28" s="13"/>
       <c r="O28" s="14"/>
       <c r="Q28" s="18" t="s">
@@ -4506,11 +4488,11 @@
       <c r="E29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="214" t="str">
+      <c r="F29" s="215" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="214"/>
+      <c r="G29" s="215"/>
       <c r="M29" s="13"/>
       <c r="O29" s="14"/>
       <c r="Q29" s="18" t="s">
@@ -4659,10 +4641,10 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="217" t="s">
+      <c r="L32" s="216" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="217"/>
+      <c r="M32" s="216"/>
       <c r="AA32" s="18" t="s">
         <v>37</v>
       </c>
@@ -5651,11 +5633,11 @@
         <v>79</v>
       </c>
       <c r="P60" s="79"/>
-      <c r="Q60" s="216"/>
-      <c r="R60" s="216"/>
-      <c r="S60" s="216"/>
-      <c r="T60" s="216"/>
-      <c r="U60" s="216"/>
+      <c r="Q60" s="213"/>
+      <c r="R60" s="213"/>
+      <c r="S60" s="213"/>
+      <c r="T60" s="213"/>
+      <c r="U60" s="213"/>
       <c r="V60" s="79"/>
       <c r="W60" s="79"/>
       <c r="X60" s="79"/>
@@ -7455,10 +7437,10 @@
       <c r="Q102" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="R102" s="220" t="s">
+      <c r="R102" s="208" t="s">
         <v>155</v>
       </c>
-      <c r="S102" s="221"/>
+      <c r="S102" s="209"/>
       <c r="T102" s="190"/>
       <c r="U102" s="190" t="s">
         <v>156</v>
@@ -7725,7 +7707,7 @@
         <v>43</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="E109" s="218"/>
+      <c r="E109" s="211"/>
       <c r="F109" s="52"/>
       <c r="G109" s="52"/>
       <c r="H109" s="52"/>
@@ -7770,7 +7752,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="11"/>
-      <c r="E110" s="218"/>
+      <c r="E110" s="211"/>
       <c r="F110" s="52"/>
       <c r="G110" s="52"/>
       <c r="H110" s="52"/>
@@ -7815,7 +7797,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="E111" s="218"/>
+      <c r="E111" s="211"/>
       <c r="F111" s="52"/>
       <c r="G111" s="52"/>
       <c r="H111" s="52"/>
@@ -7943,18 +7925,18 @@
         <v>80</v>
       </c>
       <c r="F114" s="26"/>
-      <c r="G114" s="219" t="s">
+      <c r="G114" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="H114" s="219" t="s">
+      <c r="H114" s="212" t="s">
         <v>123</v>
       </c>
-      <c r="I114" s="219" t="s">
+      <c r="I114" s="212" t="s">
         <v>155</v>
       </c>
-      <c r="J114" s="219"/>
-      <c r="K114" s="219"/>
-      <c r="L114" s="219" t="s">
+      <c r="J114" s="212"/>
+      <c r="K114" s="212"/>
+      <c r="L114" s="212" t="s">
         <v>156</v>
       </c>
       <c r="M114" s="13"/>
@@ -7999,8 +7981,8 @@
       <c r="F115" s="184" t="s">
         <v>144</v>
       </c>
-      <c r="G115" s="219"/>
-      <c r="H115" s="219"/>
+      <c r="G115" s="212"/>
+      <c r="H115" s="212"/>
       <c r="I115" s="159" t="s">
         <v>57</v>
       </c>
@@ -8010,7 +7992,7 @@
       <c r="K115" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="L115" s="219"/>
+      <c r="L115" s="212"/>
       <c r="M115" s="13"/>
       <c r="O115" s="144"/>
       <c r="P115" s="68"/>
@@ -9148,20 +9130,20 @@
       <c r="W141" s="171"/>
       <c r="X141" s="171"/>
       <c r="Y141" s="84"/>
-      <c r="AA141" s="222"/>
-      <c r="AB141" s="222"/>
-      <c r="AC141" s="222"/>
-      <c r="AD141" s="222"/>
-      <c r="AE141" s="222"/>
-      <c r="AF141" s="222"/>
-      <c r="AG141" s="222"/>
-      <c r="AH141" s="222"/>
-      <c r="AI141" s="222"/>
-      <c r="AJ141" s="222"/>
-      <c r="AK141" s="222"/>
-      <c r="AL141" s="222"/>
-      <c r="AM141" s="222"/>
-      <c r="AN141" s="222"/>
+      <c r="AA141" s="210"/>
+      <c r="AB141" s="210"/>
+      <c r="AC141" s="210"/>
+      <c r="AD141" s="210"/>
+      <c r="AE141" s="210"/>
+      <c r="AF141" s="210"/>
+      <c r="AG141" s="210"/>
+      <c r="AH141" s="210"/>
+      <c r="AI141" s="210"/>
+      <c r="AJ141" s="210"/>
+      <c r="AK141" s="210"/>
+      <c r="AL141" s="210"/>
+      <c r="AM141" s="210"/>
+      <c r="AN141" s="210"/>
     </row>
     <row r="142" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
@@ -9197,10 +9179,10 @@
       <c r="W142" s="189"/>
       <c r="X142" s="167"/>
       <c r="Y142" s="84"/>
-      <c r="AA142" s="222"/>
-      <c r="AE142" s="222"/>
-      <c r="AI142" s="222"/>
-      <c r="AL142" s="222"/>
+      <c r="AA142" s="210"/>
+      <c r="AE142" s="210"/>
+      <c r="AI142" s="210"/>
+      <c r="AL142" s="210"/>
     </row>
     <row r="143" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
@@ -10218,10 +10200,10 @@
       <c r="L170" s="176"/>
       <c r="M170" s="13"/>
       <c r="O170" s="52"/>
-      <c r="P170" s="222"/>
-      <c r="Q170" s="222"/>
-      <c r="R170" s="222"/>
-      <c r="S170" s="222"/>
+      <c r="P170" s="210"/>
+      <c r="Q170" s="210"/>
+      <c r="R170" s="210"/>
+      <c r="S170" s="210"/>
       <c r="T170" s="61"/>
       <c r="U170" s="61"/>
       <c r="V170" s="61"/>
@@ -11038,6 +11020,41 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="L114:L115"/>
     <mergeCell ref="R102:S102"/>
     <mergeCell ref="AJ141:AK141"/>
     <mergeCell ref="AL141:AL142"/>
@@ -11049,41 +11066,6 @@
     <mergeCell ref="AE141:AE142"/>
     <mergeCell ref="AF141:AH141"/>
     <mergeCell ref="AI141:AI142"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="I114:K114"/>
-    <mergeCell ref="L114:L115"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <conditionalFormatting sqref="L33:L38 L41:L53">
     <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">

--- a/MUSCDentalCT.xlsx
+++ b/MUSCDentalCT.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$M$198</definedName>
     <definedName name="Z_B3B53441_1E98_4F76_BE9D_5905F2DE3FE8_.wvu.PrintArea" localSheetId="0" hidden="1">Sheet1!$B$1:$M$198</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="Eugene Mah - Personal View" guid="{B3B53441-1E98-4F76-BE9D-5905F2DE3FE8}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
@@ -252,9 +252,6 @@
     <t>DHEC RHB 10.2.1</t>
   </si>
   <si>
-    <t>DHEC form SC-RAH-20 “Notice to Employees” posted or referenced</t>
-  </si>
-  <si>
     <t>Enter 1 for YES, 2 for NO, 3 for NA</t>
   </si>
   <si>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>Unit installed as shown on shielding plan</t>
+  </si>
+  <si>
+    <t>DHEC form SC-RHA-20 “Notice to Employees” posted or referenced</t>
   </si>
 </sst>
 </file>
@@ -2218,13 +2218,34 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2233,34 +2254,13 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3159,7 +3159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3187,7 +3189,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="6"/>
       <c r="O1" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
@@ -3368,16 +3370,16 @@
         <f>IF(P7="","",P7)</f>
         <v/>
       </c>
-      <c r="AG8" s="221" t="s">
+      <c r="AG8" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="AH8" s="221"/>
-      <c r="AJ8" s="222" t="s">
+      <c r="AH8" s="208"/>
+      <c r="AJ8" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="AK8" s="222"/>
-      <c r="AL8" s="222"/>
-      <c r="AM8" s="222"/>
+      <c r="AK8" s="209"/>
+      <c r="AL8" s="209"/>
+      <c r="AM8" s="209"/>
     </row>
     <row r="9" spans="1:39" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -3449,19 +3451,19 @@
       <c r="E10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="214" t="str">
+      <c r="F10" s="210" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="214"/>
+      <c r="G10" s="210"/>
       <c r="J10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="214" t="str">
+      <c r="K10" s="210" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="214"/>
+      <c r="L10" s="210"/>
       <c r="M10" s="13"/>
       <c r="O10" s="14"/>
       <c r="Q10" s="18" t="s">
@@ -3520,19 +3522,19 @@
       <c r="E11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="219" t="str">
+      <c r="F11" s="211" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="219"/>
+      <c r="G11" s="211"/>
       <c r="J11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="214" t="str">
+      <c r="K11" s="210" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="214"/>
+      <c r="L11" s="210"/>
       <c r="M11" s="13"/>
       <c r="O11" s="14"/>
       <c r="Q11" s="18" t="s">
@@ -3593,19 +3595,19 @@
       <c r="E12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="219" t="str">
+      <c r="F12" s="211" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="219"/>
+      <c r="G12" s="211"/>
       <c r="J12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="220" t="str">
+      <c r="K12" s="212" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="220"/>
+      <c r="L12" s="212"/>
       <c r="M12" s="13"/>
       <c r="O12" s="14"/>
       <c r="Q12" s="18" t="s">
@@ -3666,19 +3668,19 @@
       <c r="E13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="217" t="str">
+      <c r="F13" s="213" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="217"/>
+      <c r="G13" s="213"/>
       <c r="J13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="214" t="str">
+      <c r="K13" s="210" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="214"/>
+      <c r="L13" s="210"/>
       <c r="M13" s="13"/>
       <c r="O13" s="14"/>
       <c r="Q13" s="18" t="s">
@@ -3836,19 +3838,19 @@
       <c r="E16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="215" t="str">
+      <c r="F16" s="214" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="215"/>
+      <c r="G16" s="214"/>
       <c r="J16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="220" t="str">
+      <c r="K16" s="212" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="220"/>
+      <c r="L16" s="212"/>
       <c r="M16" s="13"/>
       <c r="O16" s="14"/>
       <c r="P16" s="31" t="s">
@@ -3896,19 +3898,19 @@
       <c r="E17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="217" t="str">
+      <c r="F17" s="213" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="217"/>
+      <c r="G17" s="213"/>
       <c r="J17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="214" t="str">
+      <c r="K17" s="210" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="214"/>
+      <c r="L17" s="210"/>
       <c r="M17" s="13"/>
       <c r="O17" s="14"/>
       <c r="Q17" s="18" t="s">
@@ -4055,19 +4057,19 @@
       <c r="E20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="215" t="str">
+      <c r="F20" s="214" t="str">
         <f>IF(R21="","",R21)</f>
         <v/>
       </c>
-      <c r="G20" s="215"/>
+      <c r="G20" s="214"/>
       <c r="J20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="214" t="str">
+      <c r="K20" s="210" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L20" s="214"/>
+      <c r="L20" s="210"/>
       <c r="M20" s="13"/>
       <c r="O20" s="14"/>
       <c r="P20" s="31" t="s">
@@ -4096,19 +4098,19 @@
       <c r="E21" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="218" t="str">
+      <c r="F21" s="215" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="218"/>
+      <c r="G21" s="215"/>
       <c r="J21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="214" t="str">
+      <c r="K21" s="210" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="214"/>
+      <c r="L21" s="210"/>
       <c r="M21" s="13"/>
       <c r="O21" s="14"/>
       <c r="Q21" s="18" t="s">
@@ -4158,11 +4160,11 @@
       <c r="J22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="214" t="str">
+      <c r="K22" s="210" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="214"/>
+      <c r="L22" s="210"/>
       <c r="M22" s="13"/>
       <c r="O22" s="14"/>
       <c r="Q22" s="18" t="s">
@@ -4209,11 +4211,11 @@
       <c r="E23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="215" t="str">
+      <c r="F23" s="214" t="str">
         <f>IF(R24="","",R24)</f>
         <v/>
       </c>
-      <c r="G23" s="215"/>
+      <c r="G23" s="214"/>
       <c r="M23" s="13"/>
       <c r="O23" s="14"/>
       <c r="P23" s="31" t="s">
@@ -4255,11 +4257,11 @@
       <c r="E24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="215" t="str">
+      <c r="F24" s="214" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="215"/>
+      <c r="G24" s="214"/>
       <c r="J24" s="31" t="s">
         <v>50</v>
       </c>
@@ -4301,19 +4303,19 @@
       <c r="E25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="215" t="str">
+      <c r="F25" s="214" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="215"/>
+      <c r="G25" s="214"/>
       <c r="J25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="214" t="str">
+      <c r="K25" s="210" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="214"/>
+      <c r="L25" s="210"/>
       <c r="M25" s="13"/>
       <c r="O25" s="14"/>
       <c r="Q25" s="18" t="s">
@@ -4347,11 +4349,11 @@
       <c r="J26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="214" t="str">
+      <c r="K26" s="210" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="214"/>
+      <c r="L26" s="210"/>
       <c r="M26" s="13"/>
       <c r="O26" s="14"/>
       <c r="Q26" s="18" t="s">
@@ -4384,11 +4386,11 @@
       <c r="E27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="215" t="str">
+      <c r="F27" s="214" t="str">
         <f>IF(R28="","",R28)</f>
         <v/>
       </c>
-      <c r="G27" s="215"/>
+      <c r="G27" s="214"/>
       <c r="M27" s="13"/>
       <c r="O27" s="14"/>
       <c r="P27" s="31" t="s">
@@ -4424,11 +4426,11 @@
       <c r="E28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="215" t="str">
+      <c r="F28" s="214" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="215"/>
+      <c r="G28" s="214"/>
       <c r="M28" s="13"/>
       <c r="O28" s="14"/>
       <c r="Q28" s="18" t="s">
@@ -4488,11 +4490,11 @@
       <c r="E29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="215" t="str">
+      <c r="F29" s="214" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="215"/>
+      <c r="G29" s="214"/>
       <c r="M29" s="13"/>
       <c r="O29" s="14"/>
       <c r="Q29" s="18" t="s">
@@ -4641,10 +4643,10 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="216" t="s">
+      <c r="L32" s="217" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="216"/>
+      <c r="M32" s="217"/>
       <c r="AA32" s="18" t="s">
         <v>37</v>
       </c>
@@ -4729,7 +4731,7 @@
         <v>69</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="L34" s="70" t="str">
         <f t="shared" si="4"/>
@@ -4740,7 +4742,7 @@
         <v/>
       </c>
       <c r="O34" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
@@ -4784,7 +4786,7 @@
       </c>
       <c r="B35" s="11"/>
       <c r="E35" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L35" s="70" t="str">
         <f t="shared" si="4"/>
@@ -4828,10 +4830,10 @@
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="L36" s="70" t="str">
         <f t="shared" si="4"/>
@@ -4878,7 +4880,7 @@
       </c>
       <c r="B37" s="11"/>
       <c r="E37" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L37" s="70" t="str">
         <f t="shared" si="4"/>
@@ -4925,7 +4927,7 @@
       </c>
       <c r="B38" s="11"/>
       <c r="E38" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L38" s="70" t="str">
         <f t="shared" si="4"/>
@@ -4937,7 +4939,7 @@
       </c>
       <c r="O38" s="73"/>
       <c r="P38" s="19" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="Y38" s="15"/>
       <c r="AA38" s="18" t="s">
@@ -4974,7 +4976,7 @@
       <c r="M39" s="13"/>
       <c r="O39" s="73"/>
       <c r="P39" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y39" s="15"/>
       <c r="AA39" s="18" t="s">
@@ -5009,12 +5011,12 @@
       </c>
       <c r="B40" s="11"/>
       <c r="F40" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M40" s="13"/>
       <c r="O40" s="73"/>
       <c r="P40" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y40" s="15"/>
       <c r="AB40" s="125"/>
@@ -5034,7 +5036,7 @@
       </c>
       <c r="B41" s="11"/>
       <c r="E41" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L41" s="70" t="str">
         <f t="shared" ref="L41:L46" si="6">IF(O44="","TBD",IF(O44=1,"YES",IF(O44=3,"NA","")))</f>
@@ -5046,11 +5048,11 @@
       </c>
       <c r="O41" s="73"/>
       <c r="P41" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y41" s="15"/>
       <c r="AA41" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB41" s="125"/>
       <c r="AF41" s="74"/>
@@ -5069,7 +5071,7 @@
       </c>
       <c r="B42" s="11"/>
       <c r="E42" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L42" s="70" t="str">
         <f t="shared" si="6"/>
@@ -5081,11 +5083,11 @@
       </c>
       <c r="O42" s="73"/>
       <c r="P42" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y42" s="15"/>
       <c r="AA42" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB42" s="83"/>
       <c r="AC42" s="29" t="str">
@@ -5112,7 +5114,7 @@
       </c>
       <c r="B43" s="11"/>
       <c r="E43" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L43" s="70" t="str">
         <f t="shared" si="6"/>
@@ -5124,11 +5126,11 @@
       </c>
       <c r="O43" s="14"/>
       <c r="T43" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y43" s="15"/>
       <c r="AA43" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB43" s="83"/>
       <c r="AC43" s="29" t="str">
@@ -5155,7 +5157,7 @@
       </c>
       <c r="B44" s="11"/>
       <c r="E44" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L44" s="70" t="str">
         <f t="shared" si="6"/>
@@ -5167,11 +5169,11 @@
       </c>
       <c r="O44" s="73"/>
       <c r="P44" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y44" s="15"/>
       <c r="AA44" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB44" s="83"/>
       <c r="AC44" s="29" t="str">
@@ -5198,7 +5200,7 @@
       </c>
       <c r="B45" s="11"/>
       <c r="E45" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L45" s="70" t="str">
         <f t="shared" si="6"/>
@@ -5210,11 +5212,11 @@
       </c>
       <c r="O45" s="73"/>
       <c r="P45" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y45" s="15"/>
       <c r="AA45" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB45" s="83"/>
       <c r="AC45" s="29" t="str">
@@ -5232,7 +5234,7 @@
       </c>
       <c r="B46" s="11"/>
       <c r="E46" s="207" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L46" s="70" t="str">
         <f t="shared" si="6"/>
@@ -5244,11 +5246,11 @@
       </c>
       <c r="O46" s="73"/>
       <c r="P46" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y46" s="15"/>
       <c r="AA46" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB46" s="83"/>
       <c r="AC46" s="29" t="str">
@@ -5266,7 +5268,7 @@
       </c>
       <c r="B47" s="11"/>
       <c r="E47" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L47" s="70" t="str">
         <f t="shared" ref="L47:L52" si="10">IF(O51="","TBD",IF(O51=1,"YES",IF(O51=3,"NA","")))</f>
@@ -5278,11 +5280,11 @@
       </c>
       <c r="O47" s="73"/>
       <c r="P47" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y47" s="15"/>
       <c r="AA47" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB47" s="83"/>
       <c r="AC47" s="29" t="str">
@@ -5300,10 +5302,10 @@
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="L48" s="70" t="str">
         <f t="shared" si="10"/>
@@ -5315,11 +5317,11 @@
       </c>
       <c r="O48" s="73"/>
       <c r="P48" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y48" s="15"/>
       <c r="AA48" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB48" s="83"/>
       <c r="AC48" s="29" t="str">
@@ -5337,10 +5339,10 @@
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="L49" s="70" t="str">
         <f t="shared" si="10"/>
@@ -5352,7 +5354,7 @@
       </c>
       <c r="O49" s="206"/>
       <c r="P49" s="180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y49" s="15"/>
       <c r="AA49" s="68"/>
@@ -5366,10 +5368,10 @@
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="L50" s="70" t="str">
         <f t="shared" si="10"/>
@@ -5382,7 +5384,7 @@
       <c r="O50" s="14"/>
       <c r="Y50" s="15"/>
       <c r="AA50" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB50" s="83"/>
       <c r="AC50" s="29" t="str">
@@ -5400,10 +5402,10 @@
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="L51" s="70" t="str">
         <f t="shared" si="10"/>
@@ -5415,11 +5417,11 @@
       </c>
       <c r="O51" s="73"/>
       <c r="P51" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y51" s="15"/>
       <c r="AA51" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB51" s="83"/>
       <c r="AC51" s="29" t="e">
@@ -5437,10 +5439,10 @@
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L52" s="70" t="str">
         <f t="shared" si="10"/>
@@ -5452,11 +5454,11 @@
       </c>
       <c r="O52" s="73"/>
       <c r="P52" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y52" s="15"/>
       <c r="AA52" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB52" s="83"/>
       <c r="AC52" s="29" t="str">
@@ -5474,10 +5476,10 @@
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E53" s="180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L53" s="70" t="str">
         <f>IF(O57="","TBD",IF(O57=1,"YES",IF(O57=3,"NA","")))</f>
@@ -5489,11 +5491,11 @@
       </c>
       <c r="O53" s="73"/>
       <c r="P53" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y53" s="15"/>
       <c r="AA53" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB53" s="83"/>
       <c r="AC53" s="29" t="str">
@@ -5513,7 +5515,7 @@
       <c r="M54" s="13"/>
       <c r="O54" s="73"/>
       <c r="P54" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y54" s="15"/>
       <c r="AA54" s="68"/>
@@ -5529,11 +5531,11 @@
       <c r="M55" s="13"/>
       <c r="O55" s="73"/>
       <c r="P55" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y55" s="15"/>
       <c r="AA55" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB55" s="77"/>
       <c r="AC55" s="29" t="str">
@@ -5553,7 +5555,7 @@
       <c r="M56" s="13"/>
       <c r="O56" s="73"/>
       <c r="P56" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y56" s="15"/>
       <c r="AA56" s="18"/>
@@ -5568,7 +5570,7 @@
       <c r="M57" s="13"/>
       <c r="O57" s="73"/>
       <c r="P57" s="205" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q57" s="24"/>
       <c r="R57" s="24"/>
@@ -5609,7 +5611,7 @@
       <c r="L59" s="70"/>
       <c r="M59" s="71"/>
       <c r="T59" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA59" s="18"/>
       <c r="AB59" s="77"/>
@@ -5630,14 +5632,14 @@
       <c r="L60" s="70"/>
       <c r="M60" s="71"/>
       <c r="O60" s="78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P60" s="79"/>
-      <c r="Q60" s="213"/>
-      <c r="R60" s="213"/>
-      <c r="S60" s="213"/>
-      <c r="T60" s="213"/>
-      <c r="U60" s="213"/>
+      <c r="Q60" s="216"/>
+      <c r="R60" s="216"/>
+      <c r="S60" s="216"/>
+      <c r="T60" s="216"/>
+      <c r="U60" s="216"/>
       <c r="V60" s="79"/>
       <c r="W60" s="79"/>
       <c r="X60" s="79"/>
@@ -5655,7 +5657,7 @@
       <c r="M61" s="71"/>
       <c r="O61" s="81"/>
       <c r="P61" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q61" s="82"/>
       <c r="R61" s="83" t="str">
@@ -5663,10 +5665,10 @@
         <v/>
       </c>
       <c r="T61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U61" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="V61" s="61"/>
       <c r="W61" s="61"/>
@@ -5692,7 +5694,7 @@
       <c r="M62" s="71"/>
       <c r="O62" s="81"/>
       <c r="P62" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q62" s="82"/>
       <c r="R62" s="83" t="str">
@@ -5706,7 +5708,7 @@
       <c r="U62" s="87"/>
       <c r="V62" s="61"/>
       <c r="W62" s="86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X62" s="87"/>
       <c r="Y62" s="84"/>
@@ -5722,7 +5724,7 @@
       <c r="M63" s="13"/>
       <c r="O63" s="81"/>
       <c r="P63" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q63" s="82"/>
       <c r="R63" s="83" t="str">
@@ -5736,7 +5738,7 @@
       <c r="U63" s="87"/>
       <c r="V63" s="61"/>
       <c r="W63" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X63" s="88" t="str">
         <f>IF(OR(T66="",U66=""),"",T66/3+2*U66/3)</f>
@@ -5772,7 +5774,7 @@
       <c r="M64" s="22"/>
       <c r="O64" s="81"/>
       <c r="P64" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q64" s="82"/>
       <c r="R64" s="83" t="str">
@@ -5786,7 +5788,7 @@
       <c r="U64" s="87"/>
       <c r="V64" s="61"/>
       <c r="W64" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X64" s="89" t="str">
         <f>IF(AB48="","",AB48)</f>
@@ -5824,7 +5826,7 @@
       </c>
       <c r="O65" s="81"/>
       <c r="P65" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q65" s="82">
         <v>100</v>
@@ -5834,7 +5836,7 @@
         <v/>
       </c>
       <c r="S65" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T65" s="93" t="str">
         <f>IF(OR(T62="",T63="",T64=""),"",AVERAGE(T62:T64))</f>
@@ -5846,7 +5848,7 @@
       </c>
       <c r="V65" s="61"/>
       <c r="W65" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X65" s="94" t="str">
         <f>IF(OR(X63="",X64=""),"",(X63-X64)/X64)</f>
@@ -5869,7 +5871,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D66" s="92" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -5891,7 +5893,7 @@
       </c>
       <c r="O66" s="81"/>
       <c r="P66" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q66" s="82">
         <v>1</v>
@@ -5901,7 +5903,7 @@
         <v/>
       </c>
       <c r="S66" s="52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T66" s="93" t="str">
         <f>IF(T65="","",($Q$65*$Q$66*T65)/$Q$64)</f>
@@ -5913,7 +5915,7 @@
       </c>
       <c r="V66" s="61"/>
       <c r="W66" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X66" s="96" t="str">
         <f>IF(X65="","NA",IF(X65&lt;=0.15,"Pass","Fail"))</f>
@@ -5934,10 +5936,10 @@
       </c>
       <c r="O67" s="14"/>
       <c r="P67" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q67" s="99" t="s">
         <v>120</v>
-      </c>
-      <c r="Q67" s="99" t="s">
-        <v>121</v>
       </c>
       <c r="Y67" s="15"/>
       <c r="AA67" s="18"/>
@@ -5974,7 +5976,7 @@
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -5988,15 +5990,15 @@
       <c r="M69" s="6"/>
       <c r="O69" s="81"/>
       <c r="P69" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q69" s="82"/>
       <c r="S69" s="150" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T69" s="200"/>
       <c r="V69" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W69" s="200"/>
       <c r="Y69" s="84"/>
@@ -6017,7 +6019,7 @@
       </c>
       <c r="B70" s="11"/>
       <c r="D70" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E70" s="102" t="str">
         <f t="shared" ref="E70:E75" si="13">IF(Q61="","",Q61)</f>
@@ -6041,21 +6043,21 @@
       </c>
       <c r="B71" s="11"/>
       <c r="D71" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E71" s="102" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G71" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H71" s="103" t="str">
         <f>IF(X63="","",X63)</f>
         <v/>
       </c>
       <c r="J71" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K71" s="167" t="str">
         <f>IF(Q69="","",Q69)</f>
@@ -6088,7 +6090,7 @@
       </c>
       <c r="B72" s="11"/>
       <c r="D72" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E72" s="102" t="str">
         <f t="shared" si="13"/>
@@ -6096,7 +6098,7 @@
       </c>
       <c r="F72" s="52"/>
       <c r="G72" s="86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H72" s="104" t="str">
         <f>IF(X65="","",X65)</f>
@@ -6104,7 +6106,7 @@
       </c>
       <c r="I72" s="52"/>
       <c r="J72" s="150" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K72" s="202" t="str">
         <f>IF(T69="","",T69)</f>
@@ -6134,7 +6136,7 @@
       </c>
       <c r="B73" s="11"/>
       <c r="D73" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E73" s="102" t="str">
         <f t="shared" si="13"/>
@@ -6142,7 +6144,7 @@
       </c>
       <c r="F73" s="52"/>
       <c r="G73" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H73" s="108" t="str">
         <f>IF(X66="","",X66)</f>
@@ -6150,7 +6152,7 @@
       </c>
       <c r="I73" s="52"/>
       <c r="J73" s="150" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K73" s="202" t="str">
         <f>IF(W69="","",W69)</f>
@@ -6161,7 +6163,7 @@
         <v>2</v>
       </c>
       <c r="P73" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y73" s="15"/>
       <c r="AA73" s="18"/>
@@ -6181,7 +6183,7 @@
       </c>
       <c r="B74" s="11"/>
       <c r="D74" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E74" s="102">
         <f t="shared" si="13"/>
@@ -6214,7 +6216,7 @@
       </c>
       <c r="B75" s="11"/>
       <c r="D75" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E75" s="102">
         <f t="shared" si="13"/>
@@ -6222,10 +6224,10 @@
       </c>
       <c r="F75" s="52"/>
       <c r="G75" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="H75" s="99" t="s">
         <v>120</v>
-      </c>
-      <c r="H75" s="99" t="s">
-        <v>121</v>
       </c>
       <c r="I75" s="52"/>
       <c r="J75" s="52"/>
@@ -6234,17 +6236,17 @@
         <v>57</v>
       </c>
       <c r="P75" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q75" s="105" t="s">
         <v>123</v>
-      </c>
-      <c r="Q75" s="105" t="s">
-        <v>124</v>
       </c>
       <c r="R75" s="107" t="s">
         <v>59</v>
       </c>
       <c r="S75" s="189"/>
       <c r="T75" s="180" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U75" s="189"/>
       <c r="V75" s="189"/>
@@ -6286,16 +6288,16 @@
       <c r="R76" s="112"/>
       <c r="S76" s="189"/>
       <c r="T76" s="190" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U76" s="190" t="s">
+        <v>125</v>
+      </c>
+      <c r="V76" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="V76" s="190" t="s">
+      <c r="W76" s="190" t="s">
         <v>127</v>
-      </c>
-      <c r="W76" s="190" t="s">
-        <v>128</v>
       </c>
       <c r="X76" s="113" t="s">
         <v>23</v>
@@ -6365,7 +6367,7 @@
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D78" s="124" t="str">
         <f>IF(O76="","",O76)</f>
@@ -6455,7 +6457,7 @@
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>59</v>
@@ -6465,7 +6467,7 @@
       </c>
       <c r="F80" s="52"/>
       <c r="G80" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H80" s="125" t="e">
         <f>X77</f>
@@ -6492,10 +6494,10 @@
         <v/>
       </c>
       <c r="W80" s="189" t="s">
+        <v>128</v>
+      </c>
+      <c r="X80" s="189" t="s">
         <v>129</v>
-      </c>
-      <c r="X80" s="189" t="s">
-        <v>130</v>
       </c>
       <c r="Y80" s="84"/>
       <c r="AA80" s="18"/>
@@ -6521,7 +6523,7 @@
       </c>
       <c r="F81" s="52"/>
       <c r="G81" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H81" s="127" t="e">
         <f>X84</f>
@@ -6642,7 +6644,7 @@
       </c>
       <c r="F83" s="52"/>
       <c r="H83" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J83" s="52"/>
       <c r="M83" s="13"/>
@@ -6711,12 +6713,12 @@
       <c r="R84" s="112"/>
       <c r="S84" s="189"/>
       <c r="T84" s="190" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U84" s="190"/>
       <c r="V84" s="189"/>
       <c r="W84" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X84" s="128" t="e">
         <f>IF(X77&gt;=U85,"YES","NO")</f>
@@ -6764,7 +6766,7 @@
       <c r="R85" s="116"/>
       <c r="S85" s="189"/>
       <c r="T85" s="190" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U85" s="190" t="e">
         <f>IF($O$73=1,IF(O76&lt;=75,MIN(ROUND(TREND(AH14:AH16,AG14:AG16,O76, ),1),TRUNC(TREND(AH14:AH16,AG14:AG16,O76),2)),MIN(ROUND(TREND(AH17:AH25,AG17:AG25,O76),1),TRUNC(TREND(AH17:AH25,AG17:AG25,O76),2))),MIN(ROUND(TREND(AL11:AL13,AJ11:AJ13,O76),1),TRUNC(TREND(AL14:AL18,AJ14:AJ18,O76),2)))</f>
@@ -6804,7 +6806,7 @@
       </c>
       <c r="F86" s="52"/>
       <c r="G86" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H86" s="19" t="str">
         <f>IF(O73=1,"DHEC Standard","MUSC Standard")</f>
@@ -6818,7 +6820,7 @@
       <c r="R86" s="112"/>
       <c r="S86" s="189"/>
       <c r="T86" s="190" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U86" s="190" t="e">
         <f>IF($O$73=1,"",ROUND(AVERAGE(ROUND(TREND(AK11:AK18,AJ11:AJ18,O76),2),TRUNC(TREND(AK11:AK18,AJ11:AJ18,O76),2)),1))</f>
@@ -6859,7 +6861,7 @@
       <c r="R87" s="116"/>
       <c r="S87" s="189"/>
       <c r="T87" s="190" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U87" s="190" t="e">
         <f>IF($O$73=1,"",MAX(ROUND(TREND(AM11:AM18,AJ11:AJ18,O76),1),TRUNC(TREND(AM11:AM18,AJ11:AJ18,O76),2)))</f>
@@ -6924,7 +6926,7 @@
       <c r="L89" s="74"/>
       <c r="M89" s="13"/>
       <c r="O89" s="152" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P89" s="62"/>
       <c r="Q89" s="151"/>
@@ -6955,24 +6957,24 @@
       <c r="C90" s="135"/>
       <c r="M90" s="13"/>
       <c r="O90" s="157" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P90" s="133">
         <v>80</v>
       </c>
       <c r="Q90" s="150"/>
       <c r="R90" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S90" s="82"/>
       <c r="T90" s="189"/>
       <c r="U90" s="150" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V90" s="200"/>
       <c r="W90" s="189"/>
       <c r="X90" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y90" s="201"/>
       <c r="AA90" s="18"/>
@@ -7026,26 +7028,26 @@
       <c r="M92" s="13"/>
       <c r="O92" s="81"/>
       <c r="P92" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q92" s="190" t="s">
+        <v>122</v>
+      </c>
+      <c r="R92" s="190" t="s">
         <v>141</v>
       </c>
-      <c r="Q92" s="190" t="s">
-        <v>123</v>
-      </c>
-      <c r="R92" s="190" t="s">
+      <c r="S92" s="190" t="s">
         <v>142</v>
-      </c>
-      <c r="S92" s="190" t="s">
-        <v>143</v>
       </c>
       <c r="T92" s="190" t="s">
         <v>59</v>
       </c>
       <c r="U92" s="190" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V92" s="68"/>
       <c r="W92" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X92" s="134" t="str">
         <f>IF(U93="","",AVERAGE(U93:U96))</f>
@@ -7097,7 +7099,7 @@
       </c>
       <c r="V93" s="68"/>
       <c r="W93" s="150" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X93" s="138" t="str">
         <f>IF(OR(U93="",U94=""),"",(MAX(U93:U96)-MIN(U93:U96))/(MAX(U93:U96)+MIN(U93:U96)))</f>
@@ -7123,7 +7125,7 @@
       <c r="L94" s="74"/>
       <c r="M94" s="13"/>
       <c r="O94" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P94" s="190" t="str">
         <f>IF(AH36="","",AH36)</f>
@@ -7151,7 +7153,7 @@
       </c>
       <c r="V94" s="68"/>
       <c r="W94" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X94" s="139" t="str">
         <f>IF(AB52="","",AB52)</f>
@@ -7203,7 +7205,7 @@
       </c>
       <c r="V95" s="68"/>
       <c r="W95" s="150" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X95" s="141" t="str">
         <f>IF(X93="","",IF(X93&gt;0.1,"NO","YES"))</f>
@@ -7211,7 +7213,7 @@
       </c>
       <c r="Y95" s="84"/>
       <c r="AA95" s="68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB95" s="68"/>
       <c r="AC95" s="68"/>
@@ -7261,7 +7263,7 @@
       <c r="X96" s="68"/>
       <c r="Y96" s="84"/>
       <c r="AA96" s="68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB96" s="68">
         <v>18</v>
@@ -7288,10 +7290,10 @@
       <c r="M97" s="13"/>
       <c r="O97" s="144"/>
       <c r="P97" s="145" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q97" s="146" t="s">
         <v>148</v>
-      </c>
-      <c r="Q97" s="146" t="s">
-        <v>149</v>
       </c>
       <c r="R97" s="68"/>
       <c r="S97" s="68"/>
@@ -7324,7 +7326,7 @@
       <c r="O98" s="144"/>
       <c r="P98" s="148"/>
       <c r="Q98" s="149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R98" s="68"/>
       <c r="S98" s="68"/>
@@ -7356,7 +7358,7 @@
       <c r="O99" s="144"/>
       <c r="P99" s="148"/>
       <c r="Q99" s="149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R99" s="68"/>
       <c r="S99" s="68"/>
@@ -7406,7 +7408,7 @@
       <c r="B101" s="11"/>
       <c r="M101" s="13"/>
       <c r="O101" s="152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P101" s="68"/>
       <c r="Q101" s="68"/>
@@ -7435,15 +7437,15 @@
         <v>57</v>
       </c>
       <c r="Q102" s="190" t="s">
-        <v>123</v>
-      </c>
-      <c r="R102" s="208" t="s">
-        <v>155</v>
-      </c>
-      <c r="S102" s="209"/>
+        <v>122</v>
+      </c>
+      <c r="R102" s="220" t="s">
+        <v>154</v>
+      </c>
+      <c r="S102" s="221"/>
       <c r="T102" s="190"/>
       <c r="U102" s="190" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V102" s="68"/>
       <c r="W102" s="68"/>
@@ -7707,7 +7709,7 @@
         <v>43</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="E109" s="211"/>
+      <c r="E109" s="218"/>
       <c r="F109" s="52"/>
       <c r="G109" s="52"/>
       <c r="H109" s="52"/>
@@ -7752,7 +7754,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="11"/>
-      <c r="E110" s="211"/>
+      <c r="E110" s="218"/>
       <c r="F110" s="52"/>
       <c r="G110" s="52"/>
       <c r="H110" s="52"/>
@@ -7797,7 +7799,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="E111" s="211"/>
+      <c r="E111" s="218"/>
       <c r="F111" s="52"/>
       <c r="G111" s="52"/>
       <c r="H111" s="52"/>
@@ -7875,7 +7877,7 @@
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E113" s="18"/>
       <c r="F113" s="74"/>
@@ -7886,7 +7888,7 @@
       <c r="O113" s="144"/>
       <c r="P113" s="68"/>
       <c r="Q113" s="181" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R113" s="159" t="str">
         <f>IF(R106="","",AVERAGE(R106:R110))</f>
@@ -7897,7 +7899,7 @@
         <v/>
       </c>
       <c r="T113" s="182" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U113" s="183" t="str">
         <f>IF(U104="","",IF(AND(ABS(MAX(U104,U105,U106,U111))&lt;=0.05,ABS(MIN(U104,U105,U106,U111))&lt;=0.05),"YES","NO"))</f>
@@ -7918,32 +7920,32 @@
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D114" s="124">
         <f>IF(P90="","",P90)</f>
         <v>80</v>
       </c>
       <c r="F114" s="26"/>
-      <c r="G114" s="212" t="s">
+      <c r="G114" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="H114" s="212" t="s">
-        <v>123</v>
-      </c>
-      <c r="I114" s="212" t="s">
+      <c r="H114" s="219" t="s">
+        <v>122</v>
+      </c>
+      <c r="I114" s="219" t="s">
+        <v>154</v>
+      </c>
+      <c r="J114" s="219"/>
+      <c r="K114" s="219"/>
+      <c r="L114" s="219" t="s">
         <v>155</v>
-      </c>
-      <c r="J114" s="212"/>
-      <c r="K114" s="212"/>
-      <c r="L114" s="212" t="s">
-        <v>156</v>
       </c>
       <c r="M114" s="13"/>
       <c r="O114" s="144"/>
       <c r="P114" s="68"/>
       <c r="Q114" s="181" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R114" s="159" t="str">
         <f>IF(R106="","",STDEV(R106:R110))</f>
@@ -7970,19 +7972,19 @@
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E115" s="96" t="s">
         <v>59</v>
       </c>
       <c r="F115" s="184" t="s">
-        <v>144</v>
-      </c>
-      <c r="G115" s="212"/>
-      <c r="H115" s="212"/>
+        <v>143</v>
+      </c>
+      <c r="G115" s="219"/>
+      <c r="H115" s="219"/>
       <c r="I115" s="159" t="s">
         <v>57</v>
       </c>
@@ -7992,12 +7994,12 @@
       <c r="K115" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="L115" s="212"/>
+      <c r="L115" s="219"/>
       <c r="M115" s="13"/>
       <c r="O115" s="144"/>
       <c r="P115" s="68"/>
       <c r="Q115" s="181" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R115" s="162" t="str">
         <f>IF(OR(R113="",R114=""),"",R114/R113)</f>
@@ -8189,7 +8191,7 @@
       </c>
       <c r="M118" s="13"/>
       <c r="O118" s="152" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P118" s="189"/>
       <c r="Q118" s="189"/>
@@ -8254,13 +8256,13 @@
       <c r="M119" s="13"/>
       <c r="O119" s="81"/>
       <c r="P119" s="189" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q119" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="Q119" s="189" t="s">
+      <c r="R119" s="151" t="s">
         <v>163</v>
-      </c>
-      <c r="R119" s="151" t="s">
-        <v>164</v>
       </c>
       <c r="S119" s="189"/>
       <c r="T119" s="189"/>
@@ -8282,7 +8284,7 @@
       <c r="C120" s="68"/>
       <c r="D120" s="68"/>
       <c r="E120" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F120" s="137" t="str">
         <f>IF(X92="","",X92)</f>
@@ -8290,7 +8292,7 @@
       </c>
       <c r="G120" s="68"/>
       <c r="H120" s="161" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I120" s="186" t="str">
         <f t="shared" ref="I120:J122" si="23">R113</f>
@@ -8301,7 +8303,7 @@
         <v/>
       </c>
       <c r="K120" s="160" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L120" s="40" t="str">
         <f>U113</f>
@@ -8319,10 +8321,10 @@
         <v/>
       </c>
       <c r="S120" s="145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T120" s="158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U120" s="189"/>
       <c r="V120" s="189"/>
@@ -8342,7 +8344,7 @@
       <c r="C121" s="68"/>
       <c r="D121" s="68"/>
       <c r="E121" s="86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F121" s="94" t="str">
         <f>IF(X93="","",X93)</f>
@@ -8350,7 +8352,7 @@
       </c>
       <c r="G121" s="68"/>
       <c r="H121" s="161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I121" s="159" t="str">
         <f t="shared" si="23"/>
@@ -8385,7 +8387,7 @@
       <c r="C122" s="68"/>
       <c r="D122" s="68"/>
       <c r="E122" s="86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F122" s="96" t="str">
         <f>IF(X95="","",X95)</f>
@@ -8393,7 +8395,7 @@
       </c>
       <c r="G122" s="68"/>
       <c r="H122" s="161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I122" s="162" t="str">
         <f t="shared" si="23"/>
@@ -8461,10 +8463,10 @@
       <c r="F124" s="68"/>
       <c r="G124" s="68"/>
       <c r="H124" s="168" t="s">
+        <v>147</v>
+      </c>
+      <c r="I124" s="198" t="s">
         <v>148</v>
-      </c>
-      <c r="I124" s="198" t="s">
-        <v>149</v>
       </c>
       <c r="J124" s="68"/>
       <c r="M124" s="13"/>
@@ -8474,7 +8476,7 @@
       <c r="R124" s="189"/>
       <c r="S124" s="189"/>
       <c r="T124" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U124" s="189"/>
       <c r="V124" s="189"/>
@@ -8498,7 +8500,7 @@
       <c r="G125" s="68"/>
       <c r="H125" s="68"/>
       <c r="I125" s="199" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J125" s="68"/>
       <c r="M125" s="13"/>
@@ -8507,7 +8509,7 @@
       <c r="Q125" s="191"/>
       <c r="R125" s="191"/>
       <c r="S125" s="163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T125" s="191"/>
       <c r="U125" s="191"/>
@@ -8526,16 +8528,16 @@
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H126" s="68"/>
       <c r="I126" s="199" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M126" s="13"/>
       <c r="O126" s="81"/>
       <c r="P126" s="62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q126" s="164"/>
       <c r="R126" s="165"/>
@@ -8560,7 +8562,7 @@
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D127" s="124" t="str">
         <f>IF(P120="","",P120)</f>
@@ -8572,7 +8574,7 @@
       <c r="M127" s="13"/>
       <c r="O127" s="81"/>
       <c r="P127" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q127" s="192"/>
       <c r="R127" s="170">
@@ -8582,7 +8584,7 @@
       <c r="S127" s="171"/>
       <c r="T127" s="171"/>
       <c r="U127" s="172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V127" s="171"/>
       <c r="W127" s="171"/>
@@ -8599,28 +8601,28 @@
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D128" s="96" t="str">
         <f>IF(Q120="","",Q120)</f>
         <v/>
       </c>
       <c r="F128" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G128" s="167" t="str">
         <f>IF(S90="","",S90)</f>
         <v/>
       </c>
       <c r="I128" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J128" s="203" t="str">
         <f>IF(V90="","",V90)</f>
         <v/>
       </c>
       <c r="L128" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M128" s="204" t="str">
         <f>IF(Y90="","",Y90)</f>
@@ -8628,7 +8630,7 @@
       </c>
       <c r="O128" s="81"/>
       <c r="P128" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q128" s="164"/>
       <c r="R128" s="165"/>
@@ -8653,17 +8655,17 @@
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D129" s="158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I129" s="68"/>
       <c r="J129" s="68"/>
       <c r="M129" s="13"/>
       <c r="O129" s="81"/>
       <c r="P129" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q129" s="192"/>
       <c r="R129" s="170">
@@ -8673,7 +8675,7 @@
       <c r="S129" s="171"/>
       <c r="T129" s="171"/>
       <c r="U129" s="172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V129" s="171"/>
       <c r="W129" s="171"/>
@@ -8702,7 +8704,7 @@
       <c r="M130" s="22"/>
       <c r="O130" s="81"/>
       <c r="P130" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q130" s="164"/>
       <c r="R130" s="165"/>
@@ -8748,7 +8750,7 @@
       </c>
       <c r="O131" s="81"/>
       <c r="P131" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q131" s="192"/>
       <c r="R131" s="170">
@@ -8758,7 +8760,7 @@
       <c r="S131" s="171"/>
       <c r="T131" s="171"/>
       <c r="U131" s="172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V131" s="171"/>
       <c r="W131" s="171"/>
@@ -8774,7 +8776,7 @@
         <v>66</v>
       </c>
       <c r="C132" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D132" s="92" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -8796,7 +8798,7 @@
       </c>
       <c r="O132" s="81"/>
       <c r="P132" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q132" s="164"/>
       <c r="R132" s="165"/>
@@ -8825,7 +8827,7 @@
       </c>
       <c r="O133" s="81"/>
       <c r="P133" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q133" s="192"/>
       <c r="R133" s="170">
@@ -8835,7 +8837,7 @@
       <c r="S133" s="171"/>
       <c r="T133" s="171"/>
       <c r="U133" s="172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V133" s="171"/>
       <c r="W133" s="171"/>
@@ -8851,7 +8853,7 @@
         <v>2</v>
       </c>
       <c r="H134" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M134" s="26" t="str">
         <f>$H$5</f>
@@ -8859,7 +8861,7 @@
       </c>
       <c r="O134" s="81"/>
       <c r="P134" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q134" s="164"/>
       <c r="R134" s="165"/>
@@ -8896,7 +8898,7 @@
       <c r="M135" s="6"/>
       <c r="O135" s="81"/>
       <c r="P135" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q135" s="192"/>
       <c r="R135" s="170">
@@ -8906,7 +8908,7 @@
       <c r="S135" s="171"/>
       <c r="T135" s="171"/>
       <c r="U135" s="172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V135" s="171"/>
       <c r="W135" s="171"/>
@@ -8937,7 +8939,7 @@
       <c r="M136" s="13"/>
       <c r="O136" s="81"/>
       <c r="P136" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q136" s="164"/>
       <c r="R136" s="165"/>
@@ -8976,7 +8978,7 @@
       <c r="M137" s="13"/>
       <c r="O137" s="81"/>
       <c r="P137" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q137" s="192"/>
       <c r="R137" s="170">
@@ -9011,7 +9013,7 @@
       <c r="M138" s="13"/>
       <c r="O138" s="81"/>
       <c r="P138" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q138" s="164"/>
       <c r="R138" s="165"/>
@@ -9046,7 +9048,7 @@
       <c r="M139" s="13"/>
       <c r="O139" s="81"/>
       <c r="P139" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q139" s="192"/>
       <c r="R139" s="170">
@@ -9081,7 +9083,7 @@
       <c r="M140" s="13"/>
       <c r="O140" s="81"/>
       <c r="P140" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q140" s="164"/>
       <c r="R140" s="165"/>
@@ -9116,7 +9118,7 @@
       <c r="M141" s="13"/>
       <c r="O141" s="81"/>
       <c r="P141" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q141" s="192"/>
       <c r="R141" s="170">
@@ -9130,20 +9132,20 @@
       <c r="W141" s="171"/>
       <c r="X141" s="171"/>
       <c r="Y141" s="84"/>
-      <c r="AA141" s="210"/>
-      <c r="AB141" s="210"/>
-      <c r="AC141" s="210"/>
-      <c r="AD141" s="210"/>
-      <c r="AE141" s="210"/>
-      <c r="AF141" s="210"/>
-      <c r="AG141" s="210"/>
-      <c r="AH141" s="210"/>
-      <c r="AI141" s="210"/>
-      <c r="AJ141" s="210"/>
-      <c r="AK141" s="210"/>
-      <c r="AL141" s="210"/>
-      <c r="AM141" s="210"/>
-      <c r="AN141" s="210"/>
+      <c r="AA141" s="222"/>
+      <c r="AB141" s="222"/>
+      <c r="AC141" s="222"/>
+      <c r="AD141" s="222"/>
+      <c r="AE141" s="222"/>
+      <c r="AF141" s="222"/>
+      <c r="AG141" s="222"/>
+      <c r="AH141" s="222"/>
+      <c r="AI141" s="222"/>
+      <c r="AJ141" s="222"/>
+      <c r="AK141" s="222"/>
+      <c r="AL141" s="222"/>
+      <c r="AM141" s="222"/>
+      <c r="AN141" s="222"/>
     </row>
     <row r="142" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
@@ -9165,7 +9167,7 @@
       <c r="M142" s="13"/>
       <c r="O142" s="81"/>
       <c r="P142" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q142" s="164"/>
       <c r="R142" s="165"/>
@@ -9179,10 +9181,10 @@
       <c r="W142" s="189"/>
       <c r="X142" s="167"/>
       <c r="Y142" s="84"/>
-      <c r="AA142" s="210"/>
-      <c r="AE142" s="210"/>
-      <c r="AI142" s="210"/>
-      <c r="AL142" s="210"/>
+      <c r="AA142" s="222"/>
+      <c r="AE142" s="222"/>
+      <c r="AI142" s="222"/>
+      <c r="AL142" s="222"/>
     </row>
     <row r="143" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
@@ -9204,7 +9206,7 @@
       <c r="M143" s="13"/>
       <c r="O143" s="81"/>
       <c r="P143" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q143" s="192"/>
       <c r="R143" s="170">
@@ -9247,7 +9249,7 @@
       <c r="M144" s="13"/>
       <c r="O144" s="81"/>
       <c r="P144" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q144" s="164"/>
       <c r="R144" s="165"/>
@@ -9290,7 +9292,7 @@
       <c r="M145" s="13"/>
       <c r="O145" s="81"/>
       <c r="P145" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q145" s="192"/>
       <c r="R145" s="170">
@@ -9333,7 +9335,7 @@
       <c r="M146" s="13"/>
       <c r="O146" s="81"/>
       <c r="P146" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q146" s="164"/>
       <c r="R146" s="165"/>
@@ -9376,7 +9378,7 @@
       <c r="M147" s="13"/>
       <c r="O147" s="81"/>
       <c r="P147" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q147" s="192"/>
       <c r="R147" s="170">
@@ -9419,7 +9421,7 @@
       <c r="M148" s="13"/>
       <c r="O148" s="81"/>
       <c r="P148" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q148" s="164"/>
       <c r="R148" s="165"/>
@@ -9462,7 +9464,7 @@
       <c r="M149" s="13"/>
       <c r="O149" s="81"/>
       <c r="P149" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q149" s="192"/>
       <c r="R149" s="170">
@@ -9505,7 +9507,7 @@
       <c r="M150" s="13"/>
       <c r="O150" s="81"/>
       <c r="P150" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q150" s="164"/>
       <c r="R150" s="165"/>
@@ -9544,7 +9546,7 @@
       <c r="M151" s="13"/>
       <c r="O151" s="81"/>
       <c r="P151" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q151" s="192"/>
       <c r="R151" s="170">
@@ -9583,7 +9585,7 @@
       <c r="M152" s="13"/>
       <c r="O152" s="81"/>
       <c r="P152" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q152" s="164"/>
       <c r="R152" s="165"/>
@@ -9622,7 +9624,7 @@
       <c r="M153" s="13"/>
       <c r="O153" s="81"/>
       <c r="P153" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q153" s="192"/>
       <c r="R153" s="170">
@@ -9661,7 +9663,7 @@
       <c r="M154" s="13"/>
       <c r="O154" s="81"/>
       <c r="P154" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q154" s="164"/>
       <c r="R154" s="165"/>
@@ -9698,7 +9700,7 @@
       <c r="M155" s="13"/>
       <c r="O155" s="81"/>
       <c r="P155" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q155" s="192"/>
       <c r="R155" s="170">
@@ -9735,7 +9737,7 @@
       <c r="M156" s="13"/>
       <c r="O156" s="81"/>
       <c r="P156" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q156" s="164"/>
       <c r="R156" s="165"/>
@@ -9772,7 +9774,7 @@
       <c r="M157" s="13"/>
       <c r="O157" s="81"/>
       <c r="P157" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q157" s="192"/>
       <c r="R157" s="170">
@@ -9809,7 +9811,7 @@
       <c r="M158" s="13"/>
       <c r="O158" s="81"/>
       <c r="P158" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q158" s="164"/>
       <c r="R158" s="165"/>
@@ -9846,7 +9848,7 @@
       <c r="M159" s="13"/>
       <c r="O159" s="81"/>
       <c r="P159" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q159" s="192"/>
       <c r="R159" s="170">
@@ -9881,7 +9883,7 @@
       <c r="M160" s="13"/>
       <c r="O160" s="81"/>
       <c r="P160" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q160" s="164"/>
       <c r="R160" s="165"/>
@@ -9916,7 +9918,7 @@
       <c r="M161" s="13"/>
       <c r="O161" s="81"/>
       <c r="P161" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q161" s="192"/>
       <c r="R161" s="170">
@@ -9951,7 +9953,7 @@
       <c r="M162" s="13"/>
       <c r="O162" s="81"/>
       <c r="P162" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q162" s="164"/>
       <c r="R162" s="165"/>
@@ -9986,7 +9988,7 @@
       <c r="M163" s="13"/>
       <c r="O163" s="81"/>
       <c r="P163" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q163" s="171"/>
       <c r="R163" s="170">
@@ -10200,10 +10202,10 @@
       <c r="L170" s="176"/>
       <c r="M170" s="13"/>
       <c r="O170" s="52"/>
-      <c r="P170" s="210"/>
-      <c r="Q170" s="210"/>
-      <c r="R170" s="210"/>
-      <c r="S170" s="210"/>
+      <c r="P170" s="222"/>
+      <c r="Q170" s="222"/>
+      <c r="R170" s="222"/>
+      <c r="S170" s="222"/>
       <c r="T170" s="61"/>
       <c r="U170" s="61"/>
       <c r="V170" s="61"/>
@@ -10984,7 +10986,7 @@
         <v>66</v>
       </c>
       <c r="C198" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D198" s="92" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -11020,41 +11022,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="I114:K114"/>
-    <mergeCell ref="L114:L115"/>
     <mergeCell ref="R102:S102"/>
     <mergeCell ref="AJ141:AK141"/>
     <mergeCell ref="AL141:AL142"/>
@@ -11066,6 +11033,41 @@
     <mergeCell ref="AE141:AE142"/>
     <mergeCell ref="AF141:AH141"/>
     <mergeCell ref="AI141:AI142"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <conditionalFormatting sqref="L33:L38 L41:L53">
     <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">

--- a/MUSCDentalCT.xlsx
+++ b/MUSCDentalCT.xlsx
@@ -16,9 +16,12 @@
   </sheets>
   <definedNames>
     <definedName name="ALUM" localSheetId="0">#REF!</definedName>
+    <definedName name="CommPage">Sheet1!$B$133:$M$198</definedName>
     <definedName name="CTReport" localSheetId="0">#REF!</definedName>
     <definedName name="HVL" localSheetId="0">#REF!</definedName>
     <definedName name="LNEXP" localSheetId="0">#REF!</definedName>
+    <definedName name="Page1">Sheet1!$B$1:$M$66</definedName>
+    <definedName name="Page2">Sheet1!$B$67:$M$132</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$M$198</definedName>
     <definedName name="Z_B3B53441_1E98_4F76_BE9D_5905F2DE3FE8_.wvu.PrintArea" localSheetId="0" hidden="1">Sheet1!$B$1:$M$198</definedName>
   </definedNames>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="183">
   <si>
     <t>Print Area</t>
   </si>
@@ -48,18 +51,12 @@
     <t>Medical University of South Carolina</t>
   </si>
   <si>
-    <t>Page1</t>
-  </si>
-  <si>
     <t>Charleston, South Carolina</t>
   </si>
   <si>
     <t>All:</t>
   </si>
   <si>
-    <t>Page1,HVLPage,ExpChart,ImgQuality,Compg1,Compg2,OutputGraphFl,OutputGraphDig,LeedsTO10</t>
-  </si>
-  <si>
     <t>Dental CT System Compliance Inspection</t>
   </si>
   <si>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>DHEC form SC-RHA-20 “Notice to Employees” posted or referenced</t>
+  </si>
+  <si>
+    <t>Page1,Page2,CommPage</t>
   </si>
 </sst>
 </file>
@@ -2212,9 +2212,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2261,6 +2258,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3159,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3189,7 +3189,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="6"/>
       <c r="O1" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="Y2" s="15"/>
       <c r="AA2" s="16" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" s="13"/>
       <c r="O3" s="14"/>
       <c r="T3" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="15"/>
       <c r="AA3" s="17" t="str">
@@ -3251,10 +3251,10 @@
       <c r="O4" s="14"/>
       <c r="Y4" s="15"/>
       <c r="AA4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="19" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AB4" s="180" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3269,7 +3269,7 @@
       <c r="M5" s="13"/>
       <c r="O5" s="14"/>
       <c r="T5" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y5" s="15"/>
     </row>
@@ -3301,13 +3301,13 @@
       <c r="X6" s="24"/>
       <c r="Y6" s="25"/>
       <c r="AA6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3315,18 +3315,18 @@
         <v>7</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P7" s="193"/>
       <c r="W7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X7" s="27" t="str">
         <f>IF(Y7&lt;&gt;"",Y7,IF(AB9="","",AB9))</f>
         <v>Eugene Mah</v>
       </c>
       <c r="Y7" s="28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA7" s="18" t="s">
         <v>0</v>
@@ -3338,10 +3338,10 @@
       </c>
       <c r="AD7" s="30" t="str">
         <f>IF(OR(AA2="",AA2=0),"",AA2)</f>
-        <v>Page1</v>
+        <v>Page1,Page2,CommPage</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3349,17 +3349,17 @@
         <v>8</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P8" s="194" t="str">
         <f>IF(AB8="","",AB8)</f>
         <v/>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB8" s="195"/>
       <c r="AC8" s="29" t="str">
@@ -3370,16 +3370,16 @@
         <f>IF(P7="","",P7)</f>
         <v/>
       </c>
-      <c r="AG8" s="208" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH8" s="208"/>
-      <c r="AJ8" s="209" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK8" s="209"/>
-      <c r="AL8" s="209"/>
-      <c r="AM8" s="209"/>
+      <c r="AG8" s="207" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH8" s="207"/>
+      <c r="AJ8" s="208" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK8" s="208"/>
+      <c r="AL8" s="208"/>
+      <c r="AM8" s="208"/>
     </row>
     <row r="9" spans="1:39" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -3388,7 +3388,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -3401,23 +3401,23 @@
       <c r="M9" s="6"/>
       <c r="O9" s="33"/>
       <c r="P9" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
       <c r="AA9" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB9" s="83"/>
       <c r="AC9" s="29" t="str">
@@ -3430,17 +3430,17 @@
       </c>
       <c r="AG9" s="37"/>
       <c r="AH9" s="38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ9" s="39"/>
       <c r="AK9" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM9" s="41" t="s">
         <v>22</v>
-      </c>
-      <c r="AM9" s="41" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3449,25 +3449,25 @@
       </c>
       <c r="B10" s="11"/>
       <c r="E10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="210" t="str">
+        <v>23</v>
+      </c>
+      <c r="F10" s="209" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="210"/>
+      <c r="G10" s="209"/>
       <c r="J10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="210" t="str">
+        <v>24</v>
+      </c>
+      <c r="K10" s="209" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="210"/>
+      <c r="L10" s="209"/>
       <c r="M10" s="13"/>
       <c r="O10" s="14"/>
       <c r="Q10" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R10" s="42" t="str">
         <f>IF(S10&lt;&gt;"",S10,IF(AB10="","",AB10))</f>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="S10" s="43"/>
       <c r="U10" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V10" s="42" t="str">
         <f>IF(W10&lt;&gt;"",W10,IF(AB15="","",AB15))</f>
@@ -3484,7 +3484,7 @@
       <c r="W10" s="43"/>
       <c r="Y10" s="15"/>
       <c r="AA10" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB10" s="83"/>
       <c r="AC10" s="29" t="str">
@@ -3496,22 +3496,22 @@
         <v/>
       </c>
       <c r="AG10" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH10" s="38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ10" s="39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK10" s="40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL10" s="40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM10" s="41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3520,25 +3520,25 @@
       </c>
       <c r="B11" s="11"/>
       <c r="E11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="211" t="str">
+        <v>27</v>
+      </c>
+      <c r="F11" s="210" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="211"/>
+      <c r="G11" s="210"/>
       <c r="J11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="210" t="str">
+        <v>28</v>
+      </c>
+      <c r="K11" s="209" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="210"/>
+      <c r="L11" s="209"/>
       <c r="M11" s="13"/>
       <c r="O11" s="14"/>
       <c r="Q11" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R11" s="42" t="str">
         <f>IF(S11&lt;&gt;"",S11,IF(AB11="","",AB11))</f>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="S11" s="43"/>
       <c r="U11" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V11" s="42" t="str">
         <f>IF(W11&lt;&gt;"",W11,IF(AB16="","",AB16))</f>
@@ -3555,7 +3555,7 @@
       <c r="W11" s="43"/>
       <c r="Y11" s="15"/>
       <c r="AA11" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB11" s="83"/>
       <c r="AC11" s="29" t="str">
@@ -3593,25 +3593,25 @@
       </c>
       <c r="B12" s="11"/>
       <c r="E12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="211" t="str">
+        <v>29</v>
+      </c>
+      <c r="F12" s="210" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="211"/>
+      <c r="G12" s="210"/>
       <c r="J12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="212" t="str">
+        <v>30</v>
+      </c>
+      <c r="K12" s="211" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="212"/>
+      <c r="L12" s="211"/>
       <c r="M12" s="13"/>
       <c r="O12" s="14"/>
       <c r="Q12" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R12" s="42" t="str">
         <f>IF(S12&lt;&gt;"",S12,IF(AB12="","",AB12))</f>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="S12" s="43"/>
       <c r="U12" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V12" s="48" t="str">
         <f>IF(W12&lt;&gt;"",W12,IF(AB17="","",AB17))</f>
@@ -3628,7 +3628,7 @@
       <c r="W12" s="49"/>
       <c r="Y12" s="15"/>
       <c r="AA12" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AB12" s="83"/>
       <c r="AC12" s="29" t="str">
@@ -3666,25 +3666,25 @@
       </c>
       <c r="B13" s="11"/>
       <c r="E13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="213" t="str">
+        <v>31</v>
+      </c>
+      <c r="F13" s="212" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="213"/>
+      <c r="G13" s="212"/>
       <c r="J13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="210" t="str">
+        <v>32</v>
+      </c>
+      <c r="K13" s="209" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="210"/>
+      <c r="L13" s="209"/>
       <c r="M13" s="13"/>
       <c r="O13" s="14"/>
       <c r="Q13" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R13" s="50" t="str">
         <f>IF(S13&lt;&gt;"",S13,IF(AB13="","",AB13))</f>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="S13" s="51"/>
       <c r="U13" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V13" s="42" t="str">
         <f>IF(W13&lt;&gt;"",W13,IF(AB18="","",AB18))</f>
@@ -3701,7 +3701,7 @@
       <c r="W13" s="43"/>
       <c r="Y13" s="15"/>
       <c r="AA13" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB13" s="83"/>
       <c r="AC13" s="29" t="str">
@@ -3742,7 +3742,7 @@
       <c r="M14" s="13"/>
       <c r="O14" s="14"/>
       <c r="Q14" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R14" s="42" t="str">
         <f>IF(S14&lt;&gt;"",S14,IF(AB14="","",AB14))</f>
@@ -3754,7 +3754,7 @@
       <c r="W14" s="53"/>
       <c r="Y14" s="15"/>
       <c r="AA14" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB14" s="83"/>
       <c r="AC14" s="29" t="str">
@@ -3792,13 +3792,13 @@
       </c>
       <c r="B15" s="11"/>
       <c r="D15" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="13"/>
       <c r="O15" s="14"/>
       <c r="Y15" s="15"/>
       <c r="AA15" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB15" s="83"/>
       <c r="AC15" s="29" t="str">
@@ -3836,29 +3836,29 @@
       </c>
       <c r="B16" s="11"/>
       <c r="E16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="214" t="str">
+        <v>35</v>
+      </c>
+      <c r="F16" s="213" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="214"/>
+      <c r="G16" s="213"/>
       <c r="J16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="212" t="str">
+        <v>36</v>
+      </c>
+      <c r="K16" s="211" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="212"/>
+      <c r="L16" s="211"/>
       <c r="M16" s="13"/>
       <c r="O16" s="14"/>
       <c r="P16" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y16" s="15"/>
       <c r="AA16" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB16" s="83"/>
       <c r="AC16" s="29" t="str">
@@ -3896,25 +3896,25 @@
       </c>
       <c r="B17" s="11"/>
       <c r="E17" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="213" t="str">
+        <v>37</v>
+      </c>
+      <c r="F17" s="212" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="213"/>
+      <c r="G17" s="212"/>
       <c r="J17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="210" t="str">
+        <v>38</v>
+      </c>
+      <c r="K17" s="209" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="210"/>
+      <c r="L17" s="209"/>
       <c r="M17" s="13"/>
       <c r="O17" s="14"/>
       <c r="Q17" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R17" s="42" t="str">
         <f>IF(S17&lt;&gt;"",S17,IF(AB21="","",AB21))</f>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="S17" s="43"/>
       <c r="U17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V17" s="48" t="str">
         <f>IF(W17&lt;&gt;"",W17,IF(AB23="","",AB23))</f>
@@ -3931,7 +3931,7 @@
       <c r="W17" s="49"/>
       <c r="Y17" s="15"/>
       <c r="AA17" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB17" s="54"/>
       <c r="AC17" s="29" t="str">
@@ -3971,7 +3971,7 @@
       <c r="M18" s="13"/>
       <c r="O18" s="14"/>
       <c r="Q18" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R18" s="42" t="str">
         <f>IF(S18&lt;&gt;"",S18,IF(AB22="","",AB22))</f>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="S18" s="43"/>
       <c r="U18" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V18" s="56" t="str">
         <f>IF(W18&lt;&gt;"",W18,IF(AB24="","",AB24))</f>
@@ -3988,7 +3988,7 @@
       <c r="W18" s="43"/>
       <c r="Y18" s="15"/>
       <c r="AA18" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB18" s="83"/>
       <c r="AC18" s="29" t="str">
@@ -4026,10 +4026,10 @@
       </c>
       <c r="B19" s="11"/>
       <c r="D19" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M19" s="13"/>
       <c r="O19" s="14"/>
@@ -4055,32 +4055,32 @@
       </c>
       <c r="B20" s="11"/>
       <c r="E20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="214" t="str">
+        <v>42</v>
+      </c>
+      <c r="F20" s="213" t="str">
         <f>IF(R21="","",R21)</f>
         <v/>
       </c>
-      <c r="G20" s="214"/>
+      <c r="G20" s="213"/>
       <c r="J20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="210" t="str">
+        <v>43</v>
+      </c>
+      <c r="K20" s="209" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L20" s="210"/>
+      <c r="L20" s="209"/>
       <c r="M20" s="13"/>
       <c r="O20" s="14"/>
       <c r="P20" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U20" s="60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y20" s="15"/>
       <c r="AA20" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB20" s="125"/>
       <c r="AG20" s="37">
@@ -4096,25 +4096,25 @@
       </c>
       <c r="B21" s="11"/>
       <c r="E21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="215" t="str">
+        <v>36</v>
+      </c>
+      <c r="F21" s="214" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="215"/>
+      <c r="G21" s="214"/>
       <c r="J21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="210" t="str">
+        <v>45</v>
+      </c>
+      <c r="K21" s="209" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="210"/>
+      <c r="L21" s="209"/>
       <c r="M21" s="13"/>
       <c r="O21" s="14"/>
       <c r="Q21" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R21" s="42" t="str">
         <f>IF(S21&lt;&gt;"",S21,IF(AB27="","",AB27))</f>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="S21" s="43"/>
       <c r="U21" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V21" s="42" t="str">
         <f>IF(W21&lt;&gt;"",W21,IF(AB35="","",AB35))</f>
@@ -4131,7 +4131,7 @@
       <c r="W21" s="43"/>
       <c r="Y21" s="15"/>
       <c r="AA21" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB21" s="83"/>
       <c r="AC21" s="29" t="str">
@@ -4155,20 +4155,20 @@
       </c>
       <c r="B22" s="11"/>
       <c r="D22" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="210" t="str">
+        <v>47</v>
+      </c>
+      <c r="K22" s="209" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="210"/>
+      <c r="L22" s="209"/>
       <c r="M22" s="13"/>
       <c r="O22" s="14"/>
       <c r="Q22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R22" s="48" t="str">
         <f>IF(S22&lt;&gt;"",S22,IF(AB28="","",AB28))</f>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="S22" s="49"/>
       <c r="U22" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V22" s="42" t="str">
         <f>IF(W22&lt;&gt;"",W22,IF(AB36="","",AB36))</f>
@@ -4185,7 +4185,7 @@
       <c r="W22" s="43"/>
       <c r="Y22" s="15"/>
       <c r="AA22" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB22" s="83"/>
       <c r="AC22" s="29" t="str">
@@ -4209,20 +4209,20 @@
       </c>
       <c r="B23" s="11"/>
       <c r="E23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="214" t="str">
+        <v>35</v>
+      </c>
+      <c r="F23" s="213" t="str">
         <f>IF(R24="","",R24)</f>
         <v/>
       </c>
-      <c r="G23" s="214"/>
+      <c r="G23" s="213"/>
       <c r="M23" s="13"/>
       <c r="O23" s="14"/>
       <c r="P23" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V23" s="42" t="str">
         <f>IF(W23&lt;&gt;"",W23,IF(AB37="","",AB37))</f>
@@ -4231,7 +4231,7 @@
       <c r="W23" s="43"/>
       <c r="Y23" s="15"/>
       <c r="AA23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB23" s="54"/>
       <c r="AC23" s="29" t="str">
@@ -4255,20 +4255,20 @@
       </c>
       <c r="B24" s="11"/>
       <c r="E24" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="214" t="str">
+        <v>37</v>
+      </c>
+      <c r="F24" s="213" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="214"/>
+      <c r="G24" s="213"/>
       <c r="J24" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M24" s="13"/>
       <c r="O24" s="14"/>
       <c r="Q24" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R24" s="42" t="str">
         <f>IF(S24&lt;&gt;"",S24,IF(AB29="","",AB29))</f>
@@ -4277,7 +4277,7 @@
       <c r="S24" s="43"/>
       <c r="Y24" s="15"/>
       <c r="AA24" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB24" s="83"/>
       <c r="AC24" s="29" t="str">
@@ -4301,25 +4301,25 @@
       </c>
       <c r="B25" s="11"/>
       <c r="E25" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="214" t="str">
+        <v>38</v>
+      </c>
+      <c r="F25" s="213" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="214"/>
+      <c r="G25" s="213"/>
       <c r="J25" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="210" t="str">
+        <v>49</v>
+      </c>
+      <c r="K25" s="209" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="210"/>
+      <c r="L25" s="209"/>
       <c r="M25" s="13"/>
       <c r="O25" s="14"/>
       <c r="Q25" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R25" s="42" t="str">
         <f>IF(S25&lt;&gt;"",S25,IF(AB30="","",AB30))</f>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="S25" s="43"/>
       <c r="U25" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y25" s="15"/>
       <c r="AB25" s="125"/>
@@ -4344,20 +4344,20 @@
       </c>
       <c r="B26" s="11"/>
       <c r="D26" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="210" t="str">
+        <v>51</v>
+      </c>
+      <c r="K26" s="209" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="210"/>
+      <c r="L26" s="209"/>
       <c r="M26" s="13"/>
       <c r="O26" s="14"/>
       <c r="Q26" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R26" s="42" t="str">
         <f>IF(S26&lt;&gt;"",S26,IF(AB31="","",AB31))</f>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="S26" s="43"/>
       <c r="U26" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V26" s="42" t="str">
         <f>IF(W26&lt;&gt;"",W26,IF(AB38="","",AB38))</f>
@@ -4374,7 +4374,7 @@
       <c r="W26" s="43"/>
       <c r="Y26" s="15"/>
       <c r="AA26" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB26" s="125"/>
     </row>
@@ -4384,20 +4384,20 @@
       </c>
       <c r="B27" s="11"/>
       <c r="E27" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="214" t="str">
+        <v>35</v>
+      </c>
+      <c r="F27" s="213" t="str">
         <f>IF(R28="","",R28)</f>
         <v/>
       </c>
-      <c r="G27" s="214"/>
+      <c r="G27" s="213"/>
       <c r="M27" s="13"/>
       <c r="O27" s="14"/>
       <c r="P27" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U27" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V27" s="42" t="str">
         <f>IF(W27&lt;&gt;"",W27,IF(AB39="","",AB39))</f>
@@ -4406,7 +4406,7 @@
       <c r="W27" s="43"/>
       <c r="Y27" s="15"/>
       <c r="AA27" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB27" s="83"/>
       <c r="AC27" s="29" t="str">
@@ -4424,17 +4424,17 @@
       </c>
       <c r="B28" s="11"/>
       <c r="E28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="214" t="str">
+        <v>37</v>
+      </c>
+      <c r="F28" s="213" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="214"/>
+      <c r="G28" s="213"/>
       <c r="M28" s="13"/>
       <c r="O28" s="14"/>
       <c r="Q28" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R28" s="42" t="str">
         <f>IF(S28&lt;&gt;"",S28,IF(AB32="","",AB32))</f>
@@ -4443,7 +4443,7 @@
       <c r="S28" s="43"/>
       <c r="Y28" s="15"/>
       <c r="AA28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB28" s="54"/>
       <c r="AC28" s="29" t="str">
@@ -4455,31 +4455,31 @@
         <v/>
       </c>
       <c r="AF28" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG28" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH28" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="AG28" s="117" t="s">
+      <c r="AI28" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="AH28" s="117" t="s">
+      <c r="AJ28" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="AI28" s="117" t="s">
+      <c r="AK28" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="AJ28" s="117" t="s">
+      <c r="AL28" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM28" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="AK28" s="117" t="s">
+      <c r="AN28" s="117" t="s">
         <v>60</v>
-      </c>
-      <c r="AL28" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM28" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN28" s="117" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4488,17 +4488,17 @@
       </c>
       <c r="B29" s="11"/>
       <c r="E29" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="214" t="str">
+        <v>38</v>
+      </c>
+      <c r="F29" s="213" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="214"/>
+      <c r="G29" s="213"/>
       <c r="M29" s="13"/>
       <c r="O29" s="14"/>
       <c r="Q29" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R29" s="42" t="str">
         <f>IF(S29&lt;&gt;"",S29,IF(AB33="","",AB33))</f>
@@ -4507,7 +4507,7 @@
       <c r="S29" s="43"/>
       <c r="Y29" s="15"/>
       <c r="AA29" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB29" s="83"/>
       <c r="AC29" s="29" t="str">
@@ -4550,7 +4550,7 @@
       <c r="M30" s="22"/>
       <c r="O30" s="14"/>
       <c r="Q30" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R30" s="42" t="str">
         <f>IF(S30&lt;&gt;"",S30,IF(AB34="","",AB34))</f>
@@ -4559,7 +4559,7 @@
       <c r="S30" s="43"/>
       <c r="Y30" s="15"/>
       <c r="AA30" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB30" s="83"/>
       <c r="AC30" s="29" t="str">
@@ -4600,7 +4600,7 @@
       <c r="X31" s="24"/>
       <c r="Y31" s="25"/>
       <c r="AA31" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB31" s="83"/>
       <c r="AC31" s="29" t="str">
@@ -4631,24 +4631,24 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="217" t="s">
-        <v>65</v>
-      </c>
-      <c r="M32" s="217"/>
+      <c r="L32" s="216" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="216"/>
       <c r="AA32" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB32" s="83"/>
       <c r="AC32" s="29" t="str">
@@ -4679,10 +4679,10 @@
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="69" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L33" s="70" t="str">
         <f t="shared" ref="L33:L38" si="4">IF(O37="","TBD",IF(O37=1,"YES",IF(O37=3,"NA","")))</f>
@@ -4694,10 +4694,10 @@
       </c>
       <c r="S33" s="31"/>
       <c r="T33" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA33" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB33" s="83"/>
       <c r="AC33" s="29" t="str">
@@ -4728,10 +4728,10 @@
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L34" s="70" t="str">
         <f t="shared" si="4"/>
@@ -4742,7 +4742,7 @@
         <v/>
       </c>
       <c r="O34" s="72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
@@ -4755,7 +4755,7 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="9"/>
       <c r="AA34" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB34" s="83"/>
       <c r="AC34" s="29" t="str">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B35" s="11"/>
       <c r="E35" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L35" s="70" t="str">
         <f t="shared" si="4"/>
@@ -4799,7 +4799,7 @@
       <c r="O35" s="14"/>
       <c r="Y35" s="15"/>
       <c r="AA35" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB35" s="83"/>
       <c r="AC35" s="29" t="str">
@@ -4830,10 +4830,10 @@
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L36" s="70" t="str">
         <f t="shared" si="4"/>
@@ -4845,11 +4845,11 @@
       </c>
       <c r="O36" s="14"/>
       <c r="T36" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Y36" s="15"/>
       <c r="AA36" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB36" s="83"/>
       <c r="AC36" s="29" t="str">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B37" s="11"/>
       <c r="E37" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L37" s="70" t="str">
         <f t="shared" si="4"/>
@@ -4892,11 +4892,11 @@
       </c>
       <c r="O37" s="73"/>
       <c r="P37" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y37" s="15"/>
       <c r="AA37" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AB37" s="83"/>
       <c r="AC37" s="29" t="str">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B38" s="11"/>
       <c r="E38" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L38" s="70" t="str">
         <f t="shared" si="4"/>
@@ -4939,11 +4939,11 @@
       </c>
       <c r="O38" s="73"/>
       <c r="P38" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Y38" s="15"/>
       <c r="AA38" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AB38" s="83"/>
       <c r="AC38" s="29" t="str">
@@ -4976,11 +4976,11 @@
       <c r="M39" s="13"/>
       <c r="O39" s="73"/>
       <c r="P39" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y39" s="15"/>
       <c r="AA39" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB39" s="83"/>
       <c r="AC39" s="29" t="str">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="B40" s="11"/>
       <c r="F40" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M40" s="13"/>
       <c r="O40" s="73"/>
       <c r="P40" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y40" s="15"/>
       <c r="AB40" s="125"/>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="B41" s="11"/>
       <c r="E41" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L41" s="70" t="str">
         <f t="shared" ref="L41:L46" si="6">IF(O44="","TBD",IF(O44=1,"YES",IF(O44=3,"NA","")))</f>
@@ -5048,11 +5048,11 @@
       </c>
       <c r="O41" s="73"/>
       <c r="P41" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y41" s="15"/>
       <c r="AA41" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB41" s="125"/>
       <c r="AF41" s="74"/>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B42" s="11"/>
       <c r="E42" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L42" s="70" t="str">
         <f t="shared" si="6"/>
@@ -5083,11 +5083,11 @@
       </c>
       <c r="O42" s="73"/>
       <c r="P42" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y42" s="15"/>
       <c r="AA42" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB42" s="83"/>
       <c r="AC42" s="29" t="str">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B43" s="11"/>
       <c r="E43" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L43" s="70" t="str">
         <f t="shared" si="6"/>
@@ -5126,11 +5126,11 @@
       </c>
       <c r="O43" s="14"/>
       <c r="T43" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y43" s="15"/>
       <c r="AA43" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB43" s="83"/>
       <c r="AC43" s="29" t="str">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B44" s="11"/>
       <c r="E44" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L44" s="70" t="str">
         <f t="shared" si="6"/>
@@ -5169,11 +5169,11 @@
       </c>
       <c r="O44" s="73"/>
       <c r="P44" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y44" s="15"/>
       <c r="AA44" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB44" s="83"/>
       <c r="AC44" s="29" t="str">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B45" s="11"/>
       <c r="E45" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L45" s="70" t="str">
         <f t="shared" si="6"/>
@@ -5212,11 +5212,11 @@
       </c>
       <c r="O45" s="73"/>
       <c r="P45" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Y45" s="15"/>
       <c r="AA45" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB45" s="83"/>
       <c r="AC45" s="29" t="str">
@@ -5233,8 +5233,8 @@
         <v>46</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="E46" s="207" t="s">
-        <v>182</v>
+      <c r="E46" s="206" t="s">
+        <v>180</v>
       </c>
       <c r="L46" s="70" t="str">
         <f t="shared" si="6"/>
@@ -5246,11 +5246,11 @@
       </c>
       <c r="O46" s="73"/>
       <c r="P46" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y46" s="15"/>
       <c r="AA46" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB46" s="83"/>
       <c r="AC46" s="29" t="str">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B47" s="11"/>
       <c r="E47" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L47" s="70" t="str">
         <f t="shared" ref="L47:L52" si="10">IF(O51="","TBD",IF(O51=1,"YES",IF(O51=3,"NA","")))</f>
@@ -5280,11 +5280,11 @@
       </c>
       <c r="O47" s="73"/>
       <c r="P47" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y47" s="15"/>
       <c r="AA47" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB47" s="83"/>
       <c r="AC47" s="29" t="str">
@@ -5302,10 +5302,10 @@
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L48" s="70" t="str">
         <f t="shared" si="10"/>
@@ -5317,11 +5317,11 @@
       </c>
       <c r="O48" s="73"/>
       <c r="P48" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y48" s="15"/>
       <c r="AA48" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AB48" s="83"/>
       <c r="AC48" s="29" t="str">
@@ -5339,10 +5339,10 @@
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L49" s="70" t="str">
         <f t="shared" si="10"/>
@@ -5352,9 +5352,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O49" s="206"/>
+      <c r="O49" s="222"/>
       <c r="P49" s="180" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Y49" s="15"/>
       <c r="AA49" s="68"/>
@@ -5368,10 +5368,10 @@
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L50" s="70" t="str">
         <f t="shared" si="10"/>
@@ -5384,7 +5384,7 @@
       <c r="O50" s="14"/>
       <c r="Y50" s="15"/>
       <c r="AA50" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB50" s="83"/>
       <c r="AC50" s="29" t="str">
@@ -5402,10 +5402,10 @@
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L51" s="70" t="str">
         <f t="shared" si="10"/>
@@ -5417,11 +5417,11 @@
       </c>
       <c r="O51" s="73"/>
       <c r="P51" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y51" s="15"/>
       <c r="AA51" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AB51" s="83"/>
       <c r="AC51" s="29" t="e">
@@ -5439,10 +5439,10 @@
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="180" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L52" s="70" t="str">
         <f t="shared" si="10"/>
@@ -5454,11 +5454,11 @@
       </c>
       <c r="O52" s="73"/>
       <c r="P52" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y52" s="15"/>
       <c r="AA52" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB52" s="83"/>
       <c r="AC52" s="29" t="str">
@@ -5476,10 +5476,10 @@
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="180" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E53" s="180" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L53" s="70" t="str">
         <f>IF(O57="","TBD",IF(O57=1,"YES",IF(O57=3,"NA","")))</f>
@@ -5491,11 +5491,11 @@
       </c>
       <c r="O53" s="73"/>
       <c r="P53" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y53" s="15"/>
       <c r="AA53" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB53" s="83"/>
       <c r="AC53" s="29" t="str">
@@ -5515,7 +5515,7 @@
       <c r="M54" s="13"/>
       <c r="O54" s="73"/>
       <c r="P54" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y54" s="15"/>
       <c r="AA54" s="68"/>
@@ -5531,11 +5531,11 @@
       <c r="M55" s="13"/>
       <c r="O55" s="73"/>
       <c r="P55" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y55" s="15"/>
       <c r="AA55" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB55" s="77"/>
       <c r="AC55" s="29" t="str">
@@ -5555,7 +5555,7 @@
       <c r="M56" s="13"/>
       <c r="O56" s="73"/>
       <c r="P56" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y56" s="15"/>
       <c r="AA56" s="18"/>
@@ -5570,7 +5570,7 @@
       <c r="M57" s="13"/>
       <c r="O57" s="73"/>
       <c r="P57" s="205" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q57" s="24"/>
       <c r="R57" s="24"/>
@@ -5611,7 +5611,7 @@
       <c r="L59" s="70"/>
       <c r="M59" s="71"/>
       <c r="T59" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AA59" s="18"/>
       <c r="AB59" s="77"/>
@@ -5632,14 +5632,14 @@
       <c r="L60" s="70"/>
       <c r="M60" s="71"/>
       <c r="O60" s="78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P60" s="79"/>
-      <c r="Q60" s="216"/>
-      <c r="R60" s="216"/>
-      <c r="S60" s="216"/>
-      <c r="T60" s="216"/>
-      <c r="U60" s="216"/>
+      <c r="Q60" s="215"/>
+      <c r="R60" s="215"/>
+      <c r="S60" s="215"/>
+      <c r="T60" s="215"/>
+      <c r="U60" s="215"/>
       <c r="V60" s="79"/>
       <c r="W60" s="79"/>
       <c r="X60" s="79"/>
@@ -5657,7 +5657,7 @@
       <c r="M61" s="71"/>
       <c r="O61" s="81"/>
       <c r="P61" s="62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q61" s="82"/>
       <c r="R61" s="83" t="str">
@@ -5665,10 +5665,10 @@
         <v/>
       </c>
       <c r="T61" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V61" s="61"/>
       <c r="W61" s="61"/>
@@ -5694,7 +5694,7 @@
       <c r="M62" s="71"/>
       <c r="O62" s="81"/>
       <c r="P62" s="62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q62" s="82"/>
       <c r="R62" s="83" t="str">
@@ -5708,7 +5708,7 @@
       <c r="U62" s="87"/>
       <c r="V62" s="61"/>
       <c r="W62" s="86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X62" s="87"/>
       <c r="Y62" s="84"/>
@@ -5724,7 +5724,7 @@
       <c r="M63" s="13"/>
       <c r="O63" s="81"/>
       <c r="P63" s="62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q63" s="82"/>
       <c r="R63" s="83" t="str">
@@ -5738,7 +5738,7 @@
       <c r="U63" s="87"/>
       <c r="V63" s="61"/>
       <c r="W63" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X63" s="88" t="str">
         <f>IF(OR(T66="",U66=""),"",T66/3+2*U66/3)</f>
@@ -5774,7 +5774,7 @@
       <c r="M64" s="22"/>
       <c r="O64" s="81"/>
       <c r="P64" s="62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q64" s="82"/>
       <c r="R64" s="83" t="str">
@@ -5788,7 +5788,7 @@
       <c r="U64" s="87"/>
       <c r="V64" s="61"/>
       <c r="W64" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X64" s="89" t="str">
         <f>IF(AB48="","",AB48)</f>
@@ -5804,7 +5804,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D65" s="197" t="str">
         <f>IF($P$7="","",$P$7)</f>
@@ -5818,7 +5818,7 @@
       <c r="J65" s="91"/>
       <c r="K65" s="91"/>
       <c r="L65" s="90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M65" s="92" t="str">
         <f>IF($X$7="","",$X$7)</f>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="O65" s="81"/>
       <c r="P65" s="62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q65" s="82">
         <v>100</v>
@@ -5836,7 +5836,7 @@
         <v/>
       </c>
       <c r="S65" s="52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T65" s="93" t="str">
         <f>IF(OR(T62="",T63="",T64=""),"",AVERAGE(T62:T64))</f>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="V65" s="61"/>
       <c r="W65" s="62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="X65" s="94" t="str">
         <f>IF(OR(X63="",X64=""),"",(X63-X64)/X64)</f>
@@ -5871,7 +5871,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D66" s="92" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -5885,7 +5885,7 @@
       <c r="J66" s="91"/>
       <c r="K66" s="91"/>
       <c r="L66" s="90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M66" s="95" t="str">
         <f>IF($R$13="","",$R$13)</f>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="O66" s="81"/>
       <c r="P66" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q66" s="82">
         <v>1</v>
@@ -5903,7 +5903,7 @@
         <v/>
       </c>
       <c r="S66" s="52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T66" s="93" t="str">
         <f>IF(T65="","",($Q$65*$Q$66*T65)/$Q$64)</f>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="V66" s="61"/>
       <c r="W66" s="61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X66" s="96" t="str">
         <f>IF(X65="","NA",IF(X65&lt;=0.15,"Pass","Fail"))</f>
@@ -5936,10 +5936,10 @@
       </c>
       <c r="O67" s="14"/>
       <c r="P67" s="98" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q67" s="99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Y67" s="15"/>
       <c r="AA67" s="18"/>
@@ -5958,7 +5958,7 @@
         <v>2</v>
       </c>
       <c r="H68" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M68" s="26" t="str">
         <f>$H$5</f>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="100" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -5990,15 +5990,15 @@
       <c r="M69" s="6"/>
       <c r="O69" s="81"/>
       <c r="P69" s="62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q69" s="82"/>
       <c r="S69" s="150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T69" s="200"/>
       <c r="V69" s="62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="W69" s="200"/>
       <c r="Y69" s="84"/>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="B70" s="11"/>
       <c r="D70" s="62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E70" s="102" t="str">
         <f t="shared" ref="E70:E75" si="13">IF(Q61="","",Q61)</f>
@@ -6043,21 +6043,21 @@
       </c>
       <c r="B71" s="11"/>
       <c r="D71" s="62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E71" s="102" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G71" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H71" s="103" t="str">
         <f>IF(X63="","",X63)</f>
         <v/>
       </c>
       <c r="J71" s="62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K71" s="167" t="str">
         <f>IF(Q69="","",Q69)</f>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="B72" s="11"/>
       <c r="D72" s="62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E72" s="102" t="str">
         <f t="shared" si="13"/>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="F72" s="52"/>
       <c r="G72" s="86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H72" s="104" t="str">
         <f>IF(X65="","",X65)</f>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="I72" s="52"/>
       <c r="J72" s="150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K72" s="202" t="str">
         <f>IF(T69="","",T69)</f>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="M72" s="13"/>
       <c r="O72" s="101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B73" s="11"/>
       <c r="D73" s="62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E73" s="102" t="str">
         <f t="shared" si="13"/>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="F73" s="52"/>
       <c r="G73" s="61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H73" s="108" t="str">
         <f>IF(X66="","",X66)</f>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="I73" s="52"/>
       <c r="J73" s="150" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K73" s="202" t="str">
         <f>IF(W69="","",W69)</f>
@@ -6163,7 +6163,7 @@
         <v>2</v>
       </c>
       <c r="P73" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y73" s="15"/>
       <c r="AA73" s="18"/>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="B74" s="11"/>
       <c r="D74" s="62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E74" s="102">
         <f t="shared" si="13"/>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="B75" s="11"/>
       <c r="D75" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E75" s="102">
         <f t="shared" si="13"/>
@@ -6224,29 +6224,29 @@
       </c>
       <c r="F75" s="52"/>
       <c r="G75" s="98" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H75" s="99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I75" s="52"/>
       <c r="J75" s="52"/>
       <c r="M75" s="13"/>
       <c r="O75" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="P75" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q75" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="R75" s="107" t="s">
         <v>57</v>
-      </c>
-      <c r="P75" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q75" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="R75" s="107" t="s">
-        <v>59</v>
       </c>
       <c r="S75" s="189"/>
       <c r="T75" s="180" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U75" s="189"/>
       <c r="V75" s="189"/>
@@ -6288,19 +6288,19 @@
       <c r="R76" s="112"/>
       <c r="S76" s="189"/>
       <c r="T76" s="190" t="s">
+        <v>121</v>
+      </c>
+      <c r="U76" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="U76" s="190" t="s">
+      <c r="V76" s="190" t="s">
+        <v>124</v>
+      </c>
+      <c r="W76" s="190" t="s">
         <v>125</v>
       </c>
-      <c r="V76" s="190" t="s">
-        <v>126</v>
-      </c>
-      <c r="W76" s="190" t="s">
-        <v>127</v>
-      </c>
       <c r="X76" s="113" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y76" s="84"/>
       <c r="AA76" s="18"/>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="52"/>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D78" s="124" t="str">
         <f>IF(O76="","",O76)</f>
@@ -6457,17 +6457,17 @@
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F80" s="52"/>
       <c r="G80" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H80" s="125" t="e">
         <f>X77</f>
@@ -6494,10 +6494,10 @@
         <v/>
       </c>
       <c r="W80" s="189" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X80" s="189" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Y80" s="84"/>
       <c r="AA80" s="18"/>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="F81" s="52"/>
       <c r="G81" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H81" s="127" t="e">
         <f>X84</f>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="F83" s="52"/>
       <c r="H83" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J83" s="52"/>
       <c r="M83" s="13"/>
@@ -6713,12 +6713,12 @@
       <c r="R84" s="112"/>
       <c r="S84" s="189"/>
       <c r="T84" s="190" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U84" s="190"/>
       <c r="V84" s="189"/>
       <c r="W84" s="62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="X84" s="128" t="e">
         <f>IF(X77&gt;=U85,"YES","NO")</f>
@@ -6766,7 +6766,7 @@
       <c r="R85" s="116"/>
       <c r="S85" s="189"/>
       <c r="T85" s="190" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U85" s="190" t="e">
         <f>IF($O$73=1,IF(O76&lt;=75,MIN(ROUND(TREND(AH14:AH16,AG14:AG16,O76, ),1),TRUNC(TREND(AH14:AH16,AG14:AG16,O76),2)),MIN(ROUND(TREND(AH17:AH25,AG17:AG25,O76),1),TRUNC(TREND(AH17:AH25,AG17:AG25,O76),2))),MIN(ROUND(TREND(AL11:AL13,AJ11:AJ13,O76),1),TRUNC(TREND(AL14:AL18,AJ14:AJ18,O76),2)))</f>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="F86" s="52"/>
       <c r="G86" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H86" s="19" t="str">
         <f>IF(O73=1,"DHEC Standard","MUSC Standard")</f>
@@ -6820,7 +6820,7 @@
       <c r="R86" s="112"/>
       <c r="S86" s="189"/>
       <c r="T86" s="190" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="U86" s="190" t="e">
         <f>IF($O$73=1,"",ROUND(AVERAGE(ROUND(TREND(AK11:AK18,AJ11:AJ18,O76),2),TRUNC(TREND(AK11:AK18,AJ11:AJ18,O76),2)),1))</f>
@@ -6861,7 +6861,7 @@
       <c r="R87" s="116"/>
       <c r="S87" s="189"/>
       <c r="T87" s="190" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U87" s="190" t="e">
         <f>IF($O$73=1,"",MAX(ROUND(TREND(AM11:AM18,AJ11:AJ18,O76),1),TRUNC(TREND(AM11:AM18,AJ11:AJ18,O76),2)))</f>
@@ -6926,7 +6926,7 @@
       <c r="L89" s="74"/>
       <c r="M89" s="13"/>
       <c r="O89" s="152" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P89" s="62"/>
       <c r="Q89" s="151"/>
@@ -6957,24 +6957,24 @@
       <c r="C90" s="135"/>
       <c r="M90" s="13"/>
       <c r="O90" s="157" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P90" s="133">
         <v>80</v>
       </c>
       <c r="Q90" s="150"/>
       <c r="R90" s="62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S90" s="82"/>
       <c r="T90" s="189"/>
       <c r="U90" s="150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="V90" s="200"/>
       <c r="W90" s="189"/>
       <c r="X90" s="62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Y90" s="201"/>
       <c r="AA90" s="18"/>
@@ -7028,26 +7028,26 @@
       <c r="M92" s="13"/>
       <c r="O92" s="81"/>
       <c r="P92" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q92" s="190" t="s">
+        <v>120</v>
+      </c>
+      <c r="R92" s="190" t="s">
+        <v>139</v>
+      </c>
+      <c r="S92" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="Q92" s="190" t="s">
-        <v>122</v>
-      </c>
-      <c r="R92" s="190" t="s">
+      <c r="T92" s="190" t="s">
+        <v>57</v>
+      </c>
+      <c r="U92" s="190" t="s">
         <v>141</v>
-      </c>
-      <c r="S92" s="190" t="s">
-        <v>142</v>
-      </c>
-      <c r="T92" s="190" t="s">
-        <v>59</v>
-      </c>
-      <c r="U92" s="190" t="s">
-        <v>143</v>
       </c>
       <c r="V92" s="68"/>
       <c r="W92" s="62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X92" s="134" t="str">
         <f>IF(U93="","",AVERAGE(U93:U96))</f>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="V93" s="68"/>
       <c r="W93" s="150" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X93" s="138" t="str">
         <f>IF(OR(U93="",U94=""),"",(MAX(U93:U96)-MIN(U93:U96))/(MAX(U93:U96)+MIN(U93:U96)))</f>
@@ -7125,7 +7125,7 @@
       <c r="L94" s="74"/>
       <c r="M94" s="13"/>
       <c r="O94" s="81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P94" s="190" t="str">
         <f>IF(AH36="","",AH36)</f>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="V94" s="68"/>
       <c r="W94" s="62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X94" s="139" t="str">
         <f>IF(AB52="","",AB52)</f>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="V95" s="68"/>
       <c r="W95" s="150" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X95" s="141" t="str">
         <f>IF(X93="","",IF(X93&gt;0.1,"NO","YES"))</f>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="Y95" s="84"/>
       <c r="AA95" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AB95" s="68"/>
       <c r="AC95" s="68"/>
@@ -7263,7 +7263,7 @@
       <c r="X96" s="68"/>
       <c r="Y96" s="84"/>
       <c r="AA96" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AB96" s="68">
         <v>18</v>
@@ -7290,10 +7290,10 @@
       <c r="M97" s="13"/>
       <c r="O97" s="144"/>
       <c r="P97" s="145" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q97" s="146" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R97" s="68"/>
       <c r="S97" s="68"/>
@@ -7326,7 +7326,7 @@
       <c r="O98" s="144"/>
       <c r="P98" s="148"/>
       <c r="Q98" s="149" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R98" s="68"/>
       <c r="S98" s="68"/>
@@ -7358,7 +7358,7 @@
       <c r="O99" s="144"/>
       <c r="P99" s="148"/>
       <c r="Q99" s="149" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R99" s="68"/>
       <c r="S99" s="68"/>
@@ -7408,7 +7408,7 @@
       <c r="B101" s="11"/>
       <c r="M101" s="13"/>
       <c r="O101" s="152" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P101" s="68"/>
       <c r="Q101" s="68"/>
@@ -7434,18 +7434,18 @@
       <c r="M102" s="13"/>
       <c r="O102" s="144"/>
       <c r="P102" s="190" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q102" s="190" t="s">
-        <v>122</v>
-      </c>
-      <c r="R102" s="220" t="s">
-        <v>154</v>
-      </c>
-      <c r="S102" s="221"/>
+        <v>120</v>
+      </c>
+      <c r="R102" s="219" t="s">
+        <v>152</v>
+      </c>
+      <c r="S102" s="220"/>
       <c r="T102" s="190"/>
       <c r="U102" s="190" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V102" s="68"/>
       <c r="W102" s="68"/>
@@ -7466,13 +7466,13 @@
       <c r="P103" s="190"/>
       <c r="Q103" s="190"/>
       <c r="R103" s="159" t="s">
+        <v>55</v>
+      </c>
+      <c r="S103" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="S103" s="159" t="s">
-        <v>59</v>
-      </c>
       <c r="T103" s="159" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U103" s="190"/>
       <c r="V103" s="68"/>
@@ -7709,7 +7709,7 @@
         <v>43</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="E109" s="218"/>
+      <c r="E109" s="217"/>
       <c r="F109" s="52"/>
       <c r="G109" s="52"/>
       <c r="H109" s="52"/>
@@ -7754,7 +7754,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="11"/>
-      <c r="E110" s="218"/>
+      <c r="E110" s="217"/>
       <c r="F110" s="52"/>
       <c r="G110" s="52"/>
       <c r="H110" s="52"/>
@@ -7799,7 +7799,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="E111" s="218"/>
+      <c r="E111" s="217"/>
       <c r="F111" s="52"/>
       <c r="G111" s="52"/>
       <c r="H111" s="52"/>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E113" s="18"/>
       <c r="F113" s="74"/>
@@ -7888,7 +7888,7 @@
       <c r="O113" s="144"/>
       <c r="P113" s="68"/>
       <c r="Q113" s="181" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R113" s="159" t="str">
         <f>IF(R106="","",AVERAGE(R106:R110))</f>
@@ -7899,7 +7899,7 @@
         <v/>
       </c>
       <c r="T113" s="182" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U113" s="183" t="str">
         <f>IF(U104="","",IF(AND(ABS(MAX(U104,U105,U106,U111))&lt;=0.05,ABS(MIN(U104,U105,U106,U111))&lt;=0.05),"YES","NO"))</f>
@@ -7920,32 +7920,32 @@
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D114" s="124">
         <f>IF(P90="","",P90)</f>
         <v>80</v>
       </c>
       <c r="F114" s="26"/>
-      <c r="G114" s="219" t="s">
-        <v>27</v>
-      </c>
-      <c r="H114" s="219" t="s">
-        <v>122</v>
-      </c>
-      <c r="I114" s="219" t="s">
-        <v>154</v>
-      </c>
-      <c r="J114" s="219"/>
-      <c r="K114" s="219"/>
-      <c r="L114" s="219" t="s">
-        <v>155</v>
+      <c r="G114" s="218" t="s">
+        <v>25</v>
+      </c>
+      <c r="H114" s="218" t="s">
+        <v>120</v>
+      </c>
+      <c r="I114" s="218" t="s">
+        <v>152</v>
+      </c>
+      <c r="J114" s="218"/>
+      <c r="K114" s="218"/>
+      <c r="L114" s="218" t="s">
+        <v>153</v>
       </c>
       <c r="M114" s="13"/>
       <c r="O114" s="144"/>
       <c r="P114" s="68"/>
       <c r="Q114" s="181" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R114" s="159" t="str">
         <f>IF(R106="","",STDEV(R106:R110))</f>
@@ -7972,34 +7972,34 @@
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E115" s="96" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F115" s="184" t="s">
-        <v>143</v>
-      </c>
-      <c r="G115" s="219"/>
-      <c r="H115" s="219"/>
+        <v>141</v>
+      </c>
+      <c r="G115" s="218"/>
+      <c r="H115" s="218"/>
       <c r="I115" s="159" t="s">
+        <v>55</v>
+      </c>
+      <c r="J115" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="J115" s="159" t="s">
-        <v>59</v>
-      </c>
       <c r="K115" s="159" t="s">
-        <v>60</v>
-      </c>
-      <c r="L115" s="219"/>
+        <v>58</v>
+      </c>
+      <c r="L115" s="218"/>
       <c r="M115" s="13"/>
       <c r="O115" s="144"/>
       <c r="P115" s="68"/>
       <c r="Q115" s="181" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R115" s="162" t="str">
         <f>IF(OR(R113="",R114=""),"",R114/R113)</f>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="M118" s="13"/>
       <c r="O118" s="152" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P118" s="189"/>
       <c r="Q118" s="189"/>
@@ -8256,13 +8256,13 @@
       <c r="M119" s="13"/>
       <c r="O119" s="81"/>
       <c r="P119" s="189" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q119" s="189" t="s">
+        <v>160</v>
+      </c>
+      <c r="R119" s="151" t="s">
         <v>161</v>
-      </c>
-      <c r="Q119" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="R119" s="151" t="s">
-        <v>163</v>
       </c>
       <c r="S119" s="189"/>
       <c r="T119" s="189"/>
@@ -8284,7 +8284,7 @@
       <c r="C120" s="68"/>
       <c r="D120" s="68"/>
       <c r="E120" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F120" s="137" t="str">
         <f>IF(X92="","",X92)</f>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="G120" s="68"/>
       <c r="H120" s="161" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I120" s="186" t="str">
         <f t="shared" ref="I120:J122" si="23">R113</f>
@@ -8303,7 +8303,7 @@
         <v/>
       </c>
       <c r="K120" s="160" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L120" s="40" t="str">
         <f>U113</f>
@@ -8321,10 +8321,10 @@
         <v/>
       </c>
       <c r="S120" s="145" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T120" s="158" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U120" s="189"/>
       <c r="V120" s="189"/>
@@ -8344,7 +8344,7 @@
       <c r="C121" s="68"/>
       <c r="D121" s="68"/>
       <c r="E121" s="86" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F121" s="94" t="str">
         <f>IF(X93="","",X93)</f>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="G121" s="68"/>
       <c r="H121" s="161" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I121" s="159" t="str">
         <f t="shared" si="23"/>
@@ -8387,7 +8387,7 @@
       <c r="C122" s="68"/>
       <c r="D122" s="68"/>
       <c r="E122" s="86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F122" s="96" t="str">
         <f>IF(X95="","",X95)</f>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="G122" s="68"/>
       <c r="H122" s="161" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I122" s="162" t="str">
         <f t="shared" si="23"/>
@@ -8463,10 +8463,10 @@
       <c r="F124" s="68"/>
       <c r="G124" s="68"/>
       <c r="H124" s="168" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I124" s="198" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J124" s="68"/>
       <c r="M124" s="13"/>
@@ -8476,7 +8476,7 @@
       <c r="R124" s="189"/>
       <c r="S124" s="189"/>
       <c r="T124" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U124" s="189"/>
       <c r="V124" s="189"/>
@@ -8500,7 +8500,7 @@
       <c r="G125" s="68"/>
       <c r="H125" s="68"/>
       <c r="I125" s="199" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J125" s="68"/>
       <c r="M125" s="13"/>
@@ -8509,7 +8509,7 @@
       <c r="Q125" s="191"/>
       <c r="R125" s="191"/>
       <c r="S125" s="163" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T125" s="191"/>
       <c r="U125" s="191"/>
@@ -8528,16 +8528,16 @@
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="122" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H126" s="68"/>
       <c r="I126" s="199" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M126" s="13"/>
       <c r="O126" s="81"/>
       <c r="P126" s="62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q126" s="164"/>
       <c r="R126" s="165"/>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D127" s="124" t="str">
         <f>IF(P120="","",P120)</f>
@@ -8574,7 +8574,7 @@
       <c r="M127" s="13"/>
       <c r="O127" s="81"/>
       <c r="P127" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q127" s="192"/>
       <c r="R127" s="170">
@@ -8584,7 +8584,7 @@
       <c r="S127" s="171"/>
       <c r="T127" s="171"/>
       <c r="U127" s="172" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V127" s="171"/>
       <c r="W127" s="171"/>
@@ -8601,28 +8601,28 @@
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D128" s="96" t="str">
         <f>IF(Q120="","",Q120)</f>
         <v/>
       </c>
       <c r="F128" s="62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G128" s="167" t="str">
         <f>IF(S90="","",S90)</f>
         <v/>
       </c>
       <c r="I128" s="62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J128" s="203" t="str">
         <f>IF(V90="","",V90)</f>
         <v/>
       </c>
       <c r="L128" s="62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M128" s="204" t="str">
         <f>IF(Y90="","",Y90)</f>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="O128" s="81"/>
       <c r="P128" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q128" s="164"/>
       <c r="R128" s="165"/>
@@ -8655,17 +8655,17 @@
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="145" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D129" s="158" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I129" s="68"/>
       <c r="J129" s="68"/>
       <c r="M129" s="13"/>
       <c r="O129" s="81"/>
       <c r="P129" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q129" s="192"/>
       <c r="R129" s="170">
@@ -8675,7 +8675,7 @@
       <c r="S129" s="171"/>
       <c r="T129" s="171"/>
       <c r="U129" s="172" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V129" s="171"/>
       <c r="W129" s="171"/>
@@ -8704,7 +8704,7 @@
       <c r="M130" s="22"/>
       <c r="O130" s="81"/>
       <c r="P130" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q130" s="164"/>
       <c r="R130" s="165"/>
@@ -8728,7 +8728,7 @@
         <v>65</v>
       </c>
       <c r="C131" s="90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D131" s="197" t="str">
         <f>IF($P$7="","",$P$7)</f>
@@ -8742,7 +8742,7 @@
       <c r="J131" s="91"/>
       <c r="K131" s="91"/>
       <c r="L131" s="90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M131" s="92" t="str">
         <f>IF($X$7="","",$X$7)</f>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="O131" s="81"/>
       <c r="P131" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q131" s="192"/>
       <c r="R131" s="170">
@@ -8760,7 +8760,7 @@
       <c r="S131" s="171"/>
       <c r="T131" s="171"/>
       <c r="U131" s="172" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V131" s="171"/>
       <c r="W131" s="171"/>
@@ -8776,7 +8776,7 @@
         <v>66</v>
       </c>
       <c r="C132" s="90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D132" s="92" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -8790,7 +8790,7 @@
       <c r="J132" s="91"/>
       <c r="K132" s="91"/>
       <c r="L132" s="90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M132" s="95" t="str">
         <f>IF($R$13="","",$R$13)</f>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="O132" s="81"/>
       <c r="P132" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q132" s="164"/>
       <c r="R132" s="165"/>
@@ -8827,7 +8827,7 @@
       </c>
       <c r="O133" s="81"/>
       <c r="P133" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q133" s="192"/>
       <c r="R133" s="170">
@@ -8837,7 +8837,7 @@
       <c r="S133" s="171"/>
       <c r="T133" s="171"/>
       <c r="U133" s="172" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V133" s="171"/>
       <c r="W133" s="171"/>
@@ -8853,7 +8853,7 @@
         <v>2</v>
       </c>
       <c r="H134" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M134" s="26" t="str">
         <f>$H$5</f>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="O134" s="81"/>
       <c r="P134" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q134" s="164"/>
       <c r="R134" s="165"/>
@@ -8898,7 +8898,7 @@
       <c r="M135" s="6"/>
       <c r="O135" s="81"/>
       <c r="P135" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q135" s="192"/>
       <c r="R135" s="170">
@@ -8908,7 +8908,7 @@
       <c r="S135" s="171"/>
       <c r="T135" s="171"/>
       <c r="U135" s="172" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V135" s="171"/>
       <c r="W135" s="171"/>
@@ -8939,7 +8939,7 @@
       <c r="M136" s="13"/>
       <c r="O136" s="81"/>
       <c r="P136" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q136" s="164"/>
       <c r="R136" s="165"/>
@@ -8978,7 +8978,7 @@
       <c r="M137" s="13"/>
       <c r="O137" s="81"/>
       <c r="P137" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q137" s="192"/>
       <c r="R137" s="170">
@@ -9013,7 +9013,7 @@
       <c r="M138" s="13"/>
       <c r="O138" s="81"/>
       <c r="P138" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q138" s="164"/>
       <c r="R138" s="165"/>
@@ -9048,7 +9048,7 @@
       <c r="M139" s="13"/>
       <c r="O139" s="81"/>
       <c r="P139" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q139" s="192"/>
       <c r="R139" s="170">
@@ -9083,7 +9083,7 @@
       <c r="M140" s="13"/>
       <c r="O140" s="81"/>
       <c r="P140" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q140" s="164"/>
       <c r="R140" s="165"/>
@@ -9118,7 +9118,7 @@
       <c r="M141" s="13"/>
       <c r="O141" s="81"/>
       <c r="P141" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q141" s="192"/>
       <c r="R141" s="170">
@@ -9132,20 +9132,20 @@
       <c r="W141" s="171"/>
       <c r="X141" s="171"/>
       <c r="Y141" s="84"/>
-      <c r="AA141" s="222"/>
-      <c r="AB141" s="222"/>
-      <c r="AC141" s="222"/>
-      <c r="AD141" s="222"/>
-      <c r="AE141" s="222"/>
-      <c r="AF141" s="222"/>
-      <c r="AG141" s="222"/>
-      <c r="AH141" s="222"/>
-      <c r="AI141" s="222"/>
-      <c r="AJ141" s="222"/>
-      <c r="AK141" s="222"/>
-      <c r="AL141" s="222"/>
-      <c r="AM141" s="222"/>
-      <c r="AN141" s="222"/>
+      <c r="AA141" s="221"/>
+      <c r="AB141" s="221"/>
+      <c r="AC141" s="221"/>
+      <c r="AD141" s="221"/>
+      <c r="AE141" s="221"/>
+      <c r="AF141" s="221"/>
+      <c r="AG141" s="221"/>
+      <c r="AH141" s="221"/>
+      <c r="AI141" s="221"/>
+      <c r="AJ141" s="221"/>
+      <c r="AK141" s="221"/>
+      <c r="AL141" s="221"/>
+      <c r="AM141" s="221"/>
+      <c r="AN141" s="221"/>
     </row>
     <row r="142" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
@@ -9167,7 +9167,7 @@
       <c r="M142" s="13"/>
       <c r="O142" s="81"/>
       <c r="P142" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q142" s="164"/>
       <c r="R142" s="165"/>
@@ -9181,10 +9181,10 @@
       <c r="W142" s="189"/>
       <c r="X142" s="167"/>
       <c r="Y142" s="84"/>
-      <c r="AA142" s="222"/>
-      <c r="AE142" s="222"/>
-      <c r="AI142" s="222"/>
-      <c r="AL142" s="222"/>
+      <c r="AA142" s="221"/>
+      <c r="AE142" s="221"/>
+      <c r="AI142" s="221"/>
+      <c r="AL142" s="221"/>
     </row>
     <row r="143" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
@@ -9206,7 +9206,7 @@
       <c r="M143" s="13"/>
       <c r="O143" s="81"/>
       <c r="P143" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q143" s="192"/>
       <c r="R143" s="170">
@@ -9249,7 +9249,7 @@
       <c r="M144" s="13"/>
       <c r="O144" s="81"/>
       <c r="P144" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q144" s="164"/>
       <c r="R144" s="165"/>
@@ -9292,7 +9292,7 @@
       <c r="M145" s="13"/>
       <c r="O145" s="81"/>
       <c r="P145" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q145" s="192"/>
       <c r="R145" s="170">
@@ -9335,7 +9335,7 @@
       <c r="M146" s="13"/>
       <c r="O146" s="81"/>
       <c r="P146" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q146" s="164"/>
       <c r="R146" s="165"/>
@@ -9378,7 +9378,7 @@
       <c r="M147" s="13"/>
       <c r="O147" s="81"/>
       <c r="P147" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q147" s="192"/>
       <c r="R147" s="170">
@@ -9421,7 +9421,7 @@
       <c r="M148" s="13"/>
       <c r="O148" s="81"/>
       <c r="P148" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q148" s="164"/>
       <c r="R148" s="165"/>
@@ -9464,7 +9464,7 @@
       <c r="M149" s="13"/>
       <c r="O149" s="81"/>
       <c r="P149" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q149" s="192"/>
       <c r="R149" s="170">
@@ -9507,7 +9507,7 @@
       <c r="M150" s="13"/>
       <c r="O150" s="81"/>
       <c r="P150" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q150" s="164"/>
       <c r="R150" s="165"/>
@@ -9546,7 +9546,7 @@
       <c r="M151" s="13"/>
       <c r="O151" s="81"/>
       <c r="P151" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q151" s="192"/>
       <c r="R151" s="170">
@@ -9585,7 +9585,7 @@
       <c r="M152" s="13"/>
       <c r="O152" s="81"/>
       <c r="P152" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q152" s="164"/>
       <c r="R152" s="165"/>
@@ -9624,7 +9624,7 @@
       <c r="M153" s="13"/>
       <c r="O153" s="81"/>
       <c r="P153" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q153" s="192"/>
       <c r="R153" s="170">
@@ -9663,7 +9663,7 @@
       <c r="M154" s="13"/>
       <c r="O154" s="81"/>
       <c r="P154" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q154" s="164"/>
       <c r="R154" s="165"/>
@@ -9700,7 +9700,7 @@
       <c r="M155" s="13"/>
       <c r="O155" s="81"/>
       <c r="P155" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q155" s="192"/>
       <c r="R155" s="170">
@@ -9737,7 +9737,7 @@
       <c r="M156" s="13"/>
       <c r="O156" s="81"/>
       <c r="P156" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q156" s="164"/>
       <c r="R156" s="165"/>
@@ -9774,7 +9774,7 @@
       <c r="M157" s="13"/>
       <c r="O157" s="81"/>
       <c r="P157" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q157" s="192"/>
       <c r="R157" s="170">
@@ -9811,7 +9811,7 @@
       <c r="M158" s="13"/>
       <c r="O158" s="81"/>
       <c r="P158" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q158" s="164"/>
       <c r="R158" s="165"/>
@@ -9848,7 +9848,7 @@
       <c r="M159" s="13"/>
       <c r="O159" s="81"/>
       <c r="P159" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q159" s="192"/>
       <c r="R159" s="170">
@@ -9883,7 +9883,7 @@
       <c r="M160" s="13"/>
       <c r="O160" s="81"/>
       <c r="P160" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q160" s="164"/>
       <c r="R160" s="165"/>
@@ -9918,7 +9918,7 @@
       <c r="M161" s="13"/>
       <c r="O161" s="81"/>
       <c r="P161" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q161" s="192"/>
       <c r="R161" s="170">
@@ -9953,7 +9953,7 @@
       <c r="M162" s="13"/>
       <c r="O162" s="81"/>
       <c r="P162" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q162" s="164"/>
       <c r="R162" s="165"/>
@@ -9988,7 +9988,7 @@
       <c r="M163" s="13"/>
       <c r="O163" s="81"/>
       <c r="P163" s="169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q163" s="171"/>
       <c r="R163" s="170">
@@ -10202,10 +10202,10 @@
       <c r="L170" s="176"/>
       <c r="M170" s="13"/>
       <c r="O170" s="52"/>
-      <c r="P170" s="222"/>
-      <c r="Q170" s="222"/>
-      <c r="R170" s="222"/>
-      <c r="S170" s="222"/>
+      <c r="P170" s="221"/>
+      <c r="Q170" s="221"/>
+      <c r="R170" s="221"/>
+      <c r="S170" s="221"/>
       <c r="T170" s="61"/>
       <c r="U170" s="61"/>
       <c r="V170" s="61"/>
@@ -10960,7 +10960,7 @@
         <v>65</v>
       </c>
       <c r="C197" s="90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D197" s="197" t="str">
         <f>IF($P$7="","",$P$7)</f>
@@ -10974,7 +10974,7 @@
       <c r="J197" s="91"/>
       <c r="K197" s="91"/>
       <c r="L197" s="90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M197" s="92" t="str">
         <f>IF($X$7="","",$X$7)</f>
@@ -10986,7 +10986,7 @@
         <v>66</v>
       </c>
       <c r="C198" s="90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D198" s="92" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -11000,7 +11000,7 @@
       <c r="J198" s="91"/>
       <c r="K198" s="91"/>
       <c r="L198" s="90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M198" s="95" t="str">
         <f>IF($R$13="","",$R$13)</f>
@@ -11148,7 +11148,7 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.9055118110236221" bottom="1.0236220472440944" header="0.78740157480314965" footer="0.78740157480314965"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
